--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$114</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="545">
   <si>
     <t>Part number</t>
   </si>
@@ -2644,6 +2644,131 @@
   </si>
   <si>
     <t>15V/600W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000111</t>
+  </si>
+  <si>
+    <t>贴片电感</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMI322513X100K</t>
+  </si>
+  <si>
+    <t>10uH/5%/300mA</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>4.7uF/16V/10%</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>1000112</t>
+  </si>
+  <si>
+    <t>1000113</t>
+  </si>
+  <si>
+    <t>B0505S-1WR3</t>
+  </si>
+  <si>
+    <t>1W/3000V</t>
+  </si>
+  <si>
+    <t>B_M-2W</t>
+  </si>
+  <si>
+    <t>MORNSUN</t>
+  </si>
+  <si>
+    <t>电源模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\B_S-1WR2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片LED</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-217/R6C-AL1M2VY/3T</t>
+  </si>
+  <si>
+    <t>everlight</t>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000114</t>
+  </si>
+  <si>
+    <t>2512 J0221T4E</t>
+  </si>
+  <si>
+    <t>220R/5%</t>
+  </si>
+  <si>
+    <t>R2512</t>
+  </si>
+  <si>
+    <t>1000115</t>
+  </si>
+  <si>
+    <t>ADuM1201BRZ</t>
+  </si>
+  <si>
+    <t>10 Mbps</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>1000116</t>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\ADuM1201BRZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC-8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2728,7 +2853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2781,11 +2906,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2797,6 +2933,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3103,10 +3245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6671,8 +6813,182 @@
       </c>
       <c r="J111" s="3"/>
     </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C112" t="s">
+        <v>513</v>
+      </c>
+      <c r="D112" t="s">
+        <v>514</v>
+      </c>
+      <c r="E112" t="s">
+        <v>514</v>
+      </c>
+      <c r="F112" t="s">
+        <v>156</v>
+      </c>
+      <c r="G112" t="s">
+        <v>389</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C113" t="s">
+        <v>515</v>
+      </c>
+      <c r="D113" t="s">
+        <v>516</v>
+      </c>
+      <c r="E113" t="s">
+        <v>516</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>517</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C114" t="s">
+        <v>520</v>
+      </c>
+      <c r="D114" t="s">
+        <v>520</v>
+      </c>
+      <c r="E114" t="s">
+        <v>521</v>
+      </c>
+      <c r="F114" t="s">
+        <v>522</v>
+      </c>
+      <c r="G114" t="s">
+        <v>523</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C115" t="s">
+        <v>528</v>
+      </c>
+      <c r="D115" t="s">
+        <v>530</v>
+      </c>
+      <c r="E115" t="s">
+        <v>530</v>
+      </c>
+      <c r="F115" t="s">
+        <v>161</v>
+      </c>
+      <c r="G115" t="s">
+        <v>529</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" t="s">
+        <v>533</v>
+      </c>
+      <c r="D116" t="s">
+        <v>534</v>
+      </c>
+      <c r="E116" t="s">
+        <v>534</v>
+      </c>
+      <c r="F116" t="s">
+        <v>535</v>
+      </c>
+      <c r="G116" t="s">
+        <v>391</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C117" t="s">
+        <v>537</v>
+      </c>
+      <c r="D117" t="s">
+        <v>537</v>
+      </c>
+      <c r="E117" t="s">
+        <v>538</v>
+      </c>
+      <c r="F117" t="s">
+        <v>544</v>
+      </c>
+      <c r="G117" t="s">
+        <v>539</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J111"/>
+  <autoFilter ref="A1:J114"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$117</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="567">
   <si>
     <t>Part number</t>
   </si>
@@ -864,9 +864,6 @@
     <t>贴片晶振</t>
   </si>
   <si>
-    <t>FC-135</t>
-  </si>
-  <si>
     <t>32.768KHz ±20ppm 12.5pF</t>
   </si>
   <si>
@@ -1298,10 +1295,6 @@
     <t>cjiang</t>
   </si>
   <si>
-    <t>ESDU5V0H4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>C</t>
     </r>
@@ -1374,10 +1367,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>P-Channel/-18V/1.6A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>F</t>
     </r>
@@ -1460,10 +1449,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RB551V-30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Q</t>
     </r>
@@ -1659,7 +1644,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CY7C1041GN30-10ZSXI</t>
+    <t>KM221M050G125A</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1674,42 +1659,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>YPRESS</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PSON</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KM221M050G125A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>apXon</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1779,78 +1728,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DMR-9P</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kmtw</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>293D227X9016E2TE3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ISHAY</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ACM7060-701-2PL-TL01</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1967,10 +1852,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mylib\si2301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>mylib\si2302</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2210,7 +2091,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\MAX3232</t>
+      <t>ylib\EPCS16</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2226,7 +2107,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\EPCS16</t>
+      <t>ylib\REF5050</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2242,7 +2123,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\REF5050</t>
+      <t>ylib\W25Q64BV</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2258,7 +2139,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\W25Q64BV</t>
+      <t>ylib\TPS5450DDA</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2274,7 +2155,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\TPS5450DDA</t>
+      <t>ylib\CAP POL</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2290,7 +2171,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\CY7C1041DV33-10ZSX</t>
+      <t>ylib\ANTENNA_5PIN</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2306,7 +2187,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\xtal1</t>
+      <t>ylib\CON 3</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2322,7 +2203,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\CAP POL</t>
+      <t>ylib\ds118b20</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2338,7 +2219,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\ANTENNA_5PIN</t>
+      <t>ylib\con2*5</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2354,7 +2235,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\CON 3</t>
+      <t>ylib\HR913129AE</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2370,7 +2251,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\ds118b20</t>
+      <t>ylib\con2*4</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2386,8 +2267,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\con2*5</t>
-    </r>
+      <t>ylib\con2*6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2402,7 +2287,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\HR913129AE</t>
+      <t>ylib\Inductor Common mode</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2418,7 +2303,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\con2*4</t>
+      <t>ylib\Resistor</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2434,7 +2319,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\con3</t>
+      <t>ylib\TestPoint</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2450,154 +2335,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\Varistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\CONNECTOR DB9</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\key1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\ocxo</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\hole</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\con2*6</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Inductor Common mode</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\TestPoint</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>ylib\NEO-M8</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2608,10 +2345,6 @@
   </si>
   <si>
     <t>1000079</t>
-  </si>
-  <si>
-    <t>mylib\OCXO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1000109</t>
@@ -2769,6 +2502,516 @@
   </si>
   <si>
     <t>SOIC-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CY7C1041GN30-10ZSXI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>YPRESS</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\CY7C1041DV33-10ZSX</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-135</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PSON</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Varistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\con3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\led</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kmtw</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\CONNECTOR DB9</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\key1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\OCXO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ISHAY</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ocxo</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\hole</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-Channel/-18V/1.6A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\si2301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶体管\MOS管\SI2301.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶体管\MOS管\SI2302.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESDU5V0H4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晶体管\肖特基二极管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\RB551VM-30.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB551V-30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Diode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电平调制\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LAN8720A.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CU\STM32F407IGT6.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电源芯片\LDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TPS7A89.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电平调制\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MAX3232.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\MAX3232</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电源芯片\DC-DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ref5050.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>存储芯片\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>W25Q64BV.pdf</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3245,24 +3488,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -3297,7 +3540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3317,10 +3560,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>16</v>
@@ -3329,7 +3572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3349,10 +3592,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>16</v>
@@ -3361,7 +3604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3381,10 +3624,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
@@ -3393,7 +3636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -3413,10 +3656,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>16</v>
@@ -3425,7 +3668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3445,10 +3688,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>16</v>
@@ -3457,7 +3700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -3477,10 +3720,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>16</v>
@@ -3489,7 +3732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3509,10 +3752,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>16</v>
@@ -3521,7 +3764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -3541,10 +3784,10 @@
         <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>16</v>
@@ -3553,7 +3796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -3573,10 +3816,10 @@
         <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>16</v>
@@ -3585,7 +3828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -3605,10 +3848,10 @@
         <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>16</v>
@@ -3617,7 +3860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -3637,19 +3880,19 @@
         <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -3669,19 +3912,19 @@
         <v>49</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -3701,19 +3944,19 @@
         <v>49</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -3733,19 +3976,19 @@
         <v>49</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -3765,19 +4008,19 @@
         <v>49</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -3797,19 +4040,19 @@
         <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -3829,19 +4072,19 @@
         <v>49</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -3861,19 +4104,19 @@
         <v>49</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -3893,19 +4136,19 @@
         <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -3925,19 +4168,19 @@
         <v>49</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -3957,19 +4200,19 @@
         <v>49</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -3989,19 +4232,19 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -4021,19 +4264,19 @@
         <v>49</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -4053,19 +4296,19 @@
         <v>49</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -4085,19 +4328,19 @@
         <v>49</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -4117,19 +4360,19 @@
         <v>49</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -4149,19 +4392,19 @@
         <v>49</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -4181,19 +4424,19 @@
         <v>49</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -4213,19 +4456,19 @@
         <v>49</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -4245,19 +4488,19 @@
         <v>49</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -4277,19 +4520,19 @@
         <v>49</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -4309,19 +4552,19 @@
         <v>49</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -4341,19 +4584,19 @@
         <v>49</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -4373,19 +4616,19 @@
         <v>118</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -4405,19 +4648,19 @@
         <v>118</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -4437,19 +4680,19 @@
         <v>126</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -4469,19 +4712,19 @@
         <v>126</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -4501,19 +4744,19 @@
         <v>126</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -4533,19 +4776,19 @@
         <v>136</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -4565,19 +4808,19 @@
         <v>136</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -4597,19 +4840,19 @@
         <v>136</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -4629,19 +4872,19 @@
         <v>136</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -4661,19 +4904,19 @@
         <v>136</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -4693,19 +4936,19 @@
         <v>136</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>153</v>
       </c>
@@ -4725,13 +4968,13 @@
         <v>156</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>13</v>
@@ -4757,13 +5000,13 @@
         <v>161</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>13</v>
@@ -4783,22 +5026,22 @@
         <v>164</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>13</v>
+        <v>446</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -4815,22 +5058,22 @@
         <v>167</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>406</v>
+        <v>546</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>407</v>
+        <v>547</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>387</v>
+        <v>548</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>13</v>
+        <v>549</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -4853,13 +5096,13 @@
         <v>165</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>13</v>
@@ -4873,10 +5116,10 @@
         <v>172</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>173</v>
@@ -4885,13 +5128,13 @@
         <v>174</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>13</v>
@@ -4904,8 +5147,8 @@
       <c r="B52" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>399</v>
+      <c r="C52" s="6" t="s">
+        <v>552</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>177</v>
@@ -4917,13 +5160,13 @@
         <v>179</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>13</v>
@@ -4936,8 +5179,8 @@
       <c r="B53" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>411</v>
+      <c r="C53" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>182</v>
@@ -4948,17 +5191,17 @@
       <c r="F53" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>400</v>
+      <c r="G53" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>450</v>
+        <v>557</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>13</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -4981,13 +5224,13 @@
         <v>188</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>13</v>
@@ -5013,13 +5256,13 @@
         <v>188</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>13</v>
@@ -5045,13 +5288,13 @@
         <v>188</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>13</v>
@@ -5077,13 +5320,13 @@
         <v>197</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>13</v>
@@ -5109,13 +5352,13 @@
         <v>197</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>13</v>
@@ -5141,19 +5384,19 @@
         <v>205</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -5173,13 +5416,13 @@
         <v>210</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>13</v>
@@ -5190,7 +5433,7 @@
         <v>211</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>212</v>
@@ -5205,19 +5448,19 @@
         <v>214</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -5225,7 +5468,7 @@
         <v>141</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>216</v>
@@ -5237,19 +5480,19 @@
         <v>217</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -5269,13 +5512,13 @@
         <v>221</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>13</v>
@@ -5304,10 +5547,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>13</v>
@@ -5333,19 +5576,19 @@
         <v>229</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>231</v>
       </c>
@@ -5365,19 +5608,19 @@
         <v>234</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>235</v>
       </c>
@@ -5397,16 +5640,16 @@
         <v>238</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>13</v>
+        <v>455</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -5429,13 +5672,13 @@
         <v>242</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>13</v>
@@ -5458,19 +5701,19 @@
         <v>245</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>13</v>
+        <v>457</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -5478,28 +5721,28 @@
         <v>246</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>247</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>13</v>
@@ -5513,10 +5756,10 @@
         <v>172</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>249</v>
@@ -5525,13 +5768,13 @@
         <v>250</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>13</v>
@@ -5557,13 +5800,13 @@
         <v>254</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>13</v>
@@ -5589,16 +5832,16 @@
         <v>258</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>409</v>
+        <v>562</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>387</v>
+        <v>563</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>473</v>
+        <v>564</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>13</v>
+        <v>561</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -5615,25 +5858,25 @@
         <v>260</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>262</v>
       </c>
@@ -5653,16 +5896,16 @@
         <v>265</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>13</v>
+        <v>462</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -5685,16 +5928,16 @@
         <v>269</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>13</v>
+        <v>463</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -5705,7 +5948,7 @@
         <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>271</v>
@@ -5717,19 +5960,19 @@
         <v>273</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>274</v>
       </c>
@@ -5737,7 +5980,7 @@
         <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>428</v>
+        <v>523</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>275</v>
@@ -5749,45 +5992,45 @@
         <v>277</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>429</v>
+        <v>524</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>387</v>
+        <v>525</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="G79" s="4" t="s">
-        <v>430</v>
+        <v>528</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>387</v>
+        <v>525</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>13</v>
@@ -5795,31 +6038,31 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="G80" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>13</v>
@@ -5827,31 +6070,31 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="F81" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>13</v>
@@ -5859,31 +6102,31 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="G82" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>13</v>
@@ -5891,31 +6134,31 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="G83" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>13</v>
@@ -5923,63 +6166,63 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="G85" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>13</v>
@@ -5987,95 +6230,95 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="C87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="B88" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G88" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>388</v>
+        <v>531</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>13</v>
@@ -6083,95 +6326,95 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="G89" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="B91" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>388</v>
+        <v>531</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>13</v>
@@ -6179,31 +6422,31 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>388</v>
+        <v>531</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>13</v>
@@ -6211,63 +6454,63 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>443</v>
+        <v>539</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>388</v>
+        <v>531</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>389</v>
+      <c r="G94" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+        <v>525</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>13</v>
@@ -6275,127 +6518,127 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="G95" s="4" t="s">
-        <v>445</v>
+        <v>543</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>387</v>
+        <v>525</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="E96" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>389</v>
+      <c r="G96" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="H96" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="I98" s="4" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>13</v>
@@ -6403,31 +6646,31 @@
     </row>
     <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="G99" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>13</v>
@@ -6435,39 +6678,39 @@
     </row>
     <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>46</v>
@@ -6485,27 +6728,27 @@
         <v>49</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>121</v>
@@ -6517,21 +6760,21 @@
         <v>49</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>46</v>
@@ -6549,21 +6792,21 @@
         <v>49</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>46</v>
@@ -6581,21 +6824,21 @@
         <v>49</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>46</v>
@@ -6613,77 +6856,77 @@
         <v>49</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="E106" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H106" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="I106" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="I107" s="4" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>13</v>
@@ -6691,31 +6934,31 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>13</v>
@@ -6723,60 +6966,60 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="G109" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>16</v>
@@ -6785,87 +7028,87 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C112" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="D112" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="E112" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="F112" t="s">
         <v>156</v>
       </c>
       <c r="G112" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C113" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="D113" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="E113" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>16</v>
@@ -6873,124 +7116,154 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="C114" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="D114" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E114" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="F114" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="G114" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="C115" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="D115" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="E115" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="F115" t="s">
         <v>161</v>
       </c>
       <c r="G115" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D116" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="E116" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="F116" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="G116" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="C117" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="D117" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="E117" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="F117" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="G117" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J114"/>
+  <autoFilter ref="A1:J117">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DB9连接器"/>
+        <filter val="FPGA"/>
+        <filter val="RJ45连接器"/>
+        <filter val="侧插按键"/>
+        <filter val="电解电容"/>
+        <filter val="电源连接器"/>
+        <filter val="电源模块"/>
+        <filter val="恒温晶振"/>
+        <filter val="射频连接器"/>
+        <filter val="贴片LED"/>
+        <filter val="贴片TVS"/>
+        <filter val="贴片按键"/>
+        <filter val="贴片保险丝"/>
+        <filter val="贴片电池座"/>
+        <filter val="贴片二极管"/>
+        <filter val="贴片共模电感"/>
+        <filter val="贴片晶体管"/>
+        <filter val="贴片晶振"/>
+        <filter val="贴片连接器"/>
+        <filter val="贴片模组"/>
+        <filter val="贴片钽电容"/>
+        <filter val="贴片芯片"/>
+        <filter val="温度传感器"/>
+        <filter val="压敏电阻"/>
+        <filter val="直插LED"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="574">
   <si>
     <t>Part number</t>
   </si>
@@ -3012,6 +3012,33 @@
       </rPr>
       <t>W25Q64BV.pdf</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000117</t>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F767IGT6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex M7/216MHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\STM32F767IGT6</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3488,11 +3515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3540,7 +3566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3572,7 +3598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3604,7 +3630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3636,7 +3662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -3668,7 +3694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3700,7 +3726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -3732,7 +3758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3764,7 +3790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -3796,7 +3822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -3828,7 +3854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -3860,7 +3886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -3892,7 +3918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -3924,7 +3950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -3956,7 +3982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -3988,7 +4014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -4020,7 +4046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -4052,7 +4078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -4084,7 +4110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -4116,7 +4142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -4148,7 +4174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -4180,7 +4206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -4212,7 +4238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -4244,7 +4270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -4276,7 +4302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -4308,7 +4334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -4340,7 +4366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -4372,7 +4398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -4404,7 +4430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -4436,7 +4462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -4468,7 +4494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -4500,7 +4526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -4532,7 +4558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -4564,7 +4590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -4596,7 +4622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -4628,7 +4654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -4660,7 +4686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -4692,7 +4718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -4724,7 +4750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -4756,7 +4782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -4788,7 +4814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -4820,7 +4846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -4852,7 +4878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -4884,7 +4910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -4916,7 +4942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -4948,7 +4974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>153</v>
       </c>
@@ -5364,7 +5390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>201</v>
       </c>
@@ -5460,7 +5486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -5492,7 +5518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -5652,7 +5678,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>239</v>
       </c>
@@ -5716,7 +5742,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>246</v>
       </c>
@@ -5812,7 +5838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -5844,7 +5870,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>259</v>
       </c>
@@ -5940,7 +5966,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>270</v>
       </c>
@@ -5972,7 +5998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>274</v>
       </c>
@@ -6004,7 +6030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
@@ -6132,7 +6158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>290</v>
       </c>
@@ -6196,7 +6222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>296</v>
       </c>
@@ -6228,7 +6254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>301</v>
       </c>
@@ -6260,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>305</v>
       </c>
@@ -6292,7 +6318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>310</v>
       </c>
@@ -6324,7 +6350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>313</v>
       </c>
@@ -6388,7 +6414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>320</v>
       </c>
@@ -6420,7 +6446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>323</v>
       </c>
@@ -6484,7 +6510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>331</v>
       </c>
@@ -6548,7 +6574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>339</v>
       </c>
@@ -6580,7 +6606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>343</v>
       </c>
@@ -6612,7 +6638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>346</v>
       </c>
@@ -6708,7 +6734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>356</v>
       </c>
@@ -6740,7 +6766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>359</v>
       </c>
@@ -6772,7 +6798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>360</v>
       </c>
@@ -6804,7 +6830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>362</v>
       </c>
@@ -6836,7 +6862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>363</v>
       </c>
@@ -6868,7 +6894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>364</v>
       </c>
@@ -6900,7 +6926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>365</v>
       </c>
@@ -6996,7 +7022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>480</v>
       </c>
@@ -7056,7 +7082,7 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>489</v>
       </c>
@@ -7085,7 +7111,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>496</v>
       </c>
@@ -7172,7 +7198,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>514</v>
       </c>
@@ -7230,38 +7256,37 @@
         <v>521</v>
       </c>
     </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C118" t="s">
+        <v>569</v>
+      </c>
+      <c r="D118" t="s">
+        <v>569</v>
+      </c>
+      <c r="E118" t="s">
+        <v>570</v>
+      </c>
+      <c r="F118" t="s">
+        <v>234</v>
+      </c>
+      <c r="G118" t="s">
+        <v>571</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J117">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="DB9连接器"/>
-        <filter val="FPGA"/>
-        <filter val="RJ45连接器"/>
-        <filter val="侧插按键"/>
-        <filter val="电解电容"/>
-        <filter val="电源连接器"/>
-        <filter val="电源模块"/>
-        <filter val="恒温晶振"/>
-        <filter val="射频连接器"/>
-        <filter val="贴片LED"/>
-        <filter val="贴片TVS"/>
-        <filter val="贴片按键"/>
-        <filter val="贴片保险丝"/>
-        <filter val="贴片电池座"/>
-        <filter val="贴片二极管"/>
-        <filter val="贴片共模电感"/>
-        <filter val="贴片晶体管"/>
-        <filter val="贴片晶振"/>
-        <filter val="贴片连接器"/>
-        <filter val="贴片模组"/>
-        <filter val="贴片钽电容"/>
-        <filter val="贴片芯片"/>
-        <filter val="温度传感器"/>
-        <filter val="压敏电阻"/>
-        <filter val="直插LED"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J117"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$122</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="611">
   <si>
     <t>Part number</t>
   </si>
@@ -891,18 +891,12 @@
     <t>TNC-KWE</t>
   </si>
   <si>
-    <t>TNC header</t>
-  </si>
-  <si>
     <t>1000082</t>
   </si>
   <si>
     <t>BNC-KYWE</t>
   </si>
   <si>
-    <t>BNC header</t>
-  </si>
-  <si>
     <t>1000083</t>
   </si>
   <si>
@@ -1953,6 +1947,22 @@
   </si>
   <si>
     <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>YLIB\STM32F407IG</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>m</t>
     </r>
     <r>
@@ -1963,23 +1973,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\LED-6T</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YLIB\STM32F407IG</t>
+      <t>ylib\LAN8720AI-CP-TR</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1995,7 +1989,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\LAN8720AI-CP-TR</t>
+      <t>ylib\TDC-GP21</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2011,7 +2005,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\TDC-GP21</t>
+      <t>ylib\TPS7A7001</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2027,7 +2021,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\TPS7A7001</t>
+      <t>ylib\LightModel_SFP</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2043,7 +2037,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\LightModel_SFP</t>
+      <t>ylib\74LVC1G04</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2059,7 +2053,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\74LVC1G04</t>
+      <t>ylib\DCA8411</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2075,7 +2069,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\DCA8411</t>
+      <t>ylib\EPCS16</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2091,7 +2085,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\EPCS16</t>
+      <t>ylib\REF5050</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2107,7 +2101,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\REF5050</t>
+      <t>ylib\W25Q64BV</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2123,7 +2117,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\W25Q64BV</t>
+      <t>ylib\TPS5450DDA</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2139,7 +2133,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\TPS5450DDA</t>
+      <t>ylib\CAP POL</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2155,7 +2149,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\CAP POL</t>
+      <t>ylib\ANTENNA_5PIN</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2171,7 +2165,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\ANTENNA_5PIN</t>
+      <t>ylib\CON 3</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2187,7 +2181,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\CON 3</t>
+      <t>ylib\con2*5</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2203,7 +2197,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\con2*5</t>
+      <t>ylib\HR913129AE</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2219,7 +2213,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\HR913129AE</t>
+      <t>ylib\con2*4</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2235,8 +2229,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\con2*4</t>
-    </r>
+      <t>ylib\con2*6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2251,43 +2249,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\con2*6</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>ylib\Inductor Common mode</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3260,6 +3222,202 @@
         <charset val="134"/>
       </rPr>
       <t>H</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10R/1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/0.125W</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MA-KWE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SMA 弯角 PCB板插式 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA-K-UPRIGHT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MA-KWE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ANTENNA_5PIN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFsister</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\SMA-K板端连接器弯头焊接.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\BNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\BNC-F4-1-M.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\TNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TNC-F4-1-M.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TNC header 弯角 PCB板插式 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BNC header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 弯角 PCB板插式 </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\LEA-6T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EA-6T</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3420,7 +3578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3441,6 +3599,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3745,10 +3904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3756,8 +3916,8 @@
     <col min="1" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.25" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="10" width="35.625" customWidth="1"/>
@@ -3795,7 +3955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3815,10 +3975,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>16</v>
@@ -3827,7 +3987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3847,10 +4007,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>16</v>
@@ -3859,7 +4019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3879,10 +4039,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
@@ -3891,7 +4051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -3911,10 +4071,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>16</v>
@@ -3923,7 +4083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3943,10 +4103,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>16</v>
@@ -3955,7 +4115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -3975,10 +4135,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>16</v>
@@ -3987,7 +4147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -4007,10 +4167,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>16</v>
@@ -4019,7 +4179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -4039,10 +4199,10 @@
         <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>16</v>
@@ -4051,7 +4211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -4071,10 +4231,10 @@
         <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>16</v>
@@ -4083,7 +4243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -4103,10 +4263,10 @@
         <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>16</v>
@@ -4115,7 +4275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4135,19 +4295,19 @@
         <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -4167,19 +4327,19 @@
         <v>49</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -4199,19 +4359,19 @@
         <v>49</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -4231,19 +4391,19 @@
         <v>49</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -4263,19 +4423,19 @@
         <v>49</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -4295,19 +4455,19 @@
         <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -4327,19 +4487,19 @@
         <v>49</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -4359,19 +4519,19 @@
         <v>49</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -4391,19 +4551,19 @@
         <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -4423,19 +4583,19 @@
         <v>49</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -4455,19 +4615,19 @@
         <v>49</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -4487,19 +4647,19 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -4519,19 +4679,19 @@
         <v>49</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -4551,19 +4711,19 @@
         <v>49</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -4583,19 +4743,19 @@
         <v>49</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -4615,19 +4775,19 @@
         <v>49</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -4647,19 +4807,19 @@
         <v>49</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -4679,19 +4839,19 @@
         <v>49</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -4711,19 +4871,19 @@
         <v>49</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -4743,19 +4903,19 @@
         <v>49</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -4775,19 +4935,19 @@
         <v>49</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -4807,19 +4967,19 @@
         <v>49</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -4839,19 +4999,19 @@
         <v>49</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -4871,19 +5031,19 @@
         <v>118</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -4893,8 +5053,8 @@
       <c r="C36" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>121</v>
+      <c r="D36" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>121</v>
@@ -4903,19 +5063,19 @@
         <v>118</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -4935,19 +5095,19 @@
         <v>126</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -4967,19 +5127,19 @@
         <v>126</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -4999,19 +5159,19 @@
         <v>126</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -5031,19 +5191,19 @@
         <v>136</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -5063,19 +5223,19 @@
         <v>136</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -5095,19 +5255,19 @@
         <v>136</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -5127,19 +5287,19 @@
         <v>136</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -5159,19 +5319,19 @@
         <v>136</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -5191,19 +5351,19 @@
         <v>136</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>153</v>
       </c>
@@ -5223,19 +5383,19 @@
         <v>156</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -5255,19 +5415,19 @@
         <v>161</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -5281,25 +5441,25 @@
         <v>164</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>166</v>
       </c>
@@ -5313,25 +5473,25 @@
         <v>167</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
@@ -5351,19 +5511,19 @@
         <v>165</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>171</v>
       </c>
@@ -5371,10 +5531,10 @@
         <v>172</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>173</v>
@@ -5383,19 +5543,19 @@
         <v>174</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>175</v>
       </c>
@@ -5403,7 +5563,7 @@
         <v>176</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>177</v>
@@ -5415,19 +5575,19 @@
         <v>179</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>180</v>
       </c>
@@ -5435,7 +5595,7 @@
         <v>181</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>182</v>
@@ -5447,19 +5607,19 @@
         <v>184</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>185</v>
       </c>
@@ -5479,19 +5639,19 @@
         <v>188</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>189</v>
       </c>
@@ -5511,19 +5671,19 @@
         <v>188</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
@@ -5543,19 +5703,19 @@
         <v>188</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>194</v>
       </c>
@@ -5575,19 +5735,19 @@
         <v>197</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -5607,19 +5767,19 @@
         <v>197</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>201</v>
       </c>
@@ -5639,19 +5799,19 @@
         <v>205</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -5671,24 +5831,24 @@
         <v>210</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>212</v>
@@ -5703,19 +5863,19 @@
         <v>214</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -5723,7 +5883,7 @@
         <v>141</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>216</v>
@@ -5735,19 +5895,19 @@
         <v>217</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -5767,19 +5927,19 @@
         <v>221</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>222</v>
       </c>
@@ -5802,10 +5962,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>13</v>
@@ -5821,8 +5981,8 @@
       <c r="C65" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>228</v>
+      <c r="D65" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>230</v>
@@ -5831,19 +5991,19 @@
         <v>229</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>453</v>
+        <v>384</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>609</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>231</v>
       </c>
@@ -5863,19 +6023,19 @@
         <v>234</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>235</v>
       </c>
@@ -5895,19 +6055,19 @@
         <v>238</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>239</v>
       </c>
@@ -5927,19 +6087,19 @@
         <v>242</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>243</v>
       </c>
@@ -5956,54 +6116,54 @@
         <v>245</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="E70" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>247</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>248</v>
       </c>
@@ -6011,10 +6171,10 @@
         <v>172</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>249</v>
@@ -6023,19 +6183,19 @@
         <v>250</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>251</v>
       </c>
@@ -6055,19 +6215,19 @@
         <v>254</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -6087,19 +6247,19 @@
         <v>258</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>259</v>
       </c>
@@ -6113,25 +6273,25 @@
         <v>260</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>262</v>
       </c>
@@ -6151,19 +6311,19 @@
         <v>265</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>266</v>
       </c>
@@ -6183,19 +6343,19 @@
         <v>269</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>270</v>
       </c>
@@ -6203,7 +6363,7 @@
         <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>271</v>
@@ -6215,19 +6375,19 @@
         <v>273</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>274</v>
       </c>
@@ -6235,7 +6395,7 @@
         <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>275</v>
@@ -6247,19 +6407,19 @@
         <v>277</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
@@ -6267,7 +6427,7 @@
         <v>279</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>280</v>
@@ -6279,27 +6439,27 @@
         <v>281</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H79" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>527</v>
-      </c>
       <c r="J79" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>284</v>
@@ -6311,19 +6471,19 @@
         <v>285</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
@@ -6336,26 +6496,26 @@
       <c r="D81" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>289</v>
+      <c r="E81" s="6" t="s">
+        <v>607</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>288</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>286</v>
       </c>
@@ -6363,647 +6523,647 @@
         <v>287</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>608</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>288</v>
       </c>
       <c r="G82" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I82" s="4" t="s">
+      <c r="H83" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="J86" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="J87" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="C88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G86" s="4" t="s">
+      <c r="D90" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I88" s="4" t="s">
+      <c r="D91" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G89" s="4" t="s">
+      <c r="J91" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I89" s="4" t="s">
+      <c r="J92" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G91" s="4" t="s">
+      <c r="H93" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="J93" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="G94" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="J97" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="B99" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="H100" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="B101" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>121</v>
@@ -7015,205 +7175,187 @@
         <v>49</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="G107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="E108" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>13</v>
@@ -7221,419 +7363,420 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="D109" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="F109" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I109" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="J109" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="2" t="s">
+      <c r="D110" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C112" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D112" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E112" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F112" t="s">
         <v>156</v>
       </c>
       <c r="G112" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C113" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D113" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E113" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C114" t="s">
+        <v>493</v>
+      </c>
+      <c r="D114" t="s">
+        <v>493</v>
+      </c>
+      <c r="E114" t="s">
+        <v>494</v>
+      </c>
+      <c r="F114" t="s">
+        <v>495</v>
+      </c>
+      <c r="G114" t="s">
         <v>496</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="H114" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C115" t="s">
         <v>501</v>
       </c>
-      <c r="C114" t="s">
-        <v>497</v>
-      </c>
-      <c r="D114" t="s">
-        <v>497</v>
-      </c>
-      <c r="E114" t="s">
-        <v>498</v>
-      </c>
-      <c r="F114" t="s">
-        <v>499</v>
-      </c>
-      <c r="G114" t="s">
-        <v>500</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="I114" s="6" t="s">
+      <c r="D115" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C115" t="s">
-        <v>505</v>
-      </c>
-      <c r="D115" t="s">
-        <v>507</v>
-      </c>
       <c r="E115" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F115" t="s">
         <v>161</v>
       </c>
       <c r="G115" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C117" t="s">
         <v>510</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
+        <v>510</v>
+      </c>
+      <c r="E117" t="s">
         <v>511</v>
       </c>
-      <c r="E116" t="s">
-        <v>511</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
+        <v>516</v>
+      </c>
+      <c r="G117" t="s">
         <v>512</v>
       </c>
-      <c r="G116" t="s">
-        <v>390</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C117" t="s">
-        <v>514</v>
-      </c>
-      <c r="D117" t="s">
-        <v>514</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="H117" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="F117" t="s">
-        <v>520</v>
-      </c>
-      <c r="G117" t="s">
-        <v>516</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C118" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D118" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E118" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
       </c>
       <c r="G118" t="s">
+        <v>565</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>567</v>
+      </c>
+      <c r="E119" t="s">
+        <v>567</v>
+      </c>
+      <c r="F119" t="s">
+        <v>568</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="J119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C120" t="s">
         <v>569</v>
       </c>
-      <c r="H118" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I118" s="4" t="s">
+      <c r="D120" t="s">
+        <v>570</v>
+      </c>
+      <c r="E120" t="s">
+        <v>570</v>
+      </c>
+      <c r="F120" t="s">
+        <v>571</v>
+      </c>
+      <c r="G120" t="s">
+        <v>572</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="I120" s="4" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" t="s">
-        <v>571</v>
-      </c>
-      <c r="E119" t="s">
-        <v>571</v>
-      </c>
-      <c r="F119" t="s">
-        <v>572</v>
-      </c>
-      <c r="G119" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="5" t="s">
+      <c r="J120" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C121" t="s">
+        <v>586</v>
+      </c>
+      <c r="D121" t="s">
+        <v>577</v>
+      </c>
+      <c r="E121" t="s">
+        <v>577</v>
+      </c>
+      <c r="F121" t="s">
+        <v>584</v>
+      </c>
+      <c r="G121" t="s">
+        <v>585</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="I121" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="I119" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="J119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C120" t="s">
-        <v>573</v>
-      </c>
-      <c r="D120" t="s">
-        <v>574</v>
-      </c>
-      <c r="E120" t="s">
-        <v>574</v>
-      </c>
-      <c r="F120" t="s">
-        <v>575</v>
-      </c>
-      <c r="G120" t="s">
-        <v>576</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="J120" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C121" t="s">
-        <v>590</v>
-      </c>
-      <c r="D121" t="s">
-        <v>581</v>
-      </c>
-      <c r="E121" t="s">
-        <v>581</v>
-      </c>
-      <c r="F121" t="s">
-        <v>588</v>
-      </c>
-      <c r="G121" t="s">
-        <v>589</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="I121" s="6" t="s">
+      <c r="J121" t="s">
         <v>587</v>
       </c>
-      <c r="J121" t="s">
+    </row>
+    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>16</v>
@@ -7643,7 +7786,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J117"/>
+  <autoFilter ref="A1:J122">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="贴片模组"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:J122">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="639">
   <si>
     <t>Part number</t>
   </si>
@@ -3181,7 +3181,235 @@
     <t>1000121</t>
   </si>
   <si>
+    <r>
+      <t>10R/1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/0.125W</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MA-KWE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SMA 弯角 PCB板插式 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA-K-UPRIGHT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MA-KWE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ANTENNA_5PIN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFsister</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\SMA-K板端连接器弯头焊接.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\BNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\BNC-F4-1-M.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\TNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TNC-F4-1-M.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TNC header 弯角 PCB板插式 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BNC header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 弯角 PCB板插式 </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\LEA-6T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EA-6T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS\LEA-6T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS\NEO-M8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>集成电路\时间测量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TDC-GP21_Datasheet_EN_v1.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000122</t>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>0603B225K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3210,6 +3438,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>F</t>
     </r>
@@ -3226,19 +3458,96 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>10R/1%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/0.125W</t>
-    </r>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电感</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLZ2012M100HT000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uH/20%/200mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0805</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Inductor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源器件\电感\MLZ2012M100HT000.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP4CE55F484</t>
+  </si>
+  <si>
+    <t>EP4CE55F23C8/FBGA484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA484</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LTERA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\EP4CE55F484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000123</t>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3253,171 +3562,31 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>MA-KWE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SMA 弯角 PCB板插式 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA-K-UPRIGHT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>射频连接器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MA-KWE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HR</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\ANTENNA_5PIN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFsister</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>连接器\射频连接器\SMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\SMA-K板端连接器弯头焊接.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>连接器\射频连接器\BNC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\BNC-F4-1-M.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>连接器\射频连接器\TNC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\TNC-F4-1-M.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TNC header 弯角 PCB板插式 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BNC header</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 弯角 PCB板插式 </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\LEA-6T</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EA-6T</t>
+      <t>RV05-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/300W/3pF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SRV05-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贴片T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VS\SRV05-4.pdf</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3426,7 +3595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3474,13 +3643,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF444444"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3578,7 +3740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3598,7 +3760,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3904,11 +4065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3955,7 +4115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3987,7 +4147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4019,7 +4179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -4051,7 +4211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -4083,7 +4243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -4115,7 +4275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -4147,7 +4307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -4179,7 +4339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -4211,7 +4371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -4243,7 +4403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -4275,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4307,7 +4467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -4339,7 +4499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -4371,7 +4531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -4403,7 +4563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -4435,7 +4595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -4467,7 +4627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -4499,7 +4659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -4531,7 +4691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -4563,7 +4723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -4595,7 +4755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -4627,7 +4787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -4659,7 +4819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -4691,7 +4851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -4723,7 +4883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -4755,7 +4915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -4787,7 +4947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -4819,7 +4979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -4851,7 +5011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -4883,7 +5043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -4915,7 +5075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -4947,7 +5107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -4979,7 +5139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -5011,7 +5171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -5043,7 +5203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -5054,7 +5214,7 @@
         <v>120</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>121</v>
@@ -5075,7 +5235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -5107,7 +5267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -5139,7 +5299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -5171,7 +5331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -5203,7 +5363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -5235,7 +5395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -5267,7 +5427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -5299,7 +5459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -5331,7 +5491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -5363,7 +5523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>153</v>
       </c>
@@ -5395,7 +5555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -5427,7 +5587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -5459,7 +5619,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>166</v>
       </c>
@@ -5491,7 +5651,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
@@ -5523,7 +5683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>171</v>
       </c>
@@ -5555,7 +5715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>175</v>
       </c>
@@ -5587,7 +5747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>180</v>
       </c>
@@ -5619,7 +5779,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>185</v>
       </c>
@@ -5651,7 +5811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>189</v>
       </c>
@@ -5683,7 +5843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
@@ -5715,7 +5875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>194</v>
       </c>
@@ -5747,7 +5907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -5779,7 +5939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>201</v>
       </c>
@@ -5811,7 +5971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -5843,7 +6003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>211</v>
       </c>
@@ -5875,7 +6035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -5907,7 +6067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -5939,7 +6099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>222</v>
       </c>
@@ -5982,7 +6142,7 @@
         <v>229</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>230</v>
@@ -5997,13 +6157,13 @@
         <v>384</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>606</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>231</v>
       </c>
@@ -6035,7 +6195,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>235</v>
       </c>
@@ -6067,7 +6227,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>239</v>
       </c>
@@ -6095,11 +6255,11 @@
       <c r="I68" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J68" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>243</v>
       </c>
@@ -6131,7 +6291,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>246</v>
       </c>
@@ -6163,7 +6323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>248</v>
       </c>
@@ -6195,7 +6355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>251</v>
       </c>
@@ -6227,7 +6387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -6259,7 +6419,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>259</v>
       </c>
@@ -6291,7 +6451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>262</v>
       </c>
@@ -6323,7 +6483,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>266</v>
       </c>
@@ -6355,7 +6515,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>270</v>
       </c>
@@ -6387,7 +6547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>274</v>
       </c>
@@ -6419,7 +6579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
@@ -6451,7 +6611,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>474</v>
       </c>
@@ -6483,7 +6643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
@@ -6497,7 +6657,7 @@
         <v>288</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>288</v>
@@ -6512,10 +6672,10 @@
         <v>463</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>286</v>
       </c>
@@ -6529,7 +6689,7 @@
         <v>290</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>288</v>
@@ -6544,10 +6704,10 @@
         <v>463</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>289</v>
       </c>
@@ -6579,7 +6739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>291</v>
       </c>
@@ -6611,7 +6771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>294</v>
       </c>
@@ -6643,7 +6803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>299</v>
       </c>
@@ -6675,7 +6835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>303</v>
       </c>
@@ -6707,7 +6867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>308</v>
       </c>
@@ -6739,7 +6899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>311</v>
       </c>
@@ -6771,7 +6931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>313</v>
       </c>
@@ -6803,7 +6963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>318</v>
       </c>
@@ -6835,7 +6995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>321</v>
       </c>
@@ -6867,7 +7027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>325</v>
       </c>
@@ -6899,7 +7059,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>329</v>
       </c>
@@ -6931,7 +7091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>333</v>
       </c>
@@ -6963,7 +7123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>337</v>
       </c>
@@ -6995,7 +7155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>341</v>
       </c>
@@ -7027,7 +7187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>344</v>
       </c>
@@ -7059,7 +7219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
@@ -7091,7 +7251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>350</v>
       </c>
@@ -7123,39 +7283,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="H101" s="4" t="s">
+      <c r="J101" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="I101" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>357</v>
       </c>
@@ -7187,33 +7347,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+        <v>626</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>628</v>
+      </c>
       <c r="F103" s="3" t="s">
-        <v>49</v>
+        <v>629</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>388</v>
+        <v>630</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>436</v>
+        <v>631</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>360</v>
       </c>
@@ -7239,7 +7405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>361</v>
       </c>
@@ -7265,7 +7431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>362</v>
       </c>
@@ -7297,7 +7463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>363</v>
       </c>
@@ -7329,7 +7495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>366</v>
       </c>
@@ -7389,11 +7555,11 @@
       <c r="I109" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="J109" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J109" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>475</v>
       </c>
@@ -7423,7 +7589,7 @@
       </c>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>481</v>
       </c>
@@ -7453,7 +7619,7 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>484</v>
       </c>
@@ -7482,7 +7648,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>491</v>
       </c>
@@ -7511,7 +7677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>492</v>
       </c>
@@ -7540,7 +7706,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>505</v>
       </c>
@@ -7569,26 +7735,26 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>509</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="7" t="s">
         <v>388</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -7597,9 +7763,9 @@
       <c r="I116" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>513</v>
       </c>
@@ -7628,7 +7794,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>561</v>
       </c>
@@ -7657,7 +7823,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>566</v>
       </c>
@@ -7689,7 +7855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>573</v>
       </c>
@@ -7721,7 +7887,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>576</v>
       </c>
@@ -7753,45 +7919,109 @@
         <v>587</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>591</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>13</v>
+        <v>612</v>
+      </c>
+      <c r="C122" t="s">
+        <v>613</v>
+      </c>
+      <c r="D122" t="s">
+        <v>614</v>
+      </c>
+      <c r="E122" t="s">
+        <v>614</v>
+      </c>
+      <c r="F122" t="s">
+        <v>615</v>
+      </c>
+      <c r="G122" t="s">
+        <v>616</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="J122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C123" t="s">
+        <v>620</v>
+      </c>
+      <c r="D123" t="s">
+        <v>621</v>
+      </c>
+      <c r="E123" t="s">
+        <v>621</v>
+      </c>
+      <c r="F123" t="s">
+        <v>622</v>
+      </c>
+      <c r="G123" t="s">
+        <v>623</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="J123" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J122">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="贴片模组"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:J122">
       <sortCondition ref="A1"/>
     </sortState>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$130</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="681">
   <si>
     <t>Part number</t>
   </si>
@@ -3278,6 +3278,327 @@
   </si>
   <si>
     <r>
+      <t>连接器\射频连接器\BNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\BNC-F4-1-M.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\TNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TNC-F4-1-M.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TNC header 弯角 PCB板插式 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BNC header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 弯角 PCB板插式 </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\LEA-6T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EA-6T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS\LEA-6T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>集成电路\时间测量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TDC-GP21_Datasheet_EN_v1.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000122</t>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B225K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.2uF/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/10%/X7R</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电感</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLZ2012M100HT000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uH/20%/200mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0805</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Inductor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源器件\电感\MLZ2012M100HT000.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP4CE55F484</t>
+  </si>
+  <si>
+    <t>EP4CE55F23C8/FBGA484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA484</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LTERA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\EP4CE55F484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000123</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RV05-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/300W/3pF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SRV05-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贴片T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VS\SRV05-4.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1-1-13M+</t>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0603</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS\NEO-M8.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>连接器\射频连接器\SMA</t>
     </r>
     <r>
@@ -3293,55 +3614,85 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>连接器\射频连接器\BNC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\BNC-F4-1-M.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>连接器\射频连接器\TNC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\TNC-F4-1-M.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TNC header 弯角 PCB板插式 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BNC header</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 弯角 PCB板插式 </t>
-    </r>
+    <t>TC1-1-13M+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini-circuits</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG102J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000124</t>
+  </si>
+  <si>
+    <t>1000125</t>
+  </si>
+  <si>
+    <t>1000126</t>
+  </si>
+  <si>
+    <t>1000127</t>
+  </si>
+  <si>
+    <t>1000128</t>
+  </si>
+  <si>
+    <t>1000129</t>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2 RF Transceiver/70MHz-6GHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴伦滤波器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF transformer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F100KT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1R/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3356,73 +3707,114 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\LEA-6T</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EA-6T</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS\LEA-6T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS\NEO-M8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>集成电路\时间测量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\TDC-GP21_Datasheet_EN_v1.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000122</t>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN82NG00d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>82nH/2%/250mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\LQW18AN82NG00D.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18ANR33G0ZD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>330nH/2%/85mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\LQW18AN82NG00D.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGA144-AD9361</t>
   </si>
   <si>
     <t>贴片电容</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0603B225K160NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.2uF/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
+    <t>mylib\Transformer_TC1-1-13M+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1432</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JT5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.3K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/1%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG681J500NT</t>
+  </si>
+  <si>
+    <r>
       <t>6</t>
     </r>
     <r>
@@ -3433,7 +3825,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>V/10%/X7R</t>
+      <t>80pF/5/COG</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3443,151 +3835,22 @@
   </si>
   <si>
     <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80pF/5/COG</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电感</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLZ2012M100HT000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10uH/20%/200mA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>L0805</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Inductor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无源器件\电感\MLZ2012M100HT000.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPGA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP4CE55F484</t>
-  </si>
-  <si>
-    <t>EP4CE55F23C8/FBGA484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBGA484</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LTERA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\EP4CE55F484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000123</t>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RV05-4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V/300W/3pF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\SRV05-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>贴片T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>VS\SRV05-4.pdf</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4065,17 +4328,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="31.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.25" customWidth="1"/>
@@ -6142,7 +6406,7 @@
         <v>229</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>230</v>
@@ -6157,10 +6421,10 @@
         <v>384</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -6256,7 +6520,7 @@
         <v>453</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -6657,7 +6921,7 @@
         <v>288</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>288</v>
@@ -6672,7 +6936,7 @@
         <v>463</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -6689,7 +6953,7 @@
         <v>290</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>288</v>
@@ -6704,7 +6968,7 @@
         <v>463</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -7312,7 +7576,7 @@
         <v>599</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -7352,28 +7616,28 @@
         <v>358</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="F103" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="H103" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="I103" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>632</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>13</v>
@@ -7384,22 +7648,28 @@
         <v>360</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+        <v>478</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="F104" s="3" t="s">
-        <v>49</v>
+        <v>678</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>436</v>
+        <v>469</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>680</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>13</v>
@@ -7412,9 +7682,15 @@
       <c r="B105" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="C105" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>675</v>
+      </c>
       <c r="F105" s="3" t="s">
         <v>49</v>
       </c>
@@ -7556,7 +7832,7 @@
         <v>472</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
@@ -7924,28 +8200,28 @@
         <v>591</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C122" t="s">
+        <v>611</v>
+      </c>
+      <c r="D122" t="s">
         <v>612</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
+        <v>612</v>
+      </c>
+      <c r="F122" t="s">
         <v>613</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G122" t="s">
         <v>614</v>
       </c>
-      <c r="E122" t="s">
-        <v>614</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="H122" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="G122" t="s">
+      <c r="I122" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="J122" t="s">
         <v>13</v>
@@ -7953,51 +8229,51 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C123" t="s">
+        <v>618</v>
+      </c>
+      <c r="D123" t="s">
         <v>619</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
+        <v>619</v>
+      </c>
+      <c r="F123" t="s">
         <v>620</v>
       </c>
-      <c r="D123" t="s">
+      <c r="G123" t="s">
         <v>621</v>
       </c>
-      <c r="E123" t="s">
-        <v>621</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="H123" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="I123" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="G123" t="s">
+      <c r="J123" t="s">
         <v>623</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="J123" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>179</v>
@@ -8009,19 +8285,198 @@
         <v>384</v>
       </c>
       <c r="I124" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="G127" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C125" t="s">
-        <v>634</v>
+      <c r="G128" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J122">
+  <autoFilter ref="A1:J130">
     <sortState ref="A2:J122">
       <sortCondition ref="A1"/>
     </sortState>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$134</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="708">
   <si>
     <t>Part number</t>
   </si>
@@ -3482,375 +3482,534 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>FPGA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP4CE55F484</t>
+  </si>
+  <si>
+    <t>EP4CE55F23C8/FBGA484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA484</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LTERA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\EP4CE55F484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000123</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RV05-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/300W/3pF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SRV05-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贴片T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VS\SRV05-4.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1-1-13M+</t>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0603</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS\NEO-M8.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\SMA-K板端连接器弯头焊接.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG102J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000124</t>
+  </si>
+  <si>
+    <t>1000125</t>
+  </si>
+  <si>
+    <t>1000126</t>
+  </si>
+  <si>
+    <t>1000127</t>
+  </si>
+  <si>
+    <t>1000128</t>
+  </si>
+  <si>
+    <t>1000129</t>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2 RF Transceiver/70MHz-6GHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF transformer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F100KT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1R/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN82NG00d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>82nH/2%/250mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18ANR33G0ZD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>330nH/2%/85mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGA144-AD9361</t>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1432</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JT5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.3K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/1%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG681J500NT</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80pF/5/COG</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80pF/5/COG</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴伦滤波器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1-1-13M+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini-circuits</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Transformer_TC1-1-13M+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>561</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14D 470V Varistor Voltage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V Varistor Voltage</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>680nF/10%/275VAC/X2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2684KVDARLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2-P15-18X10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU9.8/10mH/0.27mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU9.8-YH160224</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LN8X7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Inductor Common mode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感\UU9.8-YH.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容\X2安规电容 680nF 275VAC.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>无源器件\电感\MLZ2012M100HT000.pdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>FPGA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP4CE55F484</t>
-  </si>
-  <si>
-    <t>EP4CE55F23C8/FBGA484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBGA484</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LTERA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\EP4CE55F484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000123</t>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RV05-4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V/300W/3pF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\SRV05-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>贴片T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>VS\SRV05-4.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC1-1-13M+</t>
-  </si>
-  <si>
-    <t>C0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0603</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS\NEO-M8.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>连接器\射频连接器\SMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\SMA-K板端连接器弯头焊接.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC1-1-13M+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini-circuits</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG102J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1nF/50V/5%/COG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000124</t>
-  </si>
-  <si>
-    <t>1000125</t>
-  </si>
-  <si>
-    <t>1000126</t>
-  </si>
-  <si>
-    <t>1000127</t>
-  </si>
-  <si>
-    <t>1000128</t>
-  </si>
-  <si>
-    <t>1000129</t>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD9361BBCZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x2 RF Transceiver/70MHz-6GHz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\AD9361BBCZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴伦滤波器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF transformer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1nF/50V/5%/COG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F100KT5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1R/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniOhm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW18AN82NG00d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>82nH/2%/250mA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\LQW18AN82NG00D.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW18ANR33G0ZD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>330nH/2%/85mA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\LQW18AN82NG00D.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGA144-AD9361</t>
-  </si>
-  <si>
-    <t>贴片电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Transformer_TC1-1-13M+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0603 F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1432</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JT5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4.3K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/1%</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG681J500NT</t>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80pF/5/COG</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80pF/5/COG</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
+    <t>无源器件\电感\LQW18AN82NG00D.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直插电阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFR0W4J0105A50</t>
+  </si>
+  <si>
+    <t>1M/5%/0.25W/THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIAL0_4</t>
+  </si>
+  <si>
+    <t>X2-P10-13X6</t>
+  </si>
+  <si>
+    <t>TENTA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEY472K275A08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7nF/275VAC/Y2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容\Y1安规电容 4.7nF MEY472K275A08.pdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3858,7 +4017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3908,6 +4067,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3935,7 +4101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3999,11 +4165,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4024,6 +4199,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4328,10 +4510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="B106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I139" sqref="I138:I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7576,7 +7758,7 @@
         <v>599</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -7616,28 +7798,28 @@
         <v>358</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="F103" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="H103" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="I103" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>630</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>13</v>
@@ -7651,16 +7833,16 @@
         <v>478</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>392</v>
@@ -7669,7 +7851,7 @@
         <v>469</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>13</v>
@@ -7683,13 +7865,13 @@
         <v>46</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>49</v>
@@ -7832,7 +8014,7 @@
         <v>472</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
@@ -8256,24 +8438,24 @@
         <v>622</v>
       </c>
       <c r="J123" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C124" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>179</v>
@@ -8285,90 +8467,90 @@
         <v>384</v>
       </c>
       <c r="I124" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="J124" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="H125" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I125" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="J125" s="6"/>
     </row>
     <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>636</v>
+        <v>654</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>384</v>
+        <v>677</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>480</v>
@@ -8383,52 +8565,52 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I128" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>617</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>435</v>
@@ -8440,27 +8622,27 @@
         <v>440</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>617</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>435</v>
@@ -8472,11 +8654,200 @@
         <v>440</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>670</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>1000130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>1000131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>1000132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F133" t="s">
+        <v>687</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="J133" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>1000133</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>1000134</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F135" t="s">
+        <v>701</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>1000135</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F136" t="s">
+        <v>702</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J130">
+  <autoFilter ref="A1:J134">
     <sortState ref="A2:J122">
       <sortCondition ref="A1"/>
     </sortState>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$140</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="737">
   <si>
     <t>Part number</t>
   </si>
@@ -3928,39 +3928,191 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>X2-P15-18X10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU9.8/10mH/0.27mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU9.8-YH160224</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LN8X7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Inductor Common mode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感\UU9.8-YH.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源器件\电感\MLZ2012M100HT000.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源器件\电感\LQW18AN82NG00D.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直插电阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M/5%/0.25W/THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源器件\电感\磁封胶功率绕线电感.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源芯片\AC-DC\LDE10-20Bxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>MP2684KVDARLC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>X2-P15-18X10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模电感</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UU9.8/10mH/0.27mm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UU9.8-YH160224</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LN8X7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Inductor Common mode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模电感\UU9.8-YH.pdf</t>
+    <t>CFR0W4J0105A50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIAL0_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEY472K275A08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7nF/275VAC/Y2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2-P10-13X6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENTA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNR5040S100MT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uH/20%/2.1A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind-sm5x5mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjiang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Inductor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDE10-20B05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-DC/5V/2A/4KV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDE10-20B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORNSUN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\LDE10-20B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容\Y1安规电容 4.7nF 安规电容MEY472K275A08.pdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3968,36 +4120,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>无源器件\电感\MLZ2012M100HT000.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无源器件\电感\LQW18AN82NG00D.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>直插电阻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFR0W4J0105A50</t>
-  </si>
-  <si>
-    <t>1M/5%/0.25W/THR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AXIAL0_4</t>
+    <t>MP2684KGCAXLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>680nF/10%/275VAC/X2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>X2-P10-13X6</t>
-  </si>
-  <si>
-    <t>TENTA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEY472K275A08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RD</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4005,11 +4152,42 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>4.7nF/275VAC/Y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安规电容\Y1安规电容 4.7nF MEY472K275A08.pdf</t>
+    <t>CY1472ME1IEF49H0A2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7nF/400VAC/Y1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7nF/400VAC/Y1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1-P10-11_5X6</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>erSonic</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4017,7 +4195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4067,13 +4245,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF444444"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4101,7 +4272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4165,20 +4336,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4199,13 +4361,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4510,10 +4665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J136"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I139" sqref="I138:I139"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4561,7 +4717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4593,7 +4749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -4657,7 +4813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -4689,7 +4845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -4721,7 +4877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -4753,7 +4909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -4785,7 +4941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -4817,7 +4973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -4849,7 +5005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -4881,7 +5037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4913,7 +5069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -4945,7 +5101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -4977,7 +5133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -5009,7 +5165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -5041,7 +5197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -5073,7 +5229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -5105,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -5137,7 +5293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -5169,7 +5325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -5201,7 +5357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -5233,7 +5389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -5265,7 +5421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -5297,7 +5453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -5329,7 +5485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -5361,7 +5517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5393,7 +5549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -5425,7 +5581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -5457,7 +5613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -5489,7 +5645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -5521,7 +5677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -5553,7 +5709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -5585,7 +5741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -5617,7 +5773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -5649,7 +5805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -5681,7 +5837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -5713,7 +5869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -5745,7 +5901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -5777,7 +5933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -5809,7 +5965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -5841,7 +5997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -5873,7 +6029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -5905,7 +6061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -5937,7 +6093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -5969,7 +6125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>153</v>
       </c>
@@ -6001,7 +6157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -6033,7 +6189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -6065,7 +6221,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>166</v>
       </c>
@@ -6097,7 +6253,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
@@ -6129,7 +6285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>171</v>
       </c>
@@ -6161,7 +6317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>175</v>
       </c>
@@ -6193,7 +6349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>180</v>
       </c>
@@ -6225,7 +6381,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>185</v>
       </c>
@@ -6257,7 +6413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>189</v>
       </c>
@@ -6289,7 +6445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
@@ -6321,7 +6477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>194</v>
       </c>
@@ -6353,7 +6509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -6385,7 +6541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>201</v>
       </c>
@@ -6417,7 +6573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -6449,7 +6605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>211</v>
       </c>
@@ -6481,7 +6637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -6513,7 +6669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -6545,7 +6701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>222</v>
       </c>
@@ -6577,7 +6733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>227</v>
       </c>
@@ -6609,7 +6765,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>231</v>
       </c>
@@ -6641,7 +6797,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>235</v>
       </c>
@@ -6673,7 +6829,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>239</v>
       </c>
@@ -6705,7 +6861,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>243</v>
       </c>
@@ -6737,7 +6893,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>246</v>
       </c>
@@ -6769,7 +6925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>248</v>
       </c>
@@ -6801,7 +6957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>251</v>
       </c>
@@ -6833,7 +6989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -6865,7 +7021,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>259</v>
       </c>
@@ -6897,7 +7053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>262</v>
       </c>
@@ -6929,7 +7085,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>266</v>
       </c>
@@ -6961,7 +7117,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>270</v>
       </c>
@@ -6993,7 +7149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>274</v>
       </c>
@@ -7025,7 +7181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
@@ -7057,7 +7213,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>474</v>
       </c>
@@ -7089,7 +7245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
@@ -7121,7 +7277,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>286</v>
       </c>
@@ -7153,7 +7309,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>289</v>
       </c>
@@ -7185,7 +7341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>291</v>
       </c>
@@ -7217,7 +7373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>294</v>
       </c>
@@ -7249,7 +7405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>299</v>
       </c>
@@ -7281,7 +7437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>303</v>
       </c>
@@ -7313,7 +7469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>308</v>
       </c>
@@ -7345,7 +7501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>311</v>
       </c>
@@ -7377,7 +7533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>313</v>
       </c>
@@ -7409,7 +7565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>318</v>
       </c>
@@ -7441,7 +7597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>321</v>
       </c>
@@ -7473,7 +7629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>325</v>
       </c>
@@ -7505,7 +7661,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>329</v>
       </c>
@@ -7537,7 +7693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>333</v>
       </c>
@@ -7569,7 +7725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>337</v>
       </c>
@@ -7601,7 +7757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>341</v>
       </c>
@@ -7633,7 +7789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>344</v>
       </c>
@@ -7665,7 +7821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
@@ -7697,7 +7853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>350</v>
       </c>
@@ -7729,7 +7885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>354</v>
       </c>
@@ -7761,7 +7917,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>357</v>
       </c>
@@ -7793,7 +7949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>358</v>
       </c>
@@ -7825,7 +7981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>360</v>
       </c>
@@ -7857,7 +8013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>361</v>
       </c>
@@ -7889,7 +8045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>362</v>
       </c>
@@ -7921,7 +8077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>363</v>
       </c>
@@ -7953,7 +8109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>366</v>
       </c>
@@ -7985,7 +8141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>370</v>
       </c>
@@ -8017,7 +8173,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>475</v>
       </c>
@@ -8047,7 +8203,7 @@
       </c>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>481</v>
       </c>
@@ -8077,7 +8233,7 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>484</v>
       </c>
@@ -8106,7 +8262,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>491</v>
       </c>
@@ -8135,7 +8291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>492</v>
       </c>
@@ -8164,7 +8320,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>505</v>
       </c>
@@ -8193,7 +8349,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>509</v>
       </c>
@@ -8223,7 +8379,7 @@
       </c>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>513</v>
       </c>
@@ -8252,7 +8408,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>561</v>
       </c>
@@ -8281,7 +8437,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>566</v>
       </c>
@@ -8313,7 +8469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>573</v>
       </c>
@@ -8345,7 +8501,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>576</v>
       </c>
@@ -8377,7 +8533,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>591</v>
       </c>
@@ -8409,7 +8565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>609</v>
       </c>
@@ -8438,10 +8594,10 @@
         <v>622</v>
       </c>
       <c r="J123" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>630</v>
       </c>
@@ -8473,7 +8629,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>643</v>
       </c>
@@ -8503,7 +8659,7 @@
       </c>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>644</v>
       </c>
@@ -8533,7 +8689,7 @@
       </c>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>645</v>
       </c>
@@ -8563,7 +8719,7 @@
       </c>
       <c r="J127" s="6"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>646</v>
       </c>
@@ -8593,7 +8749,7 @@
       </c>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>647</v>
       </c>
@@ -8622,10 +8778,10 @@
         <v>440</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>648</v>
       </c>
@@ -8654,10 +8810,10 @@
         <v>440</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>1000130</v>
       </c>
@@ -8689,7 +8845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>1000131</v>
       </c>
@@ -8721,133 +8877,263 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>1000132</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="F133" t="s">
-        <v>687</v>
-      </c>
-      <c r="G133" s="5" t="s">
+      <c r="G133" s="4" t="s">
         <v>685</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="I133" s="6" t="s">
+      <c r="I133" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="J133" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="J133" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>1000133</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="E134" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>692</v>
+      <c r="G134" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="I134" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="I134" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>1000134</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="B135" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="G135" s="7" t="s">
-        <v>388</v>
+      <c r="D135" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>385</v>
+        <v>704</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>1000135</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="D136" s="5" t="s">
+      <c r="B136" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="E136" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="F136" t="s">
-        <v>702</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>703</v>
+      <c r="D136" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="H136" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>1000136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>1000137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>1000138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>1000139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="H140" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="I136" s="4" t="s">
+      <c r="I140" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="J136" s="10" t="s">
-        <v>707</v>
-      </c>
+      <c r="J140" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J134">
+  <autoFilter ref="A1:J140">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="安规电容"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:J122">
       <sortCondition ref="A1"/>
     </sortState>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="745">
   <si>
     <t>Part number</t>
   </si>
@@ -4188,6 +4188,38 @@
       </rPr>
       <t>erSonic</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDCV304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200MHz/1:4/Clock Buffer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CDCV304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门电路\CDCV304.pdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4665,11 +4697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4717,7 +4748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4749,7 +4780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4781,7 +4812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -4813,7 +4844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -4845,7 +4876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -4877,7 +4908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -4909,7 +4940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -4941,7 +4972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -4973,7 +5004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -5005,7 +5036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -5037,7 +5068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5069,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -5101,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -5133,7 +5164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -5165,7 +5196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -5197,7 +5228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -5229,7 +5260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -5261,7 +5292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -5293,7 +5324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -5325,7 +5356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -5357,7 +5388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -5389,7 +5420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -5421,7 +5452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -5453,7 +5484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -5485,7 +5516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -5517,7 +5548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5549,7 +5580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -5581,7 +5612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -5613,7 +5644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -5645,7 +5676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -5677,7 +5708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -5709,7 +5740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -5741,7 +5772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -5773,7 +5804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -5805,7 +5836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -5837,7 +5868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -5869,7 +5900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -5901,7 +5932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -5933,7 +5964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -5965,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -5997,7 +6028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -6029,7 +6060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -6061,7 +6092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -6093,7 +6124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -6125,7 +6156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>153</v>
       </c>
@@ -6157,7 +6188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -6189,7 +6220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -6221,7 +6252,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>166</v>
       </c>
@@ -6253,7 +6284,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
@@ -6285,7 +6316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>171</v>
       </c>
@@ -6317,7 +6348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>175</v>
       </c>
@@ -6349,7 +6380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>180</v>
       </c>
@@ -6381,7 +6412,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>185</v>
       </c>
@@ -6413,7 +6444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>189</v>
       </c>
@@ -6445,7 +6476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
@@ -6477,7 +6508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>194</v>
       </c>
@@ -6509,7 +6540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -6541,7 +6572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>201</v>
       </c>
@@ -6573,7 +6604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -6605,7 +6636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>211</v>
       </c>
@@ -6637,7 +6668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -6669,7 +6700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -6701,7 +6732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>222</v>
       </c>
@@ -6733,7 +6764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>227</v>
       </c>
@@ -6765,7 +6796,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>231</v>
       </c>
@@ -6797,7 +6828,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>235</v>
       </c>
@@ -6829,7 +6860,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>239</v>
       </c>
@@ -6861,7 +6892,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>243</v>
       </c>
@@ -6893,7 +6924,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>246</v>
       </c>
@@ -6925,7 +6956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>248</v>
       </c>
@@ -6957,7 +6988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>251</v>
       </c>
@@ -6989,7 +7020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -7021,7 +7052,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>259</v>
       </c>
@@ -7053,7 +7084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>262</v>
       </c>
@@ -7085,7 +7116,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>266</v>
       </c>
@@ -7117,7 +7148,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>270</v>
       </c>
@@ -7149,7 +7180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>274</v>
       </c>
@@ -7181,7 +7212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
@@ -7213,7 +7244,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>474</v>
       </c>
@@ -7245,7 +7276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
@@ -7277,7 +7308,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>286</v>
       </c>
@@ -7309,7 +7340,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>289</v>
       </c>
@@ -7341,7 +7372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>291</v>
       </c>
@@ -7373,7 +7404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>294</v>
       </c>
@@ -7405,7 +7436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>299</v>
       </c>
@@ -7437,7 +7468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>303</v>
       </c>
@@ -7469,7 +7500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>308</v>
       </c>
@@ -7501,7 +7532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>311</v>
       </c>
@@ -7533,7 +7564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>313</v>
       </c>
@@ -7565,7 +7596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>318</v>
       </c>
@@ -7597,7 +7628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>321</v>
       </c>
@@ -7629,7 +7660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>325</v>
       </c>
@@ -7661,7 +7692,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>329</v>
       </c>
@@ -7693,7 +7724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>333</v>
       </c>
@@ -7725,7 +7756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>337</v>
       </c>
@@ -7757,7 +7788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>341</v>
       </c>
@@ -7789,7 +7820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>344</v>
       </c>
@@ -7821,7 +7852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
@@ -7853,7 +7884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>350</v>
       </c>
@@ -7885,7 +7916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>354</v>
       </c>
@@ -7917,7 +7948,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>357</v>
       </c>
@@ -7949,7 +7980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>358</v>
       </c>
@@ -7981,7 +8012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>360</v>
       </c>
@@ -8013,7 +8044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>361</v>
       </c>
@@ -8045,7 +8076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>362</v>
       </c>
@@ -8077,7 +8108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>363</v>
       </c>
@@ -8109,7 +8140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>366</v>
       </c>
@@ -8141,7 +8172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>370</v>
       </c>
@@ -8173,7 +8204,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>475</v>
       </c>
@@ -8203,7 +8234,7 @@
       </c>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>481</v>
       </c>
@@ -8233,7 +8264,7 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>484</v>
       </c>
@@ -8262,7 +8293,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>491</v>
       </c>
@@ -8291,7 +8322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>492</v>
       </c>
@@ -8320,7 +8351,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>505</v>
       </c>
@@ -8349,7 +8380,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>509</v>
       </c>
@@ -8379,7 +8410,7 @@
       </c>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>513</v>
       </c>
@@ -8408,7 +8439,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>561</v>
       </c>
@@ -8437,7 +8468,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>566</v>
       </c>
@@ -8469,7 +8500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>573</v>
       </c>
@@ -8501,7 +8532,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>576</v>
       </c>
@@ -8533,7 +8564,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>591</v>
       </c>
@@ -8565,7 +8596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>609</v>
       </c>
@@ -8597,7 +8628,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>630</v>
       </c>
@@ -8629,7 +8660,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>643</v>
       </c>
@@ -8659,7 +8690,7 @@
       </c>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>644</v>
       </c>
@@ -8689,7 +8720,7 @@
       </c>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>645</v>
       </c>
@@ -8719,7 +8750,7 @@
       </c>
       <c r="J127" s="6"/>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>646</v>
       </c>
@@ -8749,7 +8780,7 @@
       </c>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>647</v>
       </c>
@@ -8781,7 +8812,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>648</v>
       </c>
@@ -8813,7 +8844,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>1000130</v>
       </c>
@@ -8845,7 +8876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>1000131</v>
       </c>
@@ -8909,7 +8940,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>1000133</v>
       </c>
@@ -8941,7 +8972,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>1000134</v>
       </c>
@@ -9003,7 +9034,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>1000136</v>
       </c>
@@ -9035,7 +9066,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>1000137</v>
       </c>
@@ -9127,13 +9158,40 @@
       </c>
       <c r="J140" s="3"/>
     </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>1000140</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J140">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="安规电容"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:J122">
       <sortCondition ref="A1"/>
     </sortState>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="755">
   <si>
     <t>Part number</t>
   </si>
@@ -4220,6 +4220,44 @@
   </si>
   <si>
     <t>门电路\CDCV304.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX9011EUT-T</t>
+  </si>
+  <si>
+    <t>TTL Comparators/5ns</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXIM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\MAX9011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/100W/0.5pF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSD5C051U</t>
+  </si>
+  <si>
+    <t>SOD-523</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片TVS\BSD5C051U.pdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4697,10 +4735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:A141"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9190,6 +9228,68 @@
         <v>744</v>
       </c>
     </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>1000141</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C142" t="s">
+        <v>745</v>
+      </c>
+      <c r="D142" t="s">
+        <v>745</v>
+      </c>
+      <c r="E142" t="s">
+        <v>746</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>1000142</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" t="s">
+        <v>751</v>
+      </c>
+      <c r="D143" t="s">
+        <v>751</v>
+      </c>
+      <c r="E143" t="s">
+        <v>750</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J140">
     <sortState ref="A2:J122">

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="780">
   <si>
     <t>Part number</t>
   </si>
@@ -4258,6 +4258,130 @@
   </si>
   <si>
     <t>贴片TVS\BSD5C051U.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25MHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG-310SCF/25MHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPSON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振\贴片晶振\EPSON SG-310 25MHz.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q33310F70032100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F5602T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3601T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3901T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMV331TP-TR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparators/1.8-5.5V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3PEAK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\LMV331</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4735,10 +4859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9290,6 +9414,158 @@
         <v>754</v>
       </c>
     </row>
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>1000143</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C144" t="s">
+        <v>759</v>
+      </c>
+      <c r="D144" t="s">
+        <v>755</v>
+      </c>
+      <c r="E144" t="s">
+        <v>756</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>1000144</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C145" t="s">
+        <v>761</v>
+      </c>
+      <c r="D145" t="s">
+        <v>762</v>
+      </c>
+      <c r="E145" t="s">
+        <v>764</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
+        <v>1000145</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C146" t="s">
+        <v>769</v>
+      </c>
+      <c r="D146" t="s">
+        <v>770</v>
+      </c>
+      <c r="E146" t="s">
+        <v>770</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
+        <v>1000146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C147" t="s">
+        <v>772</v>
+      </c>
+      <c r="D147" t="s">
+        <v>771</v>
+      </c>
+      <c r="E147" t="s">
+        <v>771</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>1000147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C148" t="s">
+        <v>774</v>
+      </c>
+      <c r="D148" t="s">
+        <v>774</v>
+      </c>
+      <c r="E148" t="s">
+        <v>775</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J148" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J140">
     <sortState ref="A2:J122">

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$149</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="790">
   <si>
     <t>Part number</t>
   </si>
@@ -4382,6 +4382,46 @@
   </si>
   <si>
     <t>mylib\LMV331</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1003T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B105K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1uF/16V/10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1uF/16V/10%/X7R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4859,10 +4899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J148"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5230,7 +5271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5262,7 +5303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -5294,7 +5335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -5326,7 +5367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -5358,7 +5399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -5390,7 +5431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -5422,7 +5463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -5454,7 +5495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -5486,7 +5527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -5518,7 +5559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -5550,7 +5591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -5582,7 +5623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -5614,7 +5655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -5646,7 +5687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -5678,7 +5719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -5710,7 +5751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5742,7 +5783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -5774,7 +5815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -5806,7 +5847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -5838,7 +5879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -5870,7 +5911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -5902,7 +5943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -5934,7 +5975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -5966,7 +6007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -5998,7 +6039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -6030,7 +6071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -6062,7 +6103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -6094,7 +6135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -6126,7 +6167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -6158,7 +6199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -6190,7 +6231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -6222,7 +6263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -6254,7 +6295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -6286,7 +6327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -6318,7 +6359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>153</v>
       </c>
@@ -6350,7 +6391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -6382,7 +6423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -6414,7 +6455,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>166</v>
       </c>
@@ -6446,7 +6487,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
@@ -6478,7 +6519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>171</v>
       </c>
@@ -6510,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>175</v>
       </c>
@@ -6542,7 +6583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>180</v>
       </c>
@@ -6574,7 +6615,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>185</v>
       </c>
@@ -6606,7 +6647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>189</v>
       </c>
@@ -6638,7 +6679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
@@ -6670,7 +6711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>194</v>
       </c>
@@ -6702,7 +6743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -6734,7 +6775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>201</v>
       </c>
@@ -6766,7 +6807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -6798,7 +6839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>211</v>
       </c>
@@ -6830,7 +6871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -6862,7 +6903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -6894,7 +6935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>222</v>
       </c>
@@ -6926,7 +6967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>227</v>
       </c>
@@ -6958,7 +6999,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>231</v>
       </c>
@@ -6990,7 +7031,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>235</v>
       </c>
@@ -7022,7 +7063,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>239</v>
       </c>
@@ -7054,7 +7095,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>243</v>
       </c>
@@ -7086,7 +7127,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>246</v>
       </c>
@@ -7118,7 +7159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>248</v>
       </c>
@@ -7150,7 +7191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>251</v>
       </c>
@@ -7182,7 +7223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -7214,7 +7255,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>259</v>
       </c>
@@ -7246,7 +7287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>262</v>
       </c>
@@ -7278,7 +7319,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>266</v>
       </c>
@@ -7310,7 +7351,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>270</v>
       </c>
@@ -7342,7 +7383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>274</v>
       </c>
@@ -7374,7 +7415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
@@ -7406,7 +7447,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>474</v>
       </c>
@@ -7438,7 +7479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
@@ -7470,7 +7511,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>286</v>
       </c>
@@ -7502,7 +7543,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>289</v>
       </c>
@@ -7534,7 +7575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>291</v>
       </c>
@@ -7566,7 +7607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>294</v>
       </c>
@@ -7598,7 +7639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>299</v>
       </c>
@@ -7630,7 +7671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>303</v>
       </c>
@@ -7662,7 +7703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>308</v>
       </c>
@@ -7694,7 +7735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>311</v>
       </c>
@@ -7726,7 +7767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>313</v>
       </c>
@@ -7758,7 +7799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>318</v>
       </c>
@@ -7790,7 +7831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>321</v>
       </c>
@@ -7822,7 +7863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>325</v>
       </c>
@@ -7886,7 +7927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>333</v>
       </c>
@@ -7950,7 +7991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>341</v>
       </c>
@@ -7982,7 +8023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>344</v>
       </c>
@@ -8014,7 +8055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
@@ -8046,7 +8087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>350</v>
       </c>
@@ -8078,7 +8119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>354</v>
       </c>
@@ -8110,7 +8151,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>357</v>
       </c>
@@ -8142,7 +8183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>358</v>
       </c>
@@ -8206,7 +8247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>361</v>
       </c>
@@ -8238,7 +8279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>362</v>
       </c>
@@ -8270,7 +8311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>363</v>
       </c>
@@ -8302,7 +8343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>366</v>
       </c>
@@ -8334,7 +8375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>370</v>
       </c>
@@ -8396,7 +8437,7 @@
       </c>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>481</v>
       </c>
@@ -8426,7 +8467,7 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>484</v>
       </c>
@@ -8484,7 +8525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>492</v>
       </c>
@@ -8513,7 +8554,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>505</v>
       </c>
@@ -8542,7 +8583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>509</v>
       </c>
@@ -8572,7 +8613,7 @@
       </c>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>513</v>
       </c>
@@ -8601,7 +8642,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>561</v>
       </c>
@@ -8630,7 +8671,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>566</v>
       </c>
@@ -8662,7 +8703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>573</v>
       </c>
@@ -8694,7 +8735,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>576</v>
       </c>
@@ -8758,7 +8799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>609</v>
       </c>
@@ -8790,7 +8831,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>630</v>
       </c>
@@ -8822,7 +8863,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>643</v>
       </c>
@@ -8852,7 +8893,7 @@
       </c>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>644</v>
       </c>
@@ -8912,7 +8953,7 @@
       </c>
       <c r="J127" s="6"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>646</v>
       </c>
@@ -8942,7 +8983,7 @@
       </c>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>647</v>
       </c>
@@ -8974,7 +9015,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>648</v>
       </c>
@@ -9006,7 +9047,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>1000130</v>
       </c>
@@ -9038,7 +9079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>1000131</v>
       </c>
@@ -9070,7 +9111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>1000132</v>
       </c>
@@ -9102,7 +9143,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>1000133</v>
       </c>
@@ -9134,7 +9175,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>1000134</v>
       </c>
@@ -9164,7 +9205,7 @@
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>1000135</v>
       </c>
@@ -9196,7 +9237,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>1000136</v>
       </c>
@@ -9228,7 +9269,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>1000137</v>
       </c>
@@ -9260,7 +9301,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>1000138</v>
       </c>
@@ -9290,7 +9331,7 @@
       </c>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>1000139</v>
       </c>
@@ -9320,7 +9361,7 @@
       </c>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>1000140</v>
       </c>
@@ -9352,7 +9393,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>1000141</v>
       </c>
@@ -9382,7 +9423,7 @@
       </c>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>1000142</v>
       </c>
@@ -9414,7 +9455,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>1000143</v>
       </c>
@@ -9446,7 +9487,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>1000144</v>
       </c>
@@ -9476,7 +9517,7 @@
       </c>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>1000145</v>
       </c>
@@ -9506,7 +9547,7 @@
       </c>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>1000146</v>
       </c>
@@ -9536,7 +9577,7 @@
       </c>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>1000147</v>
       </c>
@@ -9566,8 +9607,73 @@
       </c>
       <c r="J148" s="5"/>
     </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>1000148</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C149" t="s">
+        <v>780</v>
+      </c>
+      <c r="D149" t="s">
+        <v>781</v>
+      </c>
+      <c r="E149" t="s">
+        <v>781</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>1000149</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="J150" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J140">
+  <autoFilter ref="A1:J149">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="贴片电容"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:J122">
       <sortCondition ref="A1"/>
     </sortState>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$154</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="808">
   <si>
     <t>Part number</t>
   </si>
@@ -900,9 +900,6 @@
     <t>1000083</t>
   </si>
   <si>
-    <t>5.08/3P</t>
-  </si>
-  <si>
     <t>port5_08mm-3h</t>
   </si>
   <si>
@@ -1674,10 +1671,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2EDGR-5.08-3P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>K</t>
     </r>
@@ -2005,7 +1998,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\TPS7A7001</t>
+      <t>ylib\LightModel_SFP</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2021,7 +2014,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\LightModel_SFP</t>
+      <t>ylib\74LVC1G04</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2037,7 +2030,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\74LVC1G04</t>
+      <t>ylib\DCA8411</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2053,7 +2046,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\DCA8411</t>
+      <t>ylib\EPCS16</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2069,7 +2062,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\EPCS16</t>
+      <t>ylib\REF5050</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2085,7 +2078,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\REF5050</t>
+      <t>ylib\W25Q64BV</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2101,7 +2094,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\W25Q64BV</t>
+      <t>ylib\TPS5450DDA</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2117,7 +2110,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\TPS5450DDA</t>
+      <t>ylib\CAP POL</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2133,39 +2126,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\CAP POL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>ylib\ANTENNA_5PIN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\CON 3</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4423,6 +4384,153 @@
   <si>
     <t>mylib\CAP NP</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2EDGR-5.08-3P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.08/3P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.08/3P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/弯脚/插拔式接线端子</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJ500V-5.08-3P-14-00A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.08/3P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.08/3P/直角/PCB螺钉式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJ500V-5_08-3P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源芯片\ldo\tps74401.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS74401RGWR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDO/3A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-PVQFN-N20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TPS74401</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1151T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.15K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\TPS7A8901RTJR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.69K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1691T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP-VIA-2_54</t>
   </si>
 </sst>
 </file>
@@ -4900,10 +5008,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:XFD150"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4951,7 +5059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4971,10 +5079,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>16</v>
@@ -4983,7 +5091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5003,10 +5111,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>16</v>
@@ -5015,7 +5123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -5035,10 +5143,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
@@ -5047,7 +5155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -5067,10 +5175,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>16</v>
@@ -5079,7 +5187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -5099,10 +5207,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>16</v>
@@ -5111,7 +5219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -5131,10 +5239,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>16</v>
@@ -5143,7 +5251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -5163,10 +5271,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>16</v>
@@ -5175,7 +5283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -5195,10 +5303,10 @@
         <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>16</v>
@@ -5207,7 +5315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -5227,10 +5335,10 @@
         <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>16</v>
@@ -5239,7 +5347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -5259,10 +5367,10 @@
         <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>16</v>
@@ -5291,13 +5399,13 @@
         <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
@@ -5323,13 +5431,13 @@
         <v>49</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>13</v>
@@ -5355,13 +5463,13 @@
         <v>49</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>13</v>
@@ -5387,13 +5495,13 @@
         <v>49</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>13</v>
@@ -5419,13 +5527,13 @@
         <v>49</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>13</v>
@@ -5451,13 +5559,13 @@
         <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>13</v>
@@ -5483,13 +5591,13 @@
         <v>49</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>13</v>
@@ -5515,13 +5623,13 @@
         <v>49</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>13</v>
@@ -5547,13 +5655,13 @@
         <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>13</v>
@@ -5579,13 +5687,13 @@
         <v>49</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>13</v>
@@ -5611,13 +5719,13 @@
         <v>49</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>13</v>
@@ -5643,13 +5751,13 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
@@ -5675,13 +5783,13 @@
         <v>49</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>13</v>
@@ -5707,13 +5815,13 @@
         <v>49</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>13</v>
@@ -5739,13 +5847,13 @@
         <v>49</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>13</v>
@@ -5771,13 +5879,13 @@
         <v>49</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>13</v>
@@ -5803,13 +5911,13 @@
         <v>49</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>13</v>
@@ -5835,13 +5943,13 @@
         <v>49</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>13</v>
@@ -5867,13 +5975,13 @@
         <v>49</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>13</v>
@@ -5899,13 +6007,13 @@
         <v>49</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>13</v>
@@ -5931,13 +6039,13 @@
         <v>49</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
@@ -5963,13 +6071,13 @@
         <v>49</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>13</v>
@@ -5995,13 +6103,13 @@
         <v>49</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>13</v>
@@ -6027,13 +6135,13 @@
         <v>118</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>13</v>
@@ -6050,7 +6158,7 @@
         <v>120</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>121</v>
@@ -6059,13 +6167,13 @@
         <v>118</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>13</v>
@@ -6091,13 +6199,13 @@
         <v>126</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>13</v>
@@ -6123,13 +6231,13 @@
         <v>126</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>13</v>
@@ -6155,13 +6263,13 @@
         <v>126</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>13</v>
@@ -6187,13 +6295,13 @@
         <v>136</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>13</v>
@@ -6219,13 +6327,13 @@
         <v>136</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>13</v>
@@ -6251,13 +6359,13 @@
         <v>136</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>13</v>
@@ -6283,13 +6391,13 @@
         <v>136</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>13</v>
@@ -6315,13 +6423,13 @@
         <v>136</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>13</v>
@@ -6347,13 +6455,13 @@
         <v>136</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>13</v>
@@ -6379,13 +6487,13 @@
         <v>156</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>13</v>
@@ -6411,13 +6519,13 @@
         <v>161</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>13</v>
@@ -6437,22 +6545,22 @@
         <v>164</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -6469,22 +6577,22 @@
         <v>167</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -6507,13 +6615,13 @@
         <v>165</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>13</v>
@@ -6527,10 +6635,10 @@
         <v>172</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>173</v>
@@ -6539,13 +6647,13 @@
         <v>174</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>13</v>
@@ -6559,7 +6667,7 @@
         <v>176</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>177</v>
@@ -6571,13 +6679,13 @@
         <v>179</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>13</v>
@@ -6591,7 +6699,7 @@
         <v>181</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>182</v>
@@ -6603,16 +6711,16 @@
         <v>184</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -6635,13 +6743,13 @@
         <v>188</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>13</v>
@@ -6667,13 +6775,13 @@
         <v>188</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>13</v>
@@ -6699,13 +6807,13 @@
         <v>188</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>13</v>
@@ -6731,13 +6839,13 @@
         <v>197</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>13</v>
@@ -6763,13 +6871,13 @@
         <v>197</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>13</v>
@@ -6795,13 +6903,13 @@
         <v>205</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>13</v>
@@ -6827,13 +6935,13 @@
         <v>210</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>13</v>
@@ -6844,7 +6952,7 @@
         <v>211</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>212</v>
@@ -6859,13 +6967,13 @@
         <v>214</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>13</v>
@@ -6879,7 +6987,7 @@
         <v>141</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>216</v>
@@ -6891,13 +6999,13 @@
         <v>217</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>13</v>
@@ -6923,13 +7031,13 @@
         <v>221</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>13</v>
@@ -6958,10 +7066,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>13</v>
@@ -6978,7 +7086,7 @@
         <v>229</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>230</v>
@@ -6987,16 +7095,16 @@
         <v>229</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7019,16 +7127,16 @@
         <v>234</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7051,16 +7159,16 @@
         <v>238</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
@@ -7083,16 +7191,16 @@
         <v>242</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7112,19 +7220,19 @@
         <v>245</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>454</v>
+        <v>383</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>804</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7132,28 +7240,28 @@
         <v>246</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>247</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>13</v>
@@ -7167,10 +7275,10 @@
         <v>172</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>249</v>
@@ -7179,13 +7287,13 @@
         <v>250</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>13</v>
@@ -7211,13 +7319,13 @@
         <v>254</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>13</v>
@@ -7243,16 +7351,16 @@
         <v>258</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7269,19 +7377,19 @@
         <v>260</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>13</v>
@@ -7307,16 +7415,16 @@
         <v>265</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7339,16 +7447,16 @@
         <v>269</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7359,7 +7467,7 @@
         <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>271</v>
@@ -7371,13 +7479,13 @@
         <v>273</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>13</v>
@@ -7391,7 +7499,7 @@
         <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>275</v>
@@ -7403,13 +7511,13 @@
         <v>277</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>13</v>
@@ -7423,7 +7531,7 @@
         <v>279</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>280</v>
@@ -7435,27 +7543,27 @@
         <v>281</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H79" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>523</v>
-      </c>
       <c r="J79" s="6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>284</v>
@@ -7467,13 +7575,13 @@
         <v>285</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>13</v>
@@ -7493,22 +7601,22 @@
         <v>288</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>288</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7525,22 +7633,22 @@
         <v>290</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>288</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7548,28 +7656,28 @@
         <v>289</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D83" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="G83" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>13</v>
@@ -7580,28 +7688,28 @@
         <v>291</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>13</v>
@@ -7609,31 +7717,31 @@
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="G85" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>13</v>
@@ -7641,31 +7749,31 @@
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="G86" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>13</v>
@@ -7673,31 +7781,31 @@
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="G87" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>13</v>
@@ -7705,31 +7813,31 @@
     </row>
     <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>13</v>
@@ -7737,31 +7845,31 @@
     </row>
     <row r="89" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="G89" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H89" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>13</v>
@@ -7769,31 +7877,31 @@
     </row>
     <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>13</v>
@@ -7801,31 +7909,31 @@
     </row>
     <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>13</v>
@@ -7833,31 +7941,31 @@
     </row>
     <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="G92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>13</v>
@@ -7865,63 +7973,63 @@
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="G94" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>13</v>
@@ -7929,63 +8037,63 @@
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="G95" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="E96" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>13</v>
@@ -7993,31 +8101,31 @@
     </row>
     <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="G97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>13</v>
@@ -8025,31 +8133,31 @@
     </row>
     <row r="98" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="G98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>13</v>
@@ -8057,31 +8165,31 @@
     </row>
     <row r="99" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="G99" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>13</v>
@@ -8089,31 +8197,31 @@
     </row>
     <row r="100" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>13</v>
@@ -8121,45 +8229,45 @@
     </row>
     <row r="101" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E101" s="6" t="s">
+      <c r="H101" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="I101" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="G101" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>599</v>
-      </c>
       <c r="J101" s="6" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>121</v>
@@ -8171,13 +8279,13 @@
         <v>49</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>13</v>
@@ -8185,63 +8293,63 @@
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="H103" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="I103" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>629</v>
-      </c>
       <c r="J103" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I104" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>13</v>
@@ -8249,31 +8357,31 @@
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>13</v>
@@ -8281,63 +8389,63 @@
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="E106" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H106" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="I106" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="I107" s="4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>13</v>
@@ -8345,31 +8453,31 @@
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>13</v>
@@ -8377,60 +8485,60 @@
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="G109" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I109" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="J109" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="2" t="s">
+      <c r="D110" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>16</v>
@@ -8439,87 +8547,87 @@
     </row>
     <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C112" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D112" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E112" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F112" t="s">
         <v>156</v>
       </c>
       <c r="G112" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C113" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D113" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E113" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>16</v>
@@ -8527,177 +8635,177 @@
     </row>
     <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C114" t="s">
+        <v>489</v>
+      </c>
+      <c r="D114" t="s">
+        <v>489</v>
+      </c>
+      <c r="E114" t="s">
+        <v>490</v>
+      </c>
+      <c r="F114" t="s">
+        <v>491</v>
+      </c>
+      <c r="G114" t="s">
         <v>492</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C114" t="s">
-        <v>493</v>
-      </c>
-      <c r="D114" t="s">
-        <v>493</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="H114" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="F114" t="s">
+      <c r="I114" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="G114" t="s">
-        <v>496</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C115" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D115" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E115" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F115" t="s">
         <v>161</v>
       </c>
       <c r="G115" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C117" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D117" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E117" t="s">
+        <v>507</v>
+      </c>
+      <c r="F117" t="s">
+        <v>512</v>
+      </c>
+      <c r="G117" t="s">
+        <v>508</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="F117" t="s">
-        <v>516</v>
-      </c>
-      <c r="G117" t="s">
-        <v>512</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C118" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D118" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E118" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E119" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F119" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J119" t="s">
         <v>13</v>
@@ -8705,95 +8813,95 @@
     </row>
     <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C120" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D120" t="s">
+        <v>566</v>
+      </c>
+      <c r="E120" t="s">
+        <v>566</v>
+      </c>
+      <c r="F120" t="s">
+        <v>567</v>
+      </c>
+      <c r="G120" t="s">
+        <v>568</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="J120" t="s">
         <v>570</v>
-      </c>
-      <c r="E120" t="s">
-        <v>570</v>
-      </c>
-      <c r="F120" t="s">
-        <v>571</v>
-      </c>
-      <c r="G120" t="s">
-        <v>572</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="J120" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C121" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D121" t="s">
+        <v>573</v>
+      </c>
+      <c r="E121" t="s">
+        <v>573</v>
+      </c>
+      <c r="F121" t="s">
+        <v>580</v>
+      </c>
+      <c r="G121" t="s">
+        <v>581</v>
+      </c>
+      <c r="H121" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="E121" t="s">
-        <v>577</v>
-      </c>
-      <c r="F121" t="s">
-        <v>584</v>
-      </c>
-      <c r="G121" t="s">
-        <v>585</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>581</v>
-      </c>
       <c r="I121" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="J121" t="s">
         <v>583</v>
       </c>
-      <c r="J121" t="s">
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="B122" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C122" t="s">
+        <v>607</v>
+      </c>
+      <c r="D122" t="s">
+        <v>608</v>
+      </c>
+      <c r="E122" t="s">
+        <v>608</v>
+      </c>
+      <c r="F122" t="s">
+        <v>609</v>
+      </c>
+      <c r="G122" t="s">
         <v>610</v>
       </c>
-      <c r="C122" t="s">
+      <c r="H122" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="D122" t="s">
+      <c r="I122" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="E122" t="s">
-        <v>612</v>
-      </c>
-      <c r="F122" t="s">
-        <v>613</v>
-      </c>
-      <c r="G122" t="s">
-        <v>614</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>616</v>
       </c>
       <c r="J122" t="s">
         <v>13</v>
@@ -8801,250 +8909,250 @@
     </row>
     <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C123" t="s">
+        <v>614</v>
+      </c>
+      <c r="D123" t="s">
+        <v>615</v>
+      </c>
+      <c r="E123" t="s">
+        <v>615</v>
+      </c>
+      <c r="F123" t="s">
+        <v>616</v>
+      </c>
+      <c r="G123" t="s">
         <v>617</v>
       </c>
-      <c r="C123" t="s">
+      <c r="H123" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I123" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="D123" t="s">
-        <v>619</v>
-      </c>
-      <c r="E123" t="s">
-        <v>619</v>
-      </c>
-      <c r="F123" t="s">
-        <v>620</v>
-      </c>
-      <c r="G123" t="s">
-        <v>621</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>622</v>
-      </c>
       <c r="J123" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>179</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I125" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="J125" s="6"/>
     </row>
     <row r="126" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="I126" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>678</v>
-      </c>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I128" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9052,28 +9160,28 @@
         <v>1000130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>13</v>
@@ -9084,28 +9192,28 @@
         <v>1000131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>13</v>
@@ -9116,31 +9224,31 @@
         <v>1000132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
@@ -9148,31 +9256,31 @@
         <v>1000133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I134" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D134" s="6" t="s">
+      <c r="J134" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9180,28 +9288,28 @@
         <v>1000134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C135" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="I135" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>705</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -9210,31 +9318,31 @@
         <v>1000135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C136" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="H136" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="I136" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>711</v>
-      </c>
       <c r="J136" s="6" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9242,31 +9350,31 @@
         <v>1000136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C137" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="H137" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="I137" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>717</v>
-      </c>
       <c r="J137" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9274,31 +9382,31 @@
         <v>1000137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C138" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>722</v>
-      </c>
       <c r="J138" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9306,28 +9414,28 @@
         <v>1000138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="I139" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>733</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -9336,28 +9444,28 @@
         <v>1000139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -9366,31 +9474,31 @@
         <v>1000140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G141" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="H141" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="E141" s="5" t="s">
+      <c r="I141" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="J141" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="J141" s="5" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9398,28 +9506,28 @@
         <v>1000141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C142" t="s">
+        <v>741</v>
+      </c>
+      <c r="D142" t="s">
+        <v>741</v>
+      </c>
+      <c r="E142" t="s">
+        <v>742</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I142" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="D142" t="s">
-        <v>745</v>
-      </c>
-      <c r="E142" t="s">
-        <v>746</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="J142" s="5"/>
     </row>
@@ -9428,31 +9536,31 @@
         <v>1000142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C143" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D143" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E143" t="s">
+        <v>746</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J143" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9460,31 +9568,31 @@
         <v>1000143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C144" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D144" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E144" t="s">
+        <v>752</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I144" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="F144" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>760</v>
-      </c>
       <c r="J144" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9492,28 +9600,28 @@
         <v>1000144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C145" t="s">
+        <v>757</v>
+      </c>
+      <c r="D145" t="s">
+        <v>758</v>
+      </c>
+      <c r="E145" t="s">
+        <v>760</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H145" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C145" t="s">
-        <v>761</v>
-      </c>
-      <c r="D145" t="s">
-        <v>762</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="I145" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="J145" s="5"/>
     </row>
@@ -9522,28 +9630,28 @@
         <v>1000145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C146" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D146" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E146" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J146" s="5"/>
     </row>
@@ -9552,28 +9660,28 @@
         <v>1000146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C147" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D147" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E147" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J147" s="5"/>
     </row>
@@ -9582,28 +9690,28 @@
         <v>1000147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C148" t="s">
+        <v>770</v>
+      </c>
+      <c r="D148" t="s">
+        <v>770</v>
+      </c>
+      <c r="E148" t="s">
+        <v>771</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="C148" t="s">
+      <c r="H148" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="D148" t="s">
-        <v>774</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="I148" s="4" t="s">
         <v>775</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>779</v>
       </c>
       <c r="J148" s="5"/>
     </row>
@@ -9612,66 +9720,222 @@
         <v>1000148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C149" t="s">
+        <v>776</v>
+      </c>
+      <c r="D149" t="s">
+        <v>777</v>
+      </c>
+      <c r="E149" t="s">
+        <v>777</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="I149" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C149" t="s">
-        <v>780</v>
-      </c>
-      <c r="D149" t="s">
-        <v>781</v>
-      </c>
-      <c r="E149" t="s">
-        <v>781</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>1000149</v>
       </c>
       <c r="B150" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="G150" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="H150" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="I150" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="I150" s="6" t="s">
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>1000150</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="J150" s="6"/>
+      <c r="D151" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>1000151</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>1000152</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C153" t="s">
+        <v>802</v>
+      </c>
+      <c r="D153" t="s">
+        <v>803</v>
+      </c>
+      <c r="E153" t="s">
+        <v>803</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>1000152</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C154" t="s">
+        <v>806</v>
+      </c>
+      <c r="D154" t="s">
+        <v>805</v>
+      </c>
+      <c r="E154" t="s">
+        <v>805</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>1000154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J149">
+  <autoFilter ref="A1:J154">
     <filterColumn colId="1">
       <filters>
-        <filter val="贴片电容"/>
+        <filter val="测试点"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:J122">

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$156</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="813">
   <si>
     <t>Part number</t>
   </si>
@@ -2671,8 +2671,176 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\ocxo</t>
-    </r>
+      <t>ylib\hole</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-Channel/-18V/1.6A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\si2301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶体管\MOS管\SI2301.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶体管\MOS管\SI2302.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESDU5V0H4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晶体管\肖特基二极管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\RB551VM-30.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB551V-30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Diode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电平调制\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LAN8720A.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CU\STM32F407IGT6.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电源芯片\LDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TPS7A89.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电平调制\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MAX3232.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2687,12 +2855,515 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\hole</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P-Channel/-18V/1.6A</t>
+      <t>ylib\MAX3232</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电源芯片\DC-DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ref5050.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>存储芯片\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>W25Q64BV.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000117</t>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F767IGT6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex M7/216MHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000118</t>
+  </si>
+  <si>
+    <t>2.54MM  2P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_54mm-2p</t>
+  </si>
+  <si>
+    <t>ESDA6V1-5W6</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.1V/1W/5ch</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT323-6L</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000119</t>
+  </si>
+  <si>
+    <t>贴片TVS\ESDA6V1-5W6.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片晶振</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000120</t>
+  </si>
+  <si>
+    <t>32.768KHz ±30ppm 1.8-3.3V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\STM32F767IGT6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\con2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ESDA6V1-5W6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTAL3225</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3N00032G33YC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振\贴片晶振\3N00032G33YC.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晶振\贴片晶振\爱普生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FC-135.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晶振\温补晶振</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\WTL36A11157.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ds18b20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000121</t>
+  </si>
+  <si>
+    <r>
+      <t>10R/1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/0.125W</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MA-KWE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SMA 弯角 PCB板插式 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA-K-UPRIGHT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MA-KWE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ANTENNA_5PIN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFsister</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\BNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\BNC-F4-1-M.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\TNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TNC-F4-1-M.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TNC header 弯角 PCB板插式 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BNC header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 弯角 PCB板插式 </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\LEA-6T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EA-6T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS\LEA-6T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>集成电路\时间测量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\TDC-GP21_Datasheet_EN_v1.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000122</t>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B225K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.2uF/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/10%/X7R</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2707,7 +3378,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>M</t>
+      <t>H</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2716,54 +3387,72 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mylib\si2301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶体管\MOS管\SI2301.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶体管\MOS管\SI2302.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESDU5V0H4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>晶体管\肖特基二极管</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\RB551VM-30.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB551V-30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电感</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLZ2012M100HT000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uH/20%/200mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0805</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Inductor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP4CE55F484</t>
+  </si>
+  <si>
+    <t>EP4CE55F23C8/FBGA484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA484</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LTERA</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2772,71 +3461,487 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mylib\Diode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>电平调制\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LAN8720A.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CU\STM32F407IGT6.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>电源芯片\LDO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\TPS7A89.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>电平调制\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MAX3232.pdf</t>
-    </r>
+    <t>mylib\EP4CE55F484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000123</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RV05-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/300W/3pF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SRV05-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贴片T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VS\SRV05-4.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1-1-13M+</t>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0603</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS\NEO-M8.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连接器\射频连接器\SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\SMA-K板端连接器弯头焊接.pdf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG102J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000124</t>
+  </si>
+  <si>
+    <t>1000125</t>
+  </si>
+  <si>
+    <t>1000126</t>
+  </si>
+  <si>
+    <t>1000127</t>
+  </si>
+  <si>
+    <t>1000128</t>
+  </si>
+  <si>
+    <t>1000129</t>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2 RF Transceiver/70MHz-6GHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF transformer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F100KT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1R/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN82NG00d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>82nH/2%/250mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18ANR33G0ZD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>330nH/2%/85mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGA144-AD9361</t>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1432</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JT5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.3K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/1%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG681J500NT</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80pF/5/COG</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80pF/5/COG</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴伦滤波器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1-1-13M+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini-circuits</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Transformer_TC1-1-13M+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>561</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14D 470V Varistor Voltage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V Varistor Voltage</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>680nF/10%/275VAC/X2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2-P15-18X10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU9.8/10mH/0.27mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU9.8-YH160224</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LN8X7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Inductor Common mode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感\UU9.8-YH.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源器件\电感\MLZ2012M100HT000.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源器件\电感\LQW18AN82NG00D.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直插电阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M/5%/0.25W/THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源器件\电感\磁封胶功率绕线电感.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源芯片\AC-DC\LDE10-20Bxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2684KVDARLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFR0W4J0105A50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIAL0_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2851,8 +3956,64 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>I</t>
-    </r>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEY472K275A08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7nF/275VAC/Y2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2-P10-13X6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENTA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNR5040S100MT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uH/20%/2.1A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind-sm5x5mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjiang</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2871,155 +4032,197 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\MAX3232</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>电源芯片\DC-DC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ref5050.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>存储芯片\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>W25Q64BV.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000117</t>
+      <t>ylib\Inductor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDE10-20B05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-DC/5V/2A/4KV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDE10-20B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORNSUN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\LDE10-20B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容\Y1安规电容 4.7nF 安规电容MEY472K275A08.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容\X2安规电容 680nF 275VAC.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2684KGCAXLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>680nF/10%/275VAC/X2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2-P10-13X6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CY1472ME1IEF49H0A2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7nF/400VAC/Y1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7nF/400VAC/Y1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1-P10-11_5X6</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>erSonic</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>贴片芯片</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>STM32F767IGT6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cortex M7/216MHz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000118</t>
-  </si>
-  <si>
-    <t>2.54MM  2P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_54mm-2p</t>
-  </si>
-  <si>
-    <t>ESDA6V1-5W6</t>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.1V/1W/5ch</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT323-6L</t>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000119</t>
-  </si>
-  <si>
-    <t>贴片TVS\ESDA6V1-5W6.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片晶振</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000120</t>
-  </si>
-  <si>
-    <t>32.768KHz ±30ppm 1.8-3.3V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\STM32F767IGT6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HR</t>
-    </r>
+    <t>CDCV304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200MHz/1:4/Clock Buffer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CDCV304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门电路\CDCV304.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX9011EUT-T</t>
+  </si>
+  <si>
+    <t>TTL Comparators/5ns</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXIM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\MAX9011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/100W/0.5pF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSD5C051U</t>
+  </si>
+  <si>
+    <t>SOD-523</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片TVS\BSD5C051U.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25MHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG-310SCF/25MHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPSON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振\贴片晶振\EPSON SG-310 25MHz.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q33310F70032100</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3034,8 +4237,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\con2</t>
-    </r>
+      <t>ylib\xtal3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F5602T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3044,6 +4271,202 @@
   </si>
   <si>
     <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3601T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3901T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMV331TP-TR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparators/1.8-5.5V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3PEAK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\LMV331</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1003T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B105K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1uF/16V/10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1uF/16V/10%/X7R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2EDGR-5.08-3P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.08/3P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.08/3P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/弯脚/插拔式接线端子</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJ500V-5.08-3P-14-00A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.08/3P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.08/3P/直角/PCB螺钉式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJ500V-5_08-3P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源芯片\ldo\tps74401.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS74401RGWR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDO/3A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-PVQFN-N20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>mylib\</t>
     </r>
     <r>
@@ -3054,8 +4477,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ESDA6V1-5W6</t>
-    </r>
+      <t>TPS74401</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1151T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.15K/1%</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3070,1453 +4501,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\xtal3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>XTAL3225</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SJK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3N00032G33YC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶振\贴片晶振\3N00032G33YC.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>晶振\贴片晶振\爱普生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FC-135.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>晶振\温补晶振</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\WTL36A11157.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\ds18b20</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000121</t>
-  </si>
-  <si>
-    <r>
-      <t>10R/1%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/0.125W</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MA-KWE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SMA 弯角 PCB板插式 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA-K-UPRIGHT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>射频连接器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MA-KWE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HR</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\ANTENNA_5PIN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFsister</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>连接器\射频连接器\BNC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\BNC-F4-1-M.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>连接器\射频连接器\TNC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\TNC-F4-1-M.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TNC header 弯角 PCB板插式 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BNC header</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 弯角 PCB板插式 </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\LEA-6T</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EA-6T</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS\LEA-6T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>集成电路\时间测量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\TDC-GP21_Datasheet_EN_v1.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000122</t>
-  </si>
-  <si>
-    <t>贴片电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B225K160NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.2uF/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V/10%/X7R</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电感</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLZ2012M100HT000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10uH/20%/200mA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>L0805</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Inductor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPGA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP4CE55F484</t>
-  </si>
-  <si>
-    <t>EP4CE55F23C8/FBGA484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBGA484</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LTERA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\EP4CE55F484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000123</t>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RV05-4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V/300W/3pF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\SRV05-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>贴片T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>VS\SRV05-4.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC1-1-13M+</t>
-  </si>
-  <si>
-    <t>C0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0603</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS\NEO-M8.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>连接器\射频连接器\SMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\SMA-K板端连接器弯头焊接.pdf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG102J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1nF/50V/5%/COG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000124</t>
-  </si>
-  <si>
-    <t>1000125</t>
-  </si>
-  <si>
-    <t>1000126</t>
-  </si>
-  <si>
-    <t>1000127</t>
-  </si>
-  <si>
-    <t>1000128</t>
-  </si>
-  <si>
-    <t>1000129</t>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD9361BBCZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x2 RF Transceiver/70MHz-6GHz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\AD9361BBCZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF transformer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1nF/50V/5%/COG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F100KT5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1R/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniOhm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW18AN82NG00d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>82nH/2%/250mA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW18ANR33G0ZD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>330nH/2%/85mA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGA144-AD9361</t>
-  </si>
-  <si>
-    <t>贴片电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0603 F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1432</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JT5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4.3K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/1%</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG681J500NT</t>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80pF/5/COG</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80pF/5/COG</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴伦滤波器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC1-1-13M+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini-circuits</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Transformer_TC1-1-13M+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14D47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>561</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14D 470V Varistor Voltage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>560</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V Varistor Voltage</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安规电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>680nF/10%/275VAC/X2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>X2-P15-18X10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模电感</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UU9.8/10mH/0.27mm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UU9.8-YH160224</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LN8X7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Inductor Common mode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模电感\UU9.8-YH.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无源器件\电感\MLZ2012M100HT000.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无源器件\电感\LQW18AN82NG00D.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>直插电阻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1M/5%/0.25W/THR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安规电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无源器件\电感\磁封胶功率绕线电感.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源芯片\AC-DC\LDE10-20Bxx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2684KVDARLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFR0W4J0105A50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AXIAL0_4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniOhm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HR</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEY472K275A08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7nF/275VAC/Y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>X2-P10-13X6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TENTA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>THR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FNR5040S100MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10uH/20%/2.1A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ind-sm5x5mm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjiang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Inductor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDE10-20B05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC-DC/5V/2A/4KV</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDE10-20B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORNSUN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\LDE10-20B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安规电容\Y1安规电容 4.7nF 安规电容MEY472K275A08.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安规电容\X2安规电容 680nF 275VAC.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2684KGCAXLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>680nF/10%/275VAC/X2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>X2-P10-13X6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安规电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CY1472ME1IEF49H0A2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7nF/400VAC/Y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>THR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7nF/400VAC/Y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y1-P10-11_5X6</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>erSonic</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDCV304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>200MHz/1:4/Clock Buffer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSSOP-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CDCV304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>门电路\CDCV304.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX9011EUT-T</t>
-  </si>
-  <si>
-    <t>TTL Comparators/5ns</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAXIM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\MAX9011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V/100W/0.5pF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSD5C051U</t>
-  </si>
-  <si>
-    <t>SOD-523</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BORN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片TVS\BSD5C051U.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25MHz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SG-310SCF/25MHz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶振\贴片晶振\EPSON SG-310 25MHz.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q33310F70032100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\xtal3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F5602T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>56K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>56K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniOhm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3601T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.9K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3901T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LMV331TP-TR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comparators/1.8-5.5V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3PEAK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\LMV331</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1003T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B105K160NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1uF/16V/10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1uF/16V/10%/X7R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2EDGR-5.08-3P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5.08/3P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5.08/3P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/弯脚/插拔式接线端子</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJ500V-5.08-3P-14-00A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5.08/3P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.08/3P/直角/PCB螺钉式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJ500V-5_08-3P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源连接器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源芯片\ldo\tps74401.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS74401RGWR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDO/3A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S-PVQFN-N20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TPS74401</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1151T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.15K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>ylib\TPS7A8901RTJR</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -4531,6 +4515,42 @@
   </si>
   <si>
     <t>TP-VIA-2_54</t>
+  </si>
+  <si>
+    <t>KF2510-6AW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KF2510-6AW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54/6P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54/6P/平弯针座</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OOMELE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\con6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5008,10 +5028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6158,7 +6178,7 @@
         <v>120</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>121</v>
@@ -6560,7 +6580,7 @@
         <v>442</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -6577,22 +6597,22 @@
         <v>167</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -6667,7 +6687,7 @@
         <v>176</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>177</v>
@@ -6699,7 +6719,7 @@
         <v>181</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>182</v>
@@ -6711,16 +6731,16 @@
         <v>184</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>547</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7086,7 +7106,7 @@
         <v>229</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>230</v>
@@ -7101,10 +7121,10 @@
         <v>383</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7136,7 +7156,7 @@
         <v>449</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7168,7 +7188,7 @@
         <v>450</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
@@ -7200,7 +7220,7 @@
         <v>451</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7229,10 +7249,10 @@
         <v>383</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7351,16 +7371,16 @@
         <v>258</v>
       </c>
       <c r="G73" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>554</v>
-      </c>
       <c r="J73" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7424,7 +7444,7 @@
         <v>456</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7456,7 +7476,7 @@
         <v>457</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7552,10 +7572,10 @@
         <v>519</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>470</v>
       </c>
@@ -7601,7 +7621,7 @@
         <v>288</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>288</v>
@@ -7616,7 +7636,7 @@
         <v>460</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7633,7 +7653,7 @@
         <v>290</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>288</v>
@@ -7648,7 +7668,7 @@
         <v>460</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -7659,13 +7679,13 @@
         <v>374</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>787</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>788</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>292</v>
@@ -7709,7 +7729,7 @@
         <v>384</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>13</v>
@@ -8000,7 +8020,7 @@
         <v>530</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -8035,7 +8055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>332</v>
       </c>
@@ -8061,7 +8081,7 @@
         <v>515</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>534</v>
+        <v>459</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>13</v>
@@ -8125,7 +8145,7 @@
         <v>521</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>13</v>
@@ -8232,31 +8252,31 @@
         <v>353</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="H101" s="4" t="s">
+      <c r="I101" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="I101" s="4" t="s">
-        <v>595</v>
-      </c>
       <c r="J101" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -8296,28 +8316,28 @@
         <v>357</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="F103" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="H103" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="I103" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>13</v>
@@ -8331,16 +8351,16 @@
         <v>474</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>391</v>
@@ -8349,7 +8369,7 @@
         <v>465</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>13</v>
@@ -8363,13 +8383,13 @@
         <v>46</v>
       </c>
       <c r="C105" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>664</v>
-      </c>
       <c r="E105" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>49</v>
@@ -8419,7 +8439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>362</v>
       </c>
@@ -8512,7 +8532,7 @@
         <v>468</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -8752,36 +8772,36 @@
     </row>
     <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" t="s">
         <v>558</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>558</v>
+      </c>
+      <c r="E118" t="s">
         <v>559</v>
-      </c>
-      <c r="D118" t="s">
-        <v>559</v>
-      </c>
-      <c r="E118" t="s">
-        <v>560</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>383</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>299</v>
@@ -8790,22 +8810,22 @@
         <v>13</v>
       </c>
       <c r="D119" t="s">
+        <v>562</v>
+      </c>
+      <c r="E119" t="s">
+        <v>562</v>
+      </c>
+      <c r="F119" t="s">
         <v>563</v>
       </c>
-      <c r="E119" t="s">
-        <v>563</v>
-      </c>
-      <c r="F119" t="s">
-        <v>564</v>
-      </c>
       <c r="G119" t="s">
         <v>13</v>
       </c>
       <c r="H119" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I119" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="J119" t="s">
         <v>13</v>
@@ -8813,95 +8833,95 @@
     </row>
     <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>376</v>
       </c>
       <c r="C120" t="s">
+        <v>564</v>
+      </c>
+      <c r="D120" t="s">
         <v>565</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
+        <v>565</v>
+      </c>
+      <c r="F120" t="s">
         <v>566</v>
       </c>
-      <c r="E120" t="s">
-        <v>566</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>567</v>
       </c>
-      <c r="G120" t="s">
-        <v>568</v>
-      </c>
       <c r="H120" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="I120" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="I120" s="4" t="s">
-        <v>578</v>
-      </c>
       <c r="J120" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C121" t="s">
+        <v>581</v>
+      </c>
+      <c r="D121" t="s">
         <v>572</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
+        <v>572</v>
+      </c>
+      <c r="F121" t="s">
+        <v>579</v>
+      </c>
+      <c r="G121" t="s">
+        <v>580</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J121" t="s">
         <v>582</v>
-      </c>
-      <c r="D121" t="s">
-        <v>573</v>
-      </c>
-      <c r="E121" t="s">
-        <v>573</v>
-      </c>
-      <c r="F121" t="s">
-        <v>580</v>
-      </c>
-      <c r="G121" t="s">
-        <v>581</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="J121" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C122" t="s">
         <v>606</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>607</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>607</v>
+      </c>
+      <c r="F122" t="s">
         <v>608</v>
       </c>
-      <c r="E122" t="s">
-        <v>608</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>609</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="I122" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>612</v>
       </c>
       <c r="J122" t="s">
         <v>13</v>
@@ -8909,51 +8929,51 @@
     </row>
     <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C123" t="s">
         <v>613</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>614</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
+        <v>614</v>
+      </c>
+      <c r="F123" t="s">
         <v>615</v>
       </c>
-      <c r="E123" t="s">
-        <v>615</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>616</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="I123" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="H123" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>618</v>
-      </c>
       <c r="J123" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C124" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>179</v>
@@ -8965,90 +8985,90 @@
         <v>383</v>
       </c>
       <c r="I124" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="J124" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="D125" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="E125" s="6" t="s">
+      <c r="F125" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>383</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J125" s="6"/>
     </row>
     <row r="126" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="D126" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="G126" s="4" t="s">
+      <c r="H126" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="I126" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C127" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>638</v>
-      </c>
       <c r="E127" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>476</v>
@@ -9063,52 +9083,52 @@
     </row>
     <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="E128" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G128" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>383</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C129" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>658</v>
-      </c>
       <c r="E129" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>433</v>
@@ -9120,27 +9140,27 @@
         <v>438</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C130" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>660</v>
-      </c>
       <c r="E130" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>433</v>
@@ -9152,7 +9172,7 @@
         <v>438</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9163,13 +9183,13 @@
         <v>318</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>382</v>
@@ -9195,13 +9215,13 @@
         <v>318</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>382</v>
@@ -9224,22 +9244,22 @@
         <v>1000132</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="D133" s="6" t="s">
+      <c r="E133" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>681</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>384</v>
@@ -9248,7 +9268,7 @@
         <v>532</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
@@ -9256,19 +9276,19 @@
         <v>1000133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="E134" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>476</v>
@@ -9277,10 +9297,10 @@
         <v>384</v>
       </c>
       <c r="I134" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="J134" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9288,28 +9308,28 @@
         <v>1000134</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D135" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="E135" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="F135" s="3" t="s">
+      <c r="G135" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="H135" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="I135" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -9318,31 +9338,31 @@
         <v>1000135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C136" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="E136" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="G136" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="H136" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="I136" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="I136" s="4" t="s">
-        <v>707</v>
-      </c>
       <c r="J136" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9353,28 +9373,28 @@
         <v>481</v>
       </c>
       <c r="C137" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="E137" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="F137" s="3" t="s">
+      <c r="G137" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="H137" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="I137" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="I137" s="4" t="s">
-        <v>713</v>
-      </c>
       <c r="J137" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9385,28 +9405,28 @@
         <v>493</v>
       </c>
       <c r="C138" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E138" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="E138" s="6" t="s">
+      <c r="F138" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="G138" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="H138" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="H138" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>718</v>
-      </c>
       <c r="J138" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9414,28 +9434,28 @@
         <v>1000138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="D139" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="E139" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="H139" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="H139" s="4" t="s">
+      <c r="I139" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>729</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -9444,28 +9464,28 @@
         <v>1000139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C140" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="E140" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="F140" s="3" t="s">
+      <c r="G140" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>494</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -9474,31 +9494,31 @@
         <v>1000140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="E141" s="5" t="s">
+      <c r="F141" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="G141" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="H141" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="I141" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="I141" s="5" t="s">
+      <c r="J141" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="J141" s="5" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9509,25 +9529,25 @@
         <v>510</v>
       </c>
       <c r="C142" t="s">
+        <v>740</v>
+      </c>
+      <c r="D142" t="s">
+        <v>740</v>
+      </c>
+      <c r="E142" t="s">
         <v>741</v>
       </c>
-      <c r="D142" t="s">
-        <v>741</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="F142" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="G142" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>383</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J142" s="5"/>
     </row>
@@ -9539,19 +9559,19 @@
         <v>376</v>
       </c>
       <c r="C143" t="s">
+        <v>746</v>
+      </c>
+      <c r="D143" t="s">
+        <v>746</v>
+      </c>
+      <c r="E143" t="s">
+        <v>745</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="D143" t="s">
-        <v>747</v>
-      </c>
-      <c r="E143" t="s">
-        <v>746</v>
-      </c>
-      <c r="F143" s="5" t="s">
+      <c r="G143" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>383</v>
@@ -9560,7 +9580,7 @@
         <v>436</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9568,31 +9588,31 @@
         <v>1000143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C144" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D144" t="s">
+        <v>750</v>
+      </c>
+      <c r="E144" t="s">
         <v>751</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>752</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>753</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>383</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9600,28 +9620,28 @@
         <v>1000144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C145" t="s">
+        <v>756</v>
+      </c>
+      <c r="D145" t="s">
+        <v>757</v>
+      </c>
+      <c r="E145" t="s">
         <v>759</v>
       </c>
-      <c r="C145" t="s">
-        <v>757</v>
-      </c>
-      <c r="D145" t="s">
-        <v>758</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="F145" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="G145" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="H145" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="I145" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="J145" s="5"/>
     </row>
@@ -9630,28 +9650,28 @@
         <v>1000145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C146" t="s">
+        <v>764</v>
+      </c>
+      <c r="D146" t="s">
         <v>765</v>
       </c>
-      <c r="D146" t="s">
-        <v>766</v>
-      </c>
       <c r="E146" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>465</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J146" s="5"/>
     </row>
@@ -9660,28 +9680,28 @@
         <v>1000146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C147" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D147" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E147" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>465</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J147" s="5"/>
     </row>
@@ -9690,28 +9710,28 @@
         <v>1000147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C148" t="s">
         <v>769</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>769</v>
+      </c>
+      <c r="E148" t="s">
         <v>770</v>
       </c>
-      <c r="D148" t="s">
-        <v>770</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="F148" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="G148" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="H148" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="I148" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="J148" s="5"/>
     </row>
@@ -9720,28 +9740,28 @@
         <v>1000148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C149" t="s">
+        <v>775</v>
+      </c>
+      <c r="D149" t="s">
         <v>776</v>
       </c>
-      <c r="D149" t="s">
-        <v>777</v>
-      </c>
       <c r="E149" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>465</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J149" s="5"/>
     </row>
@@ -9750,28 +9770,28 @@
         <v>1000149</v>
       </c>
       <c r="B150" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="D150" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="E150" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="F150" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="G150" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="H150" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="H150" s="4" t="s">
+      <c r="I150" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="J150" s="6"/>
     </row>
@@ -9780,19 +9800,19 @@
         <v>1000150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C151" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="E151" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="F151" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>792</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>424</v>
@@ -9812,31 +9832,31 @@
         <v>1000151</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="D152" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E152" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="E152" s="6" t="s">
+      <c r="F152" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="G152" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="H152" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="H152" s="4" t="s">
+      <c r="I152" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="I152" s="6" t="s">
-        <v>801</v>
-      </c>
       <c r="J152" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -9844,22 +9864,22 @@
         <v>1000152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C153" t="s">
+        <v>801</v>
+      </c>
+      <c r="D153" t="s">
         <v>802</v>
       </c>
-      <c r="D153" t="s">
-        <v>803</v>
-      </c>
       <c r="E153" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>383</v>
@@ -9874,22 +9894,22 @@
         <v>1000152</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C154" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D154" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E154" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>383</v>
@@ -9899,7 +9919,7 @@
       </c>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>1000154</v>
       </c>
@@ -9916,7 +9936,7 @@
         <v>367</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>13</v>
@@ -9931,11 +9951,44 @@
         <v>13</v>
       </c>
     </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>1000155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J154">
+  <autoFilter ref="A1:J156">
     <filterColumn colId="1">
       <filters>
-        <filter val="测试点"/>
+        <filter val="电解电容"/>
+        <filter val="贴片钽电容"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:J122">

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="823">
   <si>
     <t>Part type</t>
   </si>
@@ -4591,6 +4591,30 @@
   </si>
   <si>
     <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接器\射频连接器\IPX\U.FL-R-SMT-1.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPE-X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\ipx</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5068,10 +5092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5085,7 +5109,7 @@
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.25" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="35.625" customWidth="1"/>
+    <col min="10" max="10" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -10022,6 +10046,38 @@
       </c>
       <c r="J156" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>1000156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\candence-lib\MyDataBase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="E:\work\git\candence-lib\MyDataBase\"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="CIS_DB"/>
+    <sheet r:id="rId5" name="TMPPRTS" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'CIS_DB'!$A$1:$J$156</definedName>
+    <definedName name="TMPPRTS">'TMPPRTS'!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -10090,4 +10088,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>TMPPRTNO</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>RELPRTNO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="E:\work\git\candence-lib\MyDataBase\"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\candence-lib\MyDataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="CIS_DB"/>
-    <sheet r:id="rId5" name="TMPPRTS" sheetId="2"/>
+    <sheet name="CIS_DB" sheetId="1" r:id="rId1"/>
+    <sheet name="TMPPRTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'CIS_DB'!$A$1:$J$156</definedName>
-    <definedName name="TMPPRTS">'TMPPRTS'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$165</definedName>
+    <definedName name="TMPPRTS">TMPPRTS!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="870">
   <si>
     <t>Part type</t>
   </si>
@@ -4613,13 +4617,438 @@
   </si>
   <si>
     <t>mylib\ipx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMPPRTNO</t>
+  </si>
+  <si>
+    <t>RELPRTNO</t>
+  </si>
+  <si>
+    <t>MP2359DT</t>
+  </si>
+  <si>
+    <t>1.2A/24V/1.4MHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+  </si>
+  <si>
+    <t>MPS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\MP2359</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源芯片\DC-DC\MP2359.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S14</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A/40V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10uF/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/10%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805X106K250NT</t>
+  </si>
+  <si>
+    <t>C0805</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10uF/25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/X5R</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805X225K500NT</t>
+  </si>
+  <si>
+    <r>
+      <t>2.2uF/50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/10%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.2uF/50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/X5R</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0805</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWPA4020S4R7MT</t>
+  </si>
+  <si>
+    <t>4.7uH/20%/1.34A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ind-sm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunlord</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K/1%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K/1%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1622</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F4992</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5A/24V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE-1210</t>
+  </si>
+  <si>
+    <t>直插LED</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KENTO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD1210-050-24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>led-5mm-4p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\LED-A</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB/5mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RGB/5mm/common anode5mm </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5mmRGB 共阳 透明</t>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STWD100NWWY3F</t>
+  </si>
+  <si>
+    <t>watch dog/2.7-5.5V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STWD100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-5
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\STWD100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成电路\WatchDog\stwd100.pdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4765,7 +5194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4786,6 +5215,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4804,7 +5236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5090,10 +5522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="E157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5102,8 +5534,8 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.25" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
@@ -7254,7 +7686,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>237</v>
       </c>
@@ -7606,7 +8038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>276</v>
       </c>
@@ -7670,7 +8102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>280</v>
       </c>
@@ -7702,7 +8134,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>284</v>
       </c>
@@ -7734,7 +8166,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>287</v>
       </c>
@@ -7958,7 +8390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>310</v>
       </c>
@@ -9054,7 +9486,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>633</v>
       </c>
@@ -9238,7 +9670,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>1000130</v>
       </c>
@@ -9270,7 +9702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>1000131</v>
       </c>
@@ -9552,7 +9984,7 @@
       </c>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>1000140</v>
       </c>
@@ -10078,12 +10510,324 @@
         <v>817</v>
       </c>
     </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>1000157</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C158" t="s">
+        <v>825</v>
+      </c>
+      <c r="D158" t="s">
+        <v>825</v>
+      </c>
+      <c r="E158" t="s">
+        <v>826</v>
+      </c>
+      <c r="F158" t="s">
+        <v>827</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>1000158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>1000159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>1000160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>1000161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C162" t="s">
+        <v>841</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J162" s="3"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>1000162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>1000163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>1000164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>1000165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="J166" s="3"/>
+    </row>
+    <row r="167" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>1000166</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C167" t="s">
+        <v>862</v>
+      </c>
+      <c r="D167" t="s">
+        <v>864</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="J167" t="s">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J156">
-    <sortState ref="A2:J122">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J165"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10091,28 +10835,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>TMPPRTNO</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>RELPRTNO</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>824</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\candence-lib\MyDataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\candence-lib\MyDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="881">
   <si>
     <t>Part type</t>
   </si>
@@ -5042,13 +5042,57 @@
   </si>
   <si>
     <t>集成电路\WatchDog\stwd100.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M26FB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L86</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M26FB-03-BT/TTS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G module</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>quectel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\M26FB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L86-M33 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS module</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\L86</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片模组</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5236,7 +5280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5522,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10825,6 +10869,66 @@
       <c r="J167" t="s">
         <v>869</v>
       </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>1000167</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="J168" s="3"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>1000168</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="J169" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J165"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="886">
   <si>
     <t>Part type</t>
   </si>
@@ -5086,6 +5086,49 @@
   </si>
   <si>
     <t>贴片模组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC20CEHCLG-128-SNNS</t>
+  </si>
+  <si>
+    <t>LTE module</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EC20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC20CEHCLG-128-SNNS</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5566,10 +5609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10929,6 +10972,36 @@
         <v>879</v>
       </c>
       <c r="J169" s="3"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>1000169</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C170" t="s">
+        <v>885</v>
+      </c>
+      <c r="D170" t="s">
+        <v>881</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J170" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J165"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="892">
   <si>
     <t>Part type</t>
   </si>
@@ -5112,6 +5112,29 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>EC20CEHCLG-128-SNNS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>simcard-sim115c</t>
+  </si>
+  <si>
+    <t>xunpu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM-115C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM-115C/外焊自弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>mylib\</t>
     </r>
@@ -5128,7 +5151,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>EC20CEHCLG-128-SNNS</t>
+    <t>mylib\SIM-115C</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5609,10 +5632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10981,7 +11004,7 @@
         <v>880</v>
       </c>
       <c r="C170" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D170" t="s">
         <v>881</v>
@@ -10999,9 +11022,38 @@
         <v>608</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="J170" s="3"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>1000169</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="F171" t="s">
+        <v>886</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>891</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J165"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -16,7 +16,7 @@
     <sheet name="TMPPRTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$190</definedName>
     <definedName name="TMPPRTS">TMPPRTS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1037">
   <si>
     <t>Part type</t>
   </si>
@@ -2405,10 +2405,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ESDU5V0H4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>晶体管\肖特基二极管</t>
     </r>
@@ -3482,10 +3478,6 @@
   </si>
   <si>
     <t>贴片TVS\BSD5C051U.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25MHz</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4190,670 +4182,2407 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>simcard-sim115c</t>
+  </si>
+  <si>
+    <t>xunpu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM-115C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM-115C/外焊自弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS61175PWPR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9-18V/Boost Converter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTSSOP-14</t>
+  </si>
+  <si>
+    <t>mylib\TPS61175PWPR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86.6K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47nF/50V/5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B473J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47nF/50V/5%/X7R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33nF/50V/10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33nF/50V/10%/X7R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.2K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3003T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.2K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uF/50V/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.3x7.7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>220uF/50V/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.3x7.7/SMT</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU-D6_3MM-SMT</t>
+  </si>
+  <si>
+    <r>
+      <t>ALU-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MM-SMT</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind-sm12x11mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>220uF/50V/10x10.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>220uF/50V/10x10.5/SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15uH/20%/5A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.24K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU-D8MM-SMT</t>
+  </si>
+  <si>
+    <t>电解电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>330uF/25V/8x10.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>330uF/25V/8x10.5/SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A/24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A/24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FUSE-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>812</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V Varistor Voltage</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMBJ36CA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/600W</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO214-AA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100uF/50V/8x10.5/SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZV101M050F105ETR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TNC-KWE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>olink</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ANTENNA_5PIN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNC-KYWE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>olink</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ANGNEX</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS18B20+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXIM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ds18b20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\con2*5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR913129AE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\HR913129AE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\con3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>204-10SDRD/S530-A3-L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Varistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR-9P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kmtw</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upright 6*6*12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\key1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTL36A11157</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\OCXO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206B472K202NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>293D227X9016E2TE3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B331K500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM7060-701-2PL-TL01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Inductor Common mode</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLW21SN371SQ2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MURATA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MA-KWE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ANTENNA_5PIN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F010JT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP4CE55F484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LTERA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\EP4CE55F484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG681J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1432</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JT5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F051JT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBLC03C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\GBLC0XX_TVS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEO-M8N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-BLOX</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\NEO-M8</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B104K500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMBJ15CA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\tvs</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMI322513X100K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0505S-1WR3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORNSUN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\B_S-1WR2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-217/R6C-AL1M2VY/3T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>everlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2512 J0221T4E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADuM1201BRZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F767IGT6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\STM32F767IGT6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESDA6V1-5W6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ESDA6V1-5W6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3N00032G33YC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B225K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLZ2012M100HT000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RV05-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enji</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SRV05-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini-circuits</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Transformer_TC1-1-13M+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG102J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F100KT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN82NG00d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Inductor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Varistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2684KVDARLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU9.8-YH160224</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFR0W4J0105A50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEY472K275A08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNR5040S100MT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDE10-20B05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CY1472ME1IEF49H0A2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDCV304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CDCV304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX9011EUT-T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXIM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSD5C051U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPSON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3901T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\LMV331</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1003T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B105K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TPS74401</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1151T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1691T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KF2510-6AW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OOMELE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\con6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2359DT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S14</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Diode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805X106K250NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805X225K500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWPA4020S4R7MT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F4992</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD1210-050-24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ealand</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5mmRGB 共阳 透明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STWD100NWWY3F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M26FB-03-BT/TTS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\M26FB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L86-M33 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>quectel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC20CEHCLG-128-SNNS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EC20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM-115C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SIM-115C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS61175PWPR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F8662T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B333K500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1622T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F5101T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM221M050G125A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apXon</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\CAP POL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV221M050G105ETR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apXon</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMMS1040-150M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3241T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZV331M025F105ETR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mSMD200-24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMBJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电解电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100uF/50V/8x10.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU-D8MM-SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片二极管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK104</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A/40V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO214-AB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN65HVD3082EDR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN65HVD3082EDR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-5.5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/200Kbps</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OP-8</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MAX3485</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1206</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMBJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10CA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J6.0CA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10V/600W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/600W</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1206 J012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1206 J036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/40V/0.5A</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\NPN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL817S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL817S（B）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OP-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>everlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\OpticalCoupler_1Channel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>120R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>360R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V/Zener</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片稳压管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM1Z3B3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST(先科)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Zener</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片二极管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN4148WS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100V/150mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-323</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HF49FD/005-1H11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/1H/2A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F49FD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\Relay_1h</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片晶振</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N230000AB0C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30MHz/10ppm/10pF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTAL3225</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DS</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG120J500NT</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2pF/50V/5%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12pF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q33310F70032100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>25MHz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/3.3V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1E000021013900</t>
+  </si>
+  <si>
+    <t>25MHz/12pF/10ppm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0603 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J0105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>贴片连接器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>simcard-sim115c</t>
-  </si>
-  <si>
-    <t>xunpu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIM-115C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIM-115C/外焊自弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS61175PWPR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.9-18V/Boost Converter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTSSOP-14</t>
-  </si>
-  <si>
-    <t>mylib\TPS61175PWPR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>86.6K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>47nF/50V/5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B473J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>47nF/50V/5%/X7R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33nF/50V/10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33nF/50V/10%/X7R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.2K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3003T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>300K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.2K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uF/50V/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6.3x7.7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>220uF/50V/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6.3x7.7/SMT</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU-D6_3MM-SMT</t>
-  </si>
-  <si>
-    <r>
-      <t>ALU-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MM-SMT</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ind-sm12x11mm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>220uF/50V/10x10.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>220uF/50V/10x10.5/SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15uH/20%/5A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.24K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU-D8MM-SMT</t>
-  </si>
-  <si>
-    <t>电解电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>330uF/25V/8x10.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>330uF/25V/8x10.5/SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2A/24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2A/24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FUSE-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>812</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0K</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V Varistor Voltage</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMBJ36CA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V/600W</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DO214-AA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100uF/50V/8x10.5/SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZV101M050F105ETR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TNC-KWE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>olink</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\ANTENNA_5PIN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNC-KYWE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>olink</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HR</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ANGNEX</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS18B20+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAXIM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\ds18b20</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HR</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\con2*5</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR913129AE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\HR913129AE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\con3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>204-10SDRD/S530-A3-L</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Everlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Varistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR-9P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kmtw</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upright 6*6*12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\key1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WTL36A11157</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\OCXO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1206B472K202NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>293D227X9016E2TE3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B331K500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM7060-701-2PL-TL01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Inductor Common mode</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DLW21SN371SQ2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MURATA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>S</t>
     </r>
@@ -4865,76 +6594,38 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>MA-KWE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\ANTENNA_5PIN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F010JT5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniOhm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP4CE55F484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LTERA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\EP4CE55F484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG681J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
+      <t>IM-121</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>imcard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/抽屉式</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim-121</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4949,914 +6640,52 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1432</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JT5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F051JT5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBLC03C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\GBLC0XX_TVS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEO-M8N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-BLOX</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\NEO-M8</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B104K500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMBJ15CA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\tvs</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMI322513X100K</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL10A475KO8NNNC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAMSUNG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B0505S-1WR3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORNSUN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>THR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\B_S-1WR2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-217/R6C-AL1M2VY/3T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>everlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2512 J0221T4E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADuM1201BRZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F767IGT6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\STM32F767IGT6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESDA6V1-5W6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ESDA6V1-5W6</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3N00032G33YC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SJK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B225K160NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLZ2012M100HT000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RV05-4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>enji</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\SRV05-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD9361BBCZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\AD9361BBCZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini-circuits</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Transformer_TC1-1-13M+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG102J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F100KT5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniOhm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW18AN82NG00d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Inductor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14D47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Varistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2684KVDARLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UU9.8-YH160224</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFR0W4J0105A50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEY472K275A08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FNR5040S100MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDE10-20B05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>THR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CY1472ME1IEF49H0A2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDCV304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CDCV304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX9011EUT-T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAXIM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSD5C051U</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BORN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q33310F70032100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\xtal3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3901T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\LMV331</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1003T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B105K160NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TPS74401</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1151T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1691T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KF2510-6AW</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OOMELE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\con6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2359DT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S14</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Diode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805X106K250NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805X225K500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWPA4020S4R7MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0603 F4992</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD1210-050-24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ealand</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5mmRGB 共阳 透明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STWD100NWWY3F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>M26FB-03-BT/TTS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\M26FB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">L86-M33 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>quectel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC20CEHCLG-128-SNNS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EC20</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIM-115C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\SIM-115C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS61175PWPR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F8662T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B333K500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1622T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F5101T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KM221M050G125A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>apXon</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\CAP POL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DV221M050G105ETR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>apXon</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMMS1040-150M</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3241T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZV331M025F105ETR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mSMD200-24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0K</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SMBJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电解电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100uF/50V/8x10.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU-D8MM-SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片二极管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK104</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A/40V</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DO214-AB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DD</t>
-    </r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0JT5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R/1%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESDU5V0H4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SIM_SOCKET</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5864,7 +6693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5912,13 +6741,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF444444"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -6023,7 +6845,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6328,10 +7152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189:XFD189"/>
+    <sheetView tabSelected="1" topLeftCell="C189" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6350,7 +7174,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7479,7 +8303,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>120</v>
@@ -7988,7 +8812,7 @@
         <v>175</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>499</v>
+        <v>1035</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>176</v>
@@ -8020,7 +8844,7 @@
         <v>180</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>181</v>
@@ -8032,16 +8856,16 @@
         <v>183</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -8381,7 +9205,7 @@
         <v>224</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>12</v>
@@ -8407,7 +9231,7 @@
         <v>227</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>228</v>
@@ -8422,10 +9246,10 @@
         <v>376</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -8457,7 +9281,7 @@
         <v>433</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -8489,7 +9313,7 @@
         <v>434</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -8521,7 +9345,7 @@
         <v>435</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -8550,10 +9374,10 @@
         <v>376</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -8672,16 +9496,16 @@
         <v>256</v>
       </c>
       <c r="G73" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>511</v>
-      </c>
       <c r="J73" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -8745,7 +9569,7 @@
         <v>440</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -8777,7 +9601,7 @@
         <v>441</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -8855,7 +9679,7 @@
         <v>484</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>278</v>
@@ -8873,7 +9697,7 @@
         <v>486</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -8916,28 +9740,28 @@
         <v>285</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>286</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>286</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -8948,28 +9772,28 @@
         <v>285</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>288</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>286</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>444</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -8980,19 +9804,19 @@
         <v>367</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>290</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>377</v>
@@ -9012,7 +9836,7 @@
         <v>292</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>293</v>
@@ -9024,13 +9848,13 @@
         <v>295</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>12</v>
@@ -9059,10 +9883,10 @@
         <v>12</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>12</v>
@@ -9076,7 +9900,7 @@
         <v>301</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>302</v>
@@ -9094,7 +9918,7 @@
         <v>377</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>12</v>
@@ -9123,7 +9947,7 @@
         <v>12</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>445</v>
@@ -9158,7 +9982,7 @@
         <v>377</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>12</v>
@@ -9172,7 +9996,7 @@
         <v>311</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>312</v>
@@ -9184,10 +10008,10 @@
         <v>313</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>488</v>
@@ -9216,13 +10040,13 @@
         <v>375</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>12</v>
@@ -9236,7 +10060,7 @@
         <v>318</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>373</v>
@@ -9248,10 +10072,10 @@
         <v>320</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>489</v>
@@ -9268,7 +10092,7 @@
         <v>322</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>323</v>
@@ -9283,10 +10107,10 @@
         <v>12</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>12</v>
@@ -9300,7 +10124,7 @@
         <v>326</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>328</v>
@@ -9312,16 +10136,16 @@
         <v>327</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -9332,7 +10156,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>330</v>
@@ -9344,13 +10168,13 @@
         <v>331</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -9364,7 +10188,7 @@
         <v>333</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>334</v>
@@ -9379,7 +10203,7 @@
         <v>491</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>443</v>
@@ -9396,7 +10220,7 @@
         <v>10</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>337</v>
@@ -9408,7 +10232,7 @@
         <v>14</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>376</v>
@@ -9443,7 +10267,7 @@
         <v>12</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>492</v>
@@ -9475,7 +10299,7 @@
         <v>12</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>446</v>
@@ -9492,7 +10316,7 @@
         <v>345</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>346</v>
@@ -9510,7 +10334,7 @@
         <v>376</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>12</v>
@@ -9524,7 +10348,7 @@
         <v>345</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>350</v>
@@ -9536,13 +10360,13 @@
         <v>349</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -9553,31 +10377,31 @@
         <v>348</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>540</v>
-      </c>
       <c r="H101" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -9588,7 +10412,7 @@
         <v>45</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>120</v>
@@ -9600,10 +10424,10 @@
         <v>48</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>418</v>
@@ -9617,28 +10441,28 @@
         <v>352</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>559</v>
-      </c>
       <c r="E103" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>12</v>
@@ -9652,22 +10476,22 @@
         <v>451</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>591</v>
-      </c>
       <c r="G104" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>490</v>
@@ -9684,25 +10508,25 @@
         <v>45</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>12</v>
@@ -9716,7 +10540,7 @@
         <v>45</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>357</v>
@@ -9728,13 +10552,13 @@
         <v>48</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>12</v>
@@ -9780,7 +10604,7 @@
         <v>369</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>363</v>
@@ -9795,10 +10619,10 @@
         <v>390</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>12</v>
@@ -9812,7 +10636,7 @@
         <v>370</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>364</v>
@@ -9824,16 +10648,16 @@
         <v>365</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
@@ -9841,10 +10665,10 @@
         <v>449</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>450</v>
@@ -9856,13 +10680,13 @@
         <v>14</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J110" s="3"/>
     </row>
@@ -9874,7 +10698,7 @@
         <v>369</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>455</v>
@@ -9889,10 +10713,10 @@
         <v>389</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="J111" s="3"/>
     </row>
@@ -9904,7 +10728,7 @@
         <v>458</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>459</v>
@@ -9916,13 +10740,13 @@
         <v>155</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J112" s="3"/>
     </row>
@@ -9934,7 +10758,7 @@
         <v>451</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>460</v>
@@ -9946,13 +10770,13 @@
         <v>14</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J113" s="3"/>
     </row>
@@ -9964,7 +10788,7 @@
         <v>466</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>463</v>
@@ -9976,13 +10800,13 @@
         <v>465</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J114" s="3"/>
     </row>
@@ -9994,7 +10818,7 @@
         <v>468</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>469</v>
@@ -10006,10 +10830,10 @@
         <v>160</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>488</v>
@@ -10024,7 +10848,7 @@
         <v>45</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>471</v>
@@ -10036,10 +10860,10 @@
         <v>472</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>418</v>
@@ -10054,7 +10878,7 @@
         <v>477</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>474</v>
@@ -10066,7 +10890,7 @@
         <v>479</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>376</v>
@@ -10078,37 +10902,37 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>297</v>
@@ -10117,22 +10941,22 @@
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>520</v>
-      </c>
       <c r="G119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>12</v>
@@ -10140,95 +10964,95 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>400</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="F121" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="E122" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="G122" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="H122" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>12</v>
@@ -10236,152 +11060,152 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="E123" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="G123" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="D125" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="F125" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>594</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>490</v>
@@ -10390,25 +11214,25 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>582</v>
-      </c>
       <c r="E128" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>376</v>
@@ -10420,22 +11244,22 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>417</v>
@@ -10444,42 +11268,42 @@
         <v>376</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>586</v>
-      </c>
       <c r="E130" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -10490,25 +11314,25 @@
         <v>315</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>375</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>12</v>
@@ -10522,25 +11346,25 @@
         <v>315</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>375</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>12</v>
@@ -10551,31 +11375,31 @@
         <v>1000132</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="D133" s="3" t="s">
+      <c r="E133" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="G133" s="4" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -10583,31 +11407,31 @@
         <v>1000133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="E134" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>453</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I134" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J134" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
@@ -10615,28 +11439,28 @@
         <v>1000134</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="E135" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -10645,22 +11469,22 @@
         <v>1000135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="G136" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>467</v>
@@ -10669,7 +11493,7 @@
         <v>490</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -10680,28 +11504,28 @@
         <v>458</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F137" s="3" t="s">
+      <c r="G137" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
@@ -10712,28 +11536,28 @@
         <v>466</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D138" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="G138" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>624</v>
-      </c>
       <c r="J138" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
@@ -10741,28 +11565,28 @@
         <v>1000138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="E139" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="G139" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>634</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>467</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -10771,28 +11595,28 @@
         <v>1000139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E140" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="G140" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -10801,31 +11625,31 @@
         <v>1000140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="D141" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="G141" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -10836,25 +11660,25 @@
         <v>477</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="G142" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="I142" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="J142" s="3"/>
     </row>
@@ -10866,19 +11690,19 @@
         <v>369</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>646</v>
-      </c>
       <c r="G143" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>376</v>
@@ -10887,7 +11711,7 @@
         <v>420</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -10895,31 +11719,31 @@
         <v>1000143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>648</v>
+        <v>524</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>1024</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
@@ -10927,25 +11751,25 @@
         <v>1000144</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>655</v>
-      </c>
       <c r="G145" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>418</v>
@@ -10957,28 +11781,28 @@
         <v>1000145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J146" s="3"/>
     </row>
@@ -10987,28 +11811,28 @@
         <v>1000146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J147" s="3"/>
     </row>
@@ -11017,28 +11841,28 @@
         <v>1000147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="F148" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="G148" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>663</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="J148" s="3"/>
     </row>
@@ -11047,28 +11871,28 @@
         <v>1000148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J149" s="3"/>
     </row>
@@ -11077,25 +11901,25 @@
         <v>1000149</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="D150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>668</v>
-      </c>
       <c r="G150" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>490</v>
@@ -11107,22 +11931,22 @@
         <v>1000150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>675</v>
-      </c>
       <c r="G151" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>377</v>
@@ -11139,31 +11963,31 @@
         <v>1000151</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="F152" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>681</v>
-      </c>
       <c r="G152" s="4" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -11171,28 +11995,28 @@
         <v>1000152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J153" s="3"/>
     </row>
@@ -11201,22 +12025,22 @@
         <v>1000153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>376</v>
@@ -11231,7 +12055,7 @@
         <v>1000154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>12</v>
@@ -11243,7 +12067,7 @@
         <v>360</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>12</v>
@@ -11266,25 +12090,25 @@
         <v>367</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>12</v>
@@ -11295,31 +12119,31 @@
         <v>1000156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D157" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I157" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>701</v>
-      </c>
       <c r="J157" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -11330,28 +12154,28 @@
         <v>477</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F158" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="G158" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="H158" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I158" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="J158" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -11362,13 +12186,13 @@
         <v>180</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>187</v>
@@ -11377,10 +12201,10 @@
         <v>389</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>12</v>
@@ -11394,22 +12218,22 @@
         <v>10</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="F160" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>490</v>
@@ -11426,25 +12250,25 @@
         <v>10</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F161" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>453</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>12</v>
@@ -11458,25 +12282,25 @@
         <v>458</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D162" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="G162" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J162" s="3"/>
     </row>
@@ -11488,22 +12312,22 @@
         <v>45</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>418</v>
@@ -11520,22 +12344,22 @@
         <v>45</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>418</v>
@@ -11552,19 +12376,19 @@
         <v>381</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>376</v>
@@ -11581,28 +12405,28 @@
         <v>1000165</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>728</v>
-      </c>
       <c r="G166" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>729</v>
       </c>
       <c r="J166" s="3"/>
     </row>
@@ -11611,31 +12435,31 @@
         <v>1000166</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>734</v>
-      </c>
       <c r="E167" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>735</v>
-      </c>
       <c r="G167" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
@@ -11643,28 +12467,28 @@
         <v>1000167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D168" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>742</v>
-      </c>
       <c r="H168" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="J168" s="3"/>
     </row>
@@ -11673,28 +12497,28 @@
         <v>1000168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D169" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>745</v>
       </c>
       <c r="J169" s="3"/>
     </row>
@@ -11703,28 +12527,28 @@
         <v>1000169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E170" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="F170" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>749</v>
-      </c>
       <c r="G170" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="J170" s="3"/>
     </row>
@@ -11732,29 +12556,29 @@
       <c r="A171" s="2">
         <v>1000170</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>753</v>
-      </c>
       <c r="E171" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="J171" s="3"/>
     </row>
@@ -11763,28 +12587,28 @@
         <v>1000171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>758</v>
-      </c>
       <c r="G172" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J172" s="3"/>
     </row>
@@ -11793,28 +12617,28 @@
         <v>1000172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>12</v>
@@ -11828,16 +12652,16 @@
         <v>451</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>453</v>
@@ -11846,7 +12670,7 @@
         <v>376</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>12</v>
@@ -11857,28 +12681,28 @@
         <v>1000174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>453</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>12</v>
@@ -11889,28 +12713,28 @@
         <v>1000175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>12</v>
@@ -11921,28 +12745,28 @@
         <v>1000176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>12</v>
@@ -11953,28 +12777,28 @@
         <v>1000177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>12</v>
@@ -11988,25 +12812,25 @@
         <v>281</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>801</v>
+        <v>946</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>1009</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>12</v>
@@ -12020,22 +12844,22 @@
         <v>281</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>801</v>
+        <v>949</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>1010</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>443</v>
@@ -12052,25 +12876,25 @@
         <v>458</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J181" s="3"/>
     </row>
@@ -12079,28 +12903,28 @@
         <v>1000181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>12</v>
@@ -12111,25 +12935,25 @@
         <v>1000182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>377</v>
+        <v>946</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>1008</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>443</v>
@@ -12146,19 +12970,19 @@
         <v>381</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>376</v>
@@ -12178,25 +13002,25 @@
         <v>315</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>375</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>12</v>
@@ -12210,16 +13034,16 @@
         <v>369</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>389</v>
@@ -12237,19 +13061,19 @@
         <v>1000186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>414</v>
@@ -12269,22 +13093,22 @@
         <v>1000187</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="G188" s="4" t="s">
         <v>965</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>969</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>376</v>
@@ -12296,20 +13120,500 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A189" s="2"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>1000188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>972</v>
+      </c>
       <c r="J189" s="3"/>
     </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>1000189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>1000190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J191" s="3"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>1000191</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J192" s="3"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A193" s="7">
+        <v>1000192</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J193" s="3"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>1000193</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>1000194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>1000195</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>1000196</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="J197" s="3"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>1000197</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J198" s="3"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>1000198</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J199" s="3"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>1000199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>1000200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J201" s="3"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>1000201</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J202" s="3"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>1000202</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J203" s="3"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>1000203</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J188"/>
+  <autoFilter ref="A1:J190"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12328,10 +13632,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -16,7 +16,7 @@
     <sheet name="TMPPRTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$221</definedName>
     <definedName name="TMPPRTS">TMPPRTS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1097">
   <si>
     <t>Part type</t>
   </si>
@@ -6686,6 +6686,414 @@
   </si>
   <si>
     <t>mylib\SIM_SOCKET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T491B107M010AT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100uF/20%/10V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>an-b</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>emet</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1503T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F4702T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>150K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS7A7001DDA</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DO/1.45-6.5V/2A</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\TPS7A7001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soic-8-dda</t>
+  </si>
+  <si>
+    <t>MCP3421A0T-E/CH</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OT23-6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCP3421A1T-E/CH</t>
+  </si>
+  <si>
+    <t>MCP3421A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCP3421A1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/18bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicroChip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\MCP3421</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD0603-005-24V</t>
+  </si>
+  <si>
+    <t>0.05A/24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片保险丝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05A/24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE-0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ealand</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\FUSE_PTC</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC0625D1000T5E</t>
+  </si>
+  <si>
+    <t>100R/0.5%/25PPM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1206</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GBLC0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8V/350W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADuM1201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RZ</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Mbps</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\ADuM1201</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADUM1250ARZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\ADuM1250</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URB2424YMD-6WR3</t>
+  </si>
+  <si>
+    <r>
+      <t>6W/9-36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/1500V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URB_YMD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2451DT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\MP2451</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2MHz/0.6A/3.3-36V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1243T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>124K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F2372T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.7K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG330J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33pF/50V/5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33pF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD1210-025</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.25A/30V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-1.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8V/0.8A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MS</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-223</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\AMS1117</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7152,10 +7560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView tabSelected="1" topLeftCell="E205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13612,8 +14020,572 @@
         <v>12</v>
       </c>
     </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>1000204</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>1000205</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>1000206</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>1000207</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J208" s="3"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>1000208</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J209" s="3"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>1000209</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J210" s="3"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>1000210</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A212" s="2">
+        <v>1000211</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A213" s="2">
+        <v>1000212</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A214" s="2">
+        <v>1000213</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J214" s="3"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A215" s="2">
+        <v>1000214</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J215" s="3"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>1000215</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="J216" s="3"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>1000216</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>1000217</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A219" s="2">
+        <v>1000218</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A220" s="2">
+        <v>1000219</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A221" s="2">
+        <v>1000220</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A222" s="2">
+        <v>1000221</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J190"/>
+  <autoFilter ref="A1:J221"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\candence-lib\MyDataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\candence-lib\MyDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1107">
   <si>
     <t>Part type</t>
   </si>
@@ -7094,6 +7094,57 @@
   </si>
   <si>
     <t>mylib\AMS1117</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3012T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.1K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1693T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>169K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP64_10x10</t>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CH</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH395Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart/Tcpip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CH395Q</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7560,10 +7611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225:XFD225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14583,6 +14634,100 @@
       <c r="J222" s="3" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A223" s="2">
+        <v>1000222</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A224" s="2">
+        <v>1000223</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>1000224</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J225" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J221"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\candence-lib\MyDataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\candence-lib\MyDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TMPPRTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$226</definedName>
     <definedName name="TMPPRTS">TMPPRTS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1120">
   <si>
     <t>Part type</t>
   </si>
@@ -4746,6 +4746,62 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>WTL36A11157</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\OCXO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206B472K202NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>293D227X9016E2TE3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B331K500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM7060-701-2PL-TL01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>m</t>
     </r>
@@ -4757,13 +4813,2291 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\key1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WTL36A11157</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>ylib\Inductor Common mode</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLW21SN371SQ2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MURATA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MA-KWE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\ANTENNA_5PIN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F010JT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP4CE55F484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LTERA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\EP4CE55F484</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG681J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1432</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JT5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F051JT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBLC03C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\GBLC0XX_TVS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEO-M8N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-BLOX</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\NEO-M8</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B104K500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMBJ15CA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\tvs</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMI322513X100K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0505S-1WR3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORNSUN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\B_S-1WR2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-217/R6C-AL1M2VY/3T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>everlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2512 J0221T4E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADuM1201BRZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F767IGT6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\STM32F767IGT6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESDA6V1-5W6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ESDA6V1-5W6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3N00032G33YC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B225K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLZ2012M100HT000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RV05-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enji</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SRV05-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\AD9361BBCZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini-circuits</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Transformer_TC1-1-13M+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG102J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F100KT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniOhm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN82NG00d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Inductor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Varistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2684KVDARLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU9.8-YH160224</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFR0W4J0105A50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\Resistor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEY472K275A08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNR5040S100MT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDE10-20B05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CY1472ME1IEF49H0A2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDCV304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CDCV304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX9011EUT-T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXIM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSD5C051U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPSON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3901T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\LMV331</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1003T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B105K160NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TPS74401</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1151T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1691T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KF2510-6AW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OOMELE</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\con6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2359DT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S14</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Diode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805X106K250NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805X225K500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWPA4020S4R7MT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F4992</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD1210-050-24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ealand</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5mmRGB 共阳 透明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STWD100NWWY3F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M26FB-03-BT/TTS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\M26FB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L86-M33 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>quectel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC20CEHCLG-128-SNNS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EC20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM-115C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SIM-115C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS61175PWPR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F8662T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B333K500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1622T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F5101T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM221M050G125A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apXon</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\CAP POL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV221M050G105ETR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apXon</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMMS1040-150M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3241T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZV331M025F105ETR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mSMD200-24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0K</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMBJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电解电容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100uF/50V/8x10.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU-D8MM-SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片二极管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK104</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A/40V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO214-AB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN65HVD3082EDR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN65HVD3082EDR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-5.5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/200Kbps</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OP-8</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MAX3485</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1206</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMBJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10CA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J6.0CA</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10V/600W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/600W</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1206 J012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1206 J036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/40V/0.5A</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\NPN</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL817S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL817S（B）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OP-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>everlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\OpticalCoupler_1Channel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>120R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>360R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V/Zener</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片稳压管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM1Z3B3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST(先科)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\Zener</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片二极管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN4148WS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100V/150mA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-323</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HF49FD/005-1H11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/1H/2A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F49FD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\Relay_1h</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片晶振</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N230000AB0C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30MHz/10ppm/10pF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTAL3225</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DS</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\xtal2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG120J500NT</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2pF/50V/5%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12pF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q33310F70032100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>25MHz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/3.3V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1E000021013900</t>
+  </si>
+  <si>
+    <t>25MHz/12pF/10ppm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0603 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J0105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IM-121</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>imcard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/抽屉式</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim-121</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0603 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0JT5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R/1%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESDU5V0H4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\SIM_SOCKET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T491B107M010AT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100uF/20%/10V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>an-b</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>emet</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1503T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F4702T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>150K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS7A7001DDA</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DO/1.45-6.5V/2A</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\TPS7A7001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soic-8-dda</t>
+  </si>
+  <si>
+    <t>MCP3421A0T-E/CH</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OT23-6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCP3421A1T-E/CH</t>
+  </si>
+  <si>
+    <t>MCP3421A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCP3421A1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/18bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicroChip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\MCP3421</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD0603-005-24V</t>
+  </si>
+  <si>
+    <t>0.05A/24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片保险丝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05A/24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE-0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ealand</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\FUSE_PTC</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC0625D1000T5E</t>
+  </si>
+  <si>
+    <t>100R/0.5%/25PPM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1206</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GBLC0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8V/350W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADuM1201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RZ</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Mbps</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\ADuM1201</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADUM1250ARZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\ADuM1250</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URB2424YMD-6WR3</t>
+  </si>
+  <si>
+    <r>
+      <t>6W/9-36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/1500V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URB_YMD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2451DT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\MP2451</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2MHz/0.6A/3.3-36V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1243T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>124K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F2372T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.7K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG330J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33pF/50V/5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33pF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD1210-025</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.25A/30V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-1.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8V/0.8A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MS</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-223</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\AMS1117</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3012T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.1K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1693T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>169K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP64_10x10</t>
   </si>
   <si>
     <r>
@@ -4777,20 +7111,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>TL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\OCXO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1206B472K202NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FH</t>
+      <t>CH</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH395Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart/Tcpip</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4798,23 +7128,63 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>293D227X9016E2TE3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B331K500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM7060-701-2PL-TL01</t>
+    <t>mylib\CH395Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F407ZET6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex-M4/168M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>QFP144_20X20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>STM32F407ZET6</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4829,242 +7199,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ylib\Inductor Common mode</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DLW21SN371SQ2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MURATA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MA-KWE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\ANTENNA_5PIN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F010JT5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniOhm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP4CE55F484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LTERA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\EP4CE55F484</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG681J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0603 F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1432</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JT5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F051JT5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBLC03C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\GBLC0XX_TVS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEO-M8N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-BLOX</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\NEO-M8</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B104K500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMBJ15CA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\tvs</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMI322513X100K</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL10A475KO8NNNC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAMSUNG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B0505S-1WR3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORNSUN</t>
+      <t>ylib\key_upright</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直插连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm/4P</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -5073,2078 +7217,33 @@
   </si>
   <si>
     <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\B_S-1WR2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-217/R6C-AL1M2VY/3T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>everlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2512 J0221T4E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADuM1201BRZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F767IGT6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\STM32F767IGT6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESDA6V1-5W6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ESDA6V1-5W6</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3N00032G33YC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SJK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B225K160NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLZ2012M100HT000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RV05-4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>enji</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\SRV05-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD9361BBCZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\AD9361BBCZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini-circuits</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Transformer_TC1-1-13M+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG102J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F100KT5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniOhm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW18AN82NG00d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Inductor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14D47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Varistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2684KVDARLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UU9.8-YH160224</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFR0W4J0105A50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\Resistor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEY472K275A08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FNR5040S100MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDE10-20B05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>THR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CY1472ME1IEF49H0A2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDCV304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CDCV304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX9011EUT-T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAXIM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSD5C051U</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BORN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\xtal3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3901T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\LMV331</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1003T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B105K160NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TPS74401</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1151T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1691T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KF2510-6AW</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OOMELE</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\con6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2359DT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S14</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Diode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805X106K250NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805X225K500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWPA4020S4R7MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0603 F4992</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD1210-050-24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ealand</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5mmRGB 共阳 透明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STWD100NWWY3F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>M26FB-03-BT/TTS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\M26FB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">L86-M33 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>quectel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC20CEHCLG-128-SNNS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EC20</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIM-115C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\SIM-115C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS61175PWPR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F8662T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B333K500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1622T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F5101T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KM221M050G125A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>apXon</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\CAP POL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DV221M050G105ETR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>apXon</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMMS1040-150M</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3241T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZV331M025F105ETR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mSMD200-24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0K</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EL</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SMBJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电解电容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100uF/50V/8x10.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU-D8MM-SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片二极管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK104</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A/40V</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DO214-AB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN65HVD3082EDR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN65HVD3082EDR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S485</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-5.5V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/200Kbps</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OP-8</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MAX3485</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1206</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SMBJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10CA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SMB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J6.0CA</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10V/600W</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V/600W</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1206 J012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1T5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1206 J036</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1T5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/40V/0.5A</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\NPN</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EL817S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EL817S（B）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OP-4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>everlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\OpticalCoupler_1Channel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>120R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>360R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3V/Zener</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片稳压管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM1Z3B3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOD-123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST(先科)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\Zener</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片二极管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN4148WS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100V/150mA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOD-323</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>继电器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HF49FD/005-1H11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V/1H/2A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F49FD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HR</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\Relay_1h</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\xtal2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片晶振</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N230000AB0C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30MHz/10ppm/10pF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>XTAL3225</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DS</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\xtal2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG120J500NT</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2pF/50V/5%</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12pF/50V/5%/COG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q33310F70032100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>25MHz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/3.3V</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>X1E000021013900</t>
-  </si>
-  <si>
-    <t>25MHz/12pF/10ppm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0603 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J0105</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片连接器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IM-121</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>imcard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/抽屉式</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim-121</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0603 F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0JT5E</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R/1%</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESDU5V0H4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\SIM_SOCKET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>T491B107M010AT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100uF/20%/10V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>an-b</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>emet</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1503T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F4702T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>47K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>150K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS7A7001DDA</t>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DO/1.45-6.5V/2A</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\TPS7A7001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>soic-8-dda</t>
-  </si>
-  <si>
-    <t>MCP3421A0T-E/CH</t>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OT23-6</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCP3421A1T-E/CH</t>
-  </si>
-  <si>
-    <t>MCP3421A0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCP3421A1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片芯片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC/18bit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MicroChip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\MCP3421</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD0603-005-24V</t>
-  </si>
-  <si>
-    <t>0.05A/24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片保险丝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05A/24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUSE-0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ealand</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\FUSE_PTC</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC0625D1000T5E</t>
-  </si>
-  <si>
-    <t>100R/0.5%/25PPM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1206</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GBLC0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8V/350W</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ADuM1201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RZ</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Mbps</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\ADuM1201</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADUM1250ARZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\ADuM1250</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URB2424YMD-6WR3</t>
-  </si>
-  <si>
-    <r>
-      <t>6W/9-36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V/1500V</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URB_YMD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2451DT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\MP2451</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2MHz/0.6A/3.3-36V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1243T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>124K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F2372T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.7K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG330J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33pF/50V/5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33pF/50V/5%/COG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD1210-025</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.25A/30V</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMS1117-1.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8V/0.8A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MS</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT-223</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\AMS1117</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3012T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.1K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1693T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>169K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP64_10x10</t>
-  </si>
-  <si>
-    <r>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CH</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH395Q</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uart/Tcpip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CH395Q</t>
+      <t>mylib\C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ON4_1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH-4A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54*4P </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port2_54mm-4p</t>
+  </si>
+  <si>
+    <t>BOOMELE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7229,7 +7328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -7282,11 +7381,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7306,6 +7416,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7611,16 +7724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225:XFD225"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227:XFD227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -9271,7 +9384,7 @@
         <v>175</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>176</v>
@@ -10568,8 +10681,8 @@
       <c r="H92" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="I92" s="4" t="s">
-        <v>815</v>
+      <c r="I92" s="5" t="s">
+        <v>1111</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>12</v>
@@ -10583,7 +10696,7 @@
         <v>326</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>328</v>
@@ -10595,13 +10708,13 @@
         <v>327</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>532</v>
@@ -10615,7 +10728,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>330</v>
@@ -10627,13 +10740,13 @@
         <v>331</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -10647,7 +10760,7 @@
         <v>333</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>334</v>
@@ -10662,7 +10775,7 @@
         <v>491</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>443</v>
@@ -10679,7 +10792,7 @@
         <v>10</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>337</v>
@@ -10691,7 +10804,7 @@
         <v>14</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>376</v>
@@ -10775,7 +10888,7 @@
         <v>345</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>346</v>
@@ -10793,7 +10906,7 @@
         <v>376</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>12</v>
@@ -10807,7 +10920,7 @@
         <v>345</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>350</v>
@@ -10819,13 +10932,13 @@
         <v>349</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -10839,7 +10952,7 @@
         <v>538</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>535</v>
@@ -10857,7 +10970,7 @@
         <v>798</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>567</v>
@@ -10871,7 +10984,7 @@
         <v>45</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>120</v>
@@ -10883,10 +10996,10 @@
         <v>48</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>418</v>
@@ -10903,7 +11016,7 @@
         <v>557</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>558</v>
@@ -10915,13 +11028,13 @@
         <v>691</v>
       </c>
       <c r="G103" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>835</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>836</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>12</v>
@@ -10935,7 +11048,7 @@
         <v>451</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>589</v>
@@ -10947,10 +11060,10 @@
         <v>590</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>490</v>
@@ -10967,7 +11080,7 @@
         <v>45</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>588</v>
@@ -10985,7 +11098,7 @@
         <v>376</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>12</v>
@@ -10999,7 +11112,7 @@
         <v>45</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>357</v>
@@ -11017,7 +11130,7 @@
         <v>376</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>12</v>
@@ -11063,7 +11176,7 @@
         <v>369</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>363</v>
@@ -11078,10 +11191,10 @@
         <v>390</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>12</v>
@@ -11095,7 +11208,7 @@
         <v>370</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>364</v>
@@ -11107,13 +11220,13 @@
         <v>365</v>
       </c>
       <c r="G109" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>846</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>566</v>
@@ -11127,7 +11240,7 @@
         <v>695</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>450</v>
@@ -11139,13 +11252,13 @@
         <v>14</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J110" s="3"/>
     </row>
@@ -11157,7 +11270,7 @@
         <v>369</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>455</v>
@@ -11172,10 +11285,10 @@
         <v>389</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J111" s="3"/>
     </row>
@@ -11187,7 +11300,7 @@
         <v>458</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>459</v>
@@ -11199,10 +11312,10 @@
         <v>155</v>
       </c>
       <c r="G112" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>556</v>
@@ -11217,7 +11330,7 @@
         <v>451</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>460</v>
@@ -11229,13 +11342,13 @@
         <v>14</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J113" s="3"/>
     </row>
@@ -11247,7 +11360,7 @@
         <v>466</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>463</v>
@@ -11259,13 +11372,13 @@
         <v>465</v>
       </c>
       <c r="G114" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="I114" s="4" t="s">
         <v>857</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>858</v>
       </c>
       <c r="J114" s="3"/>
     </row>
@@ -11277,7 +11390,7 @@
         <v>468</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>469</v>
@@ -11289,10 +11402,10 @@
         <v>160</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>488</v>
@@ -11307,7 +11420,7 @@
         <v>45</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>471</v>
@@ -11322,7 +11435,7 @@
         <v>582</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>418</v>
@@ -11337,7 +11450,7 @@
         <v>477</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>474</v>
@@ -11349,7 +11462,7 @@
         <v>479</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>376</v>
@@ -11367,7 +11480,7 @@
         <v>514</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>515</v>
@@ -11379,13 +11492,13 @@
         <v>232</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J118" s="3"/>
     </row>
@@ -11429,7 +11542,7 @@
         <v>369</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>520</v>
@@ -11444,10 +11557,10 @@
         <v>400</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>523</v>
@@ -11461,7 +11574,7 @@
         <v>524</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>688</v>
@@ -11473,10 +11586,10 @@
         <v>529</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>528</v>
@@ -11493,7 +11606,7 @@
         <v>549</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>550</v>
@@ -11508,10 +11621,10 @@
         <v>552</v>
       </c>
       <c r="H122" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="I122" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>12</v>
@@ -11525,7 +11638,7 @@
         <v>553</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>554</v>
@@ -11537,7 +11650,7 @@
         <v>555</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>376</v>
@@ -11557,7 +11670,7 @@
         <v>369</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>560</v>
@@ -11569,13 +11682,13 @@
         <v>178</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>562</v>
@@ -11589,7 +11702,7 @@
         <v>575</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>576</v>
@@ -11601,13 +11714,13 @@
         <v>586</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J125" s="3"/>
     </row>
@@ -11631,13 +11744,13 @@
         <v>689</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J126" s="3"/>
     </row>
@@ -11649,7 +11762,7 @@
         <v>587</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>568</v>
@@ -11661,10 +11774,10 @@
         <v>563</v>
       </c>
       <c r="G127" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H127" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>490</v>
@@ -11679,7 +11792,7 @@
         <v>580</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>581</v>
@@ -11691,7 +11804,7 @@
         <v>564</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>376</v>
@@ -11709,7 +11822,7 @@
         <v>553</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>583</v>
@@ -11753,13 +11866,13 @@
         <v>565</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J130" s="3" t="s">
         <v>607</v>
@@ -11773,7 +11886,7 @@
         <v>315</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>594</v>
@@ -11791,7 +11904,7 @@
         <v>377</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>12</v>
@@ -11823,7 +11936,7 @@
         <v>798</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>12</v>
@@ -11837,7 +11950,7 @@
         <v>598</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>599</v>
@@ -11849,13 +11962,13 @@
         <v>600</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>798</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>625</v>
@@ -11869,7 +11982,7 @@
         <v>601</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>602</v>
@@ -11901,7 +12014,7 @@
         <v>608</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>609</v>
@@ -11913,13 +12026,13 @@
         <v>613</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>798</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -11931,7 +12044,7 @@
         <v>610</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>614</v>
@@ -11963,7 +12076,7 @@
         <v>458</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>617</v>
@@ -11995,7 +12108,7 @@
         <v>466</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>620</v>
@@ -12007,10 +12120,10 @@
         <v>622</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>623</v>
@@ -12027,7 +12140,7 @@
         <v>629</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>630</v>
@@ -12045,7 +12158,7 @@
         <v>467</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -12069,13 +12182,13 @@
         <v>628</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -12087,7 +12200,7 @@
         <v>634</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>635</v>
@@ -12099,13 +12212,13 @@
         <v>637</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>638</v>
@@ -12119,7 +12232,7 @@
         <v>477</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>639</v>
@@ -12131,10 +12244,10 @@
         <v>641</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>642</v>
@@ -12149,7 +12262,7 @@
         <v>369</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>644</v>
@@ -12161,7 +12274,7 @@
         <v>645</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>376</v>
@@ -12181,10 +12294,10 @@
         <v>524</v>
       </c>
       <c r="C144" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>1023</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>1024</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>647</v>
@@ -12193,13 +12306,13 @@
         <v>529</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>648</v>
@@ -12228,7 +12341,7 @@
         <v>582</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>418</v>
@@ -12258,10 +12371,10 @@
         <v>582</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J146" s="3"/>
     </row>
@@ -12273,7 +12386,7 @@
         <v>651</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>656</v>
@@ -12285,13 +12398,13 @@
         <v>564</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J147" s="3"/>
     </row>
@@ -12321,7 +12434,7 @@
         <v>376</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J148" s="3"/>
     </row>
@@ -12333,7 +12446,7 @@
         <v>580</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>662</v>
@@ -12345,13 +12458,13 @@
         <v>564</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J149" s="3"/>
     </row>
@@ -12363,7 +12476,7 @@
         <v>663</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>664</v>
@@ -12375,10 +12488,10 @@
         <v>666</v>
       </c>
       <c r="G150" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H150" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>490</v>
@@ -12437,13 +12550,13 @@
         <v>679</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>675</v>
@@ -12457,7 +12570,7 @@
         <v>580</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>680</v>
@@ -12469,13 +12582,13 @@
         <v>564</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J153" s="3"/>
     </row>
@@ -12487,7 +12600,7 @@
         <v>580</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>682</v>
@@ -12499,7 +12612,7 @@
         <v>564</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>376</v>
@@ -12549,7 +12662,7 @@
         <v>367</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>685</v>
@@ -12561,13 +12674,13 @@
         <v>684</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>12</v>
@@ -12581,7 +12694,7 @@
         <v>538</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>697</v>
@@ -12593,10 +12706,10 @@
         <v>698</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>699</v>
@@ -12613,7 +12726,7 @@
         <v>477</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>702</v>
@@ -12628,7 +12741,7 @@
         <v>705</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>706</v>
@@ -12645,7 +12758,7 @@
         <v>180</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>708</v>
@@ -12660,10 +12773,10 @@
         <v>389</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>12</v>
@@ -12677,7 +12790,7 @@
         <v>10</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>710</v>
@@ -12689,10 +12802,10 @@
         <v>711</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>490</v>
@@ -12709,7 +12822,7 @@
         <v>10</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>713</v>
@@ -12724,10 +12837,10 @@
         <v>453</v>
       </c>
       <c r="H161" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="I161" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>12</v>
@@ -12741,7 +12854,7 @@
         <v>458</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>716</v>
@@ -12759,7 +12872,7 @@
         <v>376</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J162" s="3"/>
     </row>
@@ -12771,7 +12884,7 @@
         <v>45</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>719</v>
@@ -12783,10 +12896,10 @@
         <v>48</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>418</v>
@@ -12818,7 +12931,7 @@
         <v>582</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>418</v>
@@ -12835,7 +12948,7 @@
         <v>381</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>722</v>
@@ -12847,7 +12960,7 @@
         <v>723</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>376</v>
@@ -12867,7 +12980,7 @@
         <v>724</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>728</v>
@@ -12897,7 +13010,7 @@
         <v>730</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>732</v>
@@ -12909,7 +13022,7 @@
         <v>733</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>376</v>
@@ -12929,7 +13042,7 @@
         <v>744</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>738</v>
@@ -12944,10 +13057,10 @@
         <v>740</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J168" s="3"/>
     </row>
@@ -12959,7 +13072,7 @@
         <v>744</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>741</v>
@@ -12971,10 +13084,10 @@
         <v>737</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>743</v>
@@ -12989,7 +13102,7 @@
         <v>744</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>745</v>
@@ -13004,10 +13117,10 @@
         <v>740</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J170" s="3"/>
     </row>
@@ -13016,10 +13129,10 @@
         <v>1000170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>750</v>
@@ -13034,10 +13147,10 @@
         <v>749</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J171" s="3"/>
     </row>
@@ -13049,7 +13162,7 @@
         <v>752</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>753</v>
@@ -13061,7 +13174,7 @@
         <v>755</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>376</v>
@@ -13079,7 +13192,7 @@
         <v>580</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>757</v>
@@ -13097,7 +13210,7 @@
         <v>376</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>12</v>
@@ -13129,7 +13242,7 @@
         <v>376</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>12</v>
@@ -13143,7 +13256,7 @@
         <v>762</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>763</v>
@@ -13158,10 +13271,10 @@
         <v>453</v>
       </c>
       <c r="H175" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="I175" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>12</v>
@@ -13175,7 +13288,7 @@
         <v>580</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>768</v>
@@ -13187,13 +13300,13 @@
         <v>48</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>12</v>
@@ -13222,10 +13335,10 @@
         <v>582</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>12</v>
@@ -13239,7 +13352,7 @@
         <v>580</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>769</v>
@@ -13251,13 +13364,13 @@
         <v>48</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>12</v>
@@ -13271,7 +13384,7 @@
         <v>281</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>770</v>
@@ -13283,13 +13396,13 @@
         <v>772</v>
       </c>
       <c r="G179" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I179" s="4" t="s">
         <v>946</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>947</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>12</v>
@@ -13303,7 +13416,7 @@
         <v>281</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>775</v>
@@ -13315,10 +13428,10 @@
         <v>773</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>443</v>
@@ -13335,7 +13448,7 @@
         <v>458</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>777</v>
@@ -13347,10 +13460,10 @@
         <v>774</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I181" s="4" t="s">
         <v>556</v>
@@ -13365,7 +13478,7 @@
         <v>580</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>778</v>
@@ -13377,13 +13490,13 @@
         <v>48</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>12</v>
@@ -13397,7 +13510,7 @@
         <v>780</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>781</v>
@@ -13409,10 +13522,10 @@
         <v>779</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>443</v>
@@ -13429,7 +13542,7 @@
         <v>381</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>783</v>
@@ -13441,7 +13554,7 @@
         <v>785</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>376</v>
@@ -13461,7 +13574,7 @@
         <v>315</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>786</v>
@@ -13473,13 +13586,13 @@
         <v>375</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>377</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>12</v>
@@ -13493,7 +13606,7 @@
         <v>369</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>788</v>
@@ -13520,19 +13633,19 @@
         <v>1000186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>792</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>791</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>414</v>
@@ -13552,22 +13665,22 @@
         <v>1000187</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="D188" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="F188" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="G188" s="4" t="s">
         <v>964</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>965</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>376</v>
@@ -13584,28 +13697,28 @@
         <v>1000188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="D189" s="3" t="s">
+      <c r="E189" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="F189" s="3" t="s">
         <v>969</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>970</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>395</v>
       </c>
       <c r="H189" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="I189" s="5" t="s">
         <v>971</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>972</v>
       </c>
       <c r="J189" s="3"/>
     </row>
@@ -13617,16 +13730,16 @@
         <v>580</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>582</v>
@@ -13649,13 +13762,13 @@
         <v>369</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>790</v>
@@ -13679,13 +13792,13 @@
         <v>369</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>790</v>
@@ -13706,28 +13819,28 @@
         <v>1000192</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="D193" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E193" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="D193" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E193" s="5" t="s">
+      <c r="F193" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="H193" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="H193" s="5" t="s">
-        <v>1007</v>
-      </c>
       <c r="I193" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J193" s="3"/>
     </row>
@@ -13739,16 +13852,16 @@
         <v>580</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>582</v>
@@ -13771,13 +13884,13 @@
         <v>162</v>
       </c>
       <c r="C195" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="E195" s="5" t="s">
         <v>980</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>981</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>164</v>
@@ -13789,7 +13902,7 @@
         <v>376</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J195" s="3" t="s">
         <v>12</v>
@@ -13800,28 +13913,28 @@
         <v>1000195</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="D196" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="E196" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="D196" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="E196" s="5" t="s">
+      <c r="F196" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>986</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>987</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>12</v>
@@ -13832,28 +13945,28 @@
         <v>1000196</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="D197" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="F197" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="D197" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="F197" s="5" t="s">
+      <c r="G197" s="5" t="s">
         <v>994</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>995</v>
       </c>
       <c r="H197" s="5" t="s">
         <v>376</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J197" s="3"/>
     </row>
@@ -13862,22 +13975,22 @@
         <v>1000197</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="E198" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="E198" s="5" t="s">
+      <c r="F198" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>1000</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>1001</v>
       </c>
       <c r="H198" s="5" t="s">
         <v>376</v>
@@ -13892,28 +14005,28 @@
         <v>1000198</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="D199" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="E199" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F199" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="E199" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="I199" s="4" t="s">
         <v>1018</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>1019</v>
       </c>
       <c r="J199" s="3"/>
     </row>
@@ -13925,13 +14038,13 @@
         <v>451</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>1022</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>551</v>
@@ -13957,25 +14070,25 @@
         <v>524</v>
       </c>
       <c r="C201" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="D201" s="5" t="s">
-        <v>1026</v>
-      </c>
       <c r="E201" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>529</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J201" s="3"/>
     </row>
@@ -13987,13 +14100,13 @@
         <v>580</v>
       </c>
       <c r="C202" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="D202" s="5" t="s">
-        <v>1028</v>
-      </c>
       <c r="E202" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>564</v>
@@ -14017,16 +14130,16 @@
         <v>366</v>
       </c>
       <c r="C203" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E203" s="5" t="s">
         <v>1030</v>
       </c>
-      <c r="D203" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E203" s="5" t="s">
+      <c r="F203" s="5" t="s">
         <v>1031</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>1032</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>749</v>
@@ -14035,7 +14148,7 @@
         <v>376</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J203" s="3"/>
     </row>
@@ -14047,13 +14160,13 @@
         <v>45</v>
       </c>
       <c r="C204" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="D204" s="5" t="s">
-        <v>1034</v>
-      </c>
       <c r="E204" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>48</v>
@@ -14079,19 +14192,19 @@
         <v>780</v>
       </c>
       <c r="C205" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="E205" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F205" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="E205" s="5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F205" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>1039</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>1040</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>482</v>
@@ -14111,13 +14224,13 @@
         <v>45</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>48</v>
@@ -14143,13 +14256,13 @@
         <v>45</v>
       </c>
       <c r="C207" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>1042</v>
       </c>
-      <c r="D207" s="5" t="s">
-        <v>1043</v>
-      </c>
       <c r="E207" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>48</v>
@@ -14175,16 +14288,16 @@
         <v>477</v>
       </c>
       <c r="C208" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E208" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="D208" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>1046</v>
-      </c>
       <c r="F208" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>395</v>
@@ -14193,7 +14306,7 @@
         <v>482</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J208" s="3"/>
     </row>
@@ -14202,28 +14315,28 @@
         <v>1000208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E209" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="F209" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E209" s="5" t="s">
+      <c r="G209" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="F209" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G209" s="4" t="s">
+      <c r="H209" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="H209" s="4" t="s">
+      <c r="I209" s="5" t="s">
         <v>1057</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>1058</v>
       </c>
       <c r="J209" s="3"/>
     </row>
@@ -14232,28 +14345,28 @@
         <v>1000209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E210" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E210" s="5" t="s">
+      <c r="F210" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G210" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="F210" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G210" s="4" t="s">
+      <c r="H210" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="H210" s="4" t="s">
+      <c r="I210" s="5" t="s">
         <v>1057</v>
-      </c>
-      <c r="I210" s="5" t="s">
-        <v>1058</v>
       </c>
       <c r="J210" s="3"/>
     </row>
@@ -14262,28 +14375,28 @@
         <v>1000210</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E211" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E211" s="5" t="s">
+      <c r="F211" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="G211" s="4" t="s">
         <v>1063</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>1064</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>482</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J211" s="3" t="s">
         <v>12</v>
@@ -14297,16 +14410,16 @@
         <v>45</v>
       </c>
       <c r="C212" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D212" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="E212" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F212" s="5" t="s">
         <v>1067</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>1068</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>380</v>
@@ -14329,13 +14442,13 @@
         <v>369</v>
       </c>
       <c r="C213" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="D213" s="5" t="s">
-        <v>1070</v>
-      </c>
       <c r="E213" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>183</v>
@@ -14347,7 +14460,7 @@
         <v>482</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J213" s="3" t="s">
         <v>12</v>
@@ -14361,25 +14474,25 @@
         <v>477</v>
       </c>
       <c r="C214" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E214" s="5" t="s">
         <v>1071</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>1072</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>479</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J214" s="3"/>
     </row>
@@ -14391,25 +14504,25 @@
         <v>477</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>479</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J215" s="3"/>
     </row>
@@ -14421,25 +14534,25 @@
         <v>466</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E216" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="D216" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E216" s="5" t="s">
+      <c r="F216" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="F216" s="5" t="s">
-        <v>1078</v>
-      </c>
       <c r="G216" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>467</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J216" s="3"/>
     </row>
@@ -14451,13 +14564,13 @@
         <v>171</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>178</v>
@@ -14469,7 +14582,7 @@
         <v>376</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>12</v>
@@ -14483,13 +14596,13 @@
         <v>45</v>
       </c>
       <c r="C218" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D218" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="D218" s="5" t="s">
-        <v>1083</v>
-      </c>
       <c r="E218" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>48</v>
@@ -14515,13 +14628,13 @@
         <v>45</v>
       </c>
       <c r="C219" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D219" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="D219" s="5" t="s">
-        <v>1085</v>
-      </c>
       <c r="E219" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>48</v>
@@ -14547,13 +14660,13 @@
         <v>451</v>
       </c>
       <c r="C220" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="E220" s="5" t="s">
         <v>1087</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>1088</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>551</v>
@@ -14565,7 +14678,7 @@
         <v>482</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>12</v>
@@ -14579,19 +14692,19 @@
         <v>381</v>
       </c>
       <c r="C221" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="D221" s="5" t="s">
-        <v>1091</v>
-      </c>
       <c r="E221" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>723</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>376</v>
@@ -14611,25 +14724,25 @@
         <v>171</v>
       </c>
       <c r="C222" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E222" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="D222" s="5" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E222" s="5" t="s">
+      <c r="F222" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G222" s="5" t="s">
         <v>1093</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>1094</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>12</v>
@@ -14643,13 +14756,13 @@
         <v>45</v>
       </c>
       <c r="C223" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D223" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="D223" s="5" t="s">
-        <v>1098</v>
-      </c>
       <c r="E223" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>48</v>
@@ -14675,13 +14788,13 @@
         <v>45</v>
       </c>
       <c r="C224" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D224" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="D224" s="5" t="s">
-        <v>1100</v>
-      </c>
       <c r="E224" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>48</v>
@@ -14707,30 +14820,89 @@
         <v>477</v>
       </c>
       <c r="C225" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E225" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="D225" s="5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E225" s="5" t="s">
+      <c r="F225" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H225" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H225" s="4" t="s">
+      <c r="I225" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="I225" s="4" t="s">
+      <c r="J225" s="3"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A226" s="2">
+        <v>1000225</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C226" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="J225" s="3"/>
+      <c r="D226" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J226" s="3"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>1000226</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>1115</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J221"/>
+  <autoFilter ref="A1:J226"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1122">
   <si>
     <t>Part type</t>
   </si>
@@ -672,9 +672,6 @@
   </si>
   <si>
     <t>15uH/20%/3.4A</t>
-  </si>
-  <si>
-    <t>IND-SM10X10</t>
   </si>
   <si>
     <t>1000062</t>
@@ -6805,446 +6802,469 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>0.05A/24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片保险丝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05A/24V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE-0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ealand</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\FUSE_PTC</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC0625D1000T5E</t>
+  </si>
+  <si>
+    <t>100R/0.5%/25PPM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1206</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GBLC0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8V/350W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADuM1201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RZ</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Mbps</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\ADuM1201</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADUM1250ARZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\ADuM1250</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URB2424YMD-6WR3</t>
+  </si>
+  <si>
+    <r>
+      <t>6W/9-36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V/1500V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URB_YMD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2451DT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\MP2451</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2MHz/0.6A/3.3-36V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1243T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>124K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F2372T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.7K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG330J500NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33pF/50V/5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33pF/50V/5%/COG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CAP NP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD1210-025</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.25A/30V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-1.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8V/0.8A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MS</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-223</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\AMS1117</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F3012T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.1K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F1693T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>169K/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP64_10x10</t>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CH</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH395Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart/Tcpip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\CH395Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F407ZET6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex-M4/168M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>QFP144_20X20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>STM32F407ZET6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\key_upright</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直插连接器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm/4P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ON4_1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH-4A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54*4P </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port2_54mm-4p</t>
+  </si>
+  <si>
+    <t>BOOMELE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind-sm10x10mm</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\URB-YMD-6WR3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>SMD0603-005-24V</t>
-  </si>
-  <si>
-    <t>0.05A/24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片保险丝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05A/24V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUSE-0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ealand</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\FUSE_PTC</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC0625D1000T5E</t>
-  </si>
-  <si>
-    <t>100R/0.5%/25PPM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1206</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GBLC0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8V/350W</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ADuM1201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RZ</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Mbps</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\ADuM1201</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADUM1250ARZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\ADuM1250</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URB2424YMD-6WR3</t>
-  </si>
-  <si>
-    <r>
-      <t>6W/9-36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V/1500V</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URB_YMD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2451DT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\MP2451</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2MHz/0.6A/3.3-36V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1243T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>124K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F2372T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.7K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG330J500NT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33pF/50V/5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33pF/50V/5%/COG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CAP NP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD1210-025</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.25A/30V</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMS1117-1.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8V/0.8A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MS</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT-223</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\AMS1117</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F3012T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.1K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603 F1693T5E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>169K/1%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP64_10x10</t>
-  </si>
-  <si>
-    <r>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CH</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH395Q</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uart/Tcpip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mylib\CH395Q</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F407ZET6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cortex-M4/168M</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>QFP144_20X20</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>STM32F407ZET6</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\key_upright</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>直插连接器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54mm/4P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>THR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mylib\C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ON4_1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>XH-4A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54*4P </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Port2_54mm-4p</t>
-  </si>
-  <si>
-    <t>BOOMELE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hole-plate-3_5-9</t>
   </si>
 </sst>
 </file>
@@ -7724,10 +7744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227:XFD227"/>
+    <sheetView tabSelected="1" topLeftCell="E219" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7746,7 +7766,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7796,10 +7816,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>15</v>
@@ -7828,10 +7848,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>15</v>
@@ -7860,10 +7880,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>15</v>
@@ -7892,10 +7912,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -7924,10 +7944,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>15</v>
@@ -7956,10 +7976,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>15</v>
@@ -7988,10 +8008,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>15</v>
@@ -8020,10 +8040,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>15</v>
@@ -8052,10 +8072,10 @@
         <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -8084,10 +8104,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>15</v>
@@ -8116,13 +8136,13 @@
         <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>12</v>
@@ -8148,13 +8168,13 @@
         <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>12</v>
@@ -8180,13 +8200,13 @@
         <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>12</v>
@@ -8212,13 +8232,13 @@
         <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
@@ -8244,13 +8264,13 @@
         <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>12</v>
@@ -8276,13 +8296,13 @@
         <v>48</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
@@ -8308,13 +8328,13 @@
         <v>48</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
@@ -8340,13 +8360,13 @@
         <v>48</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>12</v>
@@ -8372,13 +8392,13 @@
         <v>48</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
@@ -8404,13 +8424,13 @@
         <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>12</v>
@@ -8436,13 +8456,13 @@
         <v>48</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>12</v>
@@ -8468,13 +8488,13 @@
         <v>48</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>12</v>
@@ -8500,13 +8520,13 @@
         <v>48</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>12</v>
@@ -8532,13 +8552,13 @@
         <v>48</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>12</v>
@@ -8564,13 +8584,13 @@
         <v>48</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>12</v>
@@ -8596,13 +8616,13 @@
         <v>48</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>12</v>
@@ -8628,13 +8648,13 @@
         <v>48</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>12</v>
@@ -8660,13 +8680,13 @@
         <v>48</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>12</v>
@@ -8692,13 +8712,13 @@
         <v>48</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>12</v>
@@ -8724,13 +8744,13 @@
         <v>48</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>12</v>
@@ -8756,13 +8776,13 @@
         <v>48</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
@@ -8788,13 +8808,13 @@
         <v>48</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>12</v>
@@ -8820,13 +8840,13 @@
         <v>48</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>12</v>
@@ -8852,13 +8872,13 @@
         <v>117</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>12</v>
@@ -8875,7 +8895,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>120</v>
@@ -8884,13 +8904,13 @@
         <v>117</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>12</v>
@@ -8916,13 +8936,13 @@
         <v>125</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>12</v>
@@ -8948,13 +8968,13 @@
         <v>125</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>12</v>
@@ -8980,13 +9000,13 @@
         <v>125</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>12</v>
@@ -9012,13 +9032,13 @@
         <v>135</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>12</v>
@@ -9044,13 +9064,13 @@
         <v>135</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
@@ -9076,13 +9096,13 @@
         <v>135</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>12</v>
@@ -9108,13 +9128,13 @@
         <v>135</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
@@ -9140,13 +9160,13 @@
         <v>135</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>12</v>
@@ -9172,13 +9192,13 @@
         <v>135</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
@@ -9204,13 +9224,13 @@
         <v>155</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
@@ -9236,13 +9256,13 @@
         <v>160</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>12</v>
@@ -9262,22 +9282,22 @@
         <v>163</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -9294,22 +9314,22 @@
         <v>166</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -9332,13 +9352,13 @@
         <v>164</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>12</v>
@@ -9352,10 +9372,10 @@
         <v>171</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>172</v>
@@ -9364,13 +9384,13 @@
         <v>173</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>12</v>
@@ -9384,7 +9404,7 @@
         <v>175</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>176</v>
@@ -9396,13 +9416,13 @@
         <v>178</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>12</v>
@@ -9416,7 +9436,7 @@
         <v>180</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>181</v>
@@ -9428,16 +9448,16 @@
         <v>183</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>503</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -9460,13 +9480,13 @@
         <v>187</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
@@ -9492,13 +9512,13 @@
         <v>187</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>12</v>
@@ -9524,13 +9544,13 @@
         <v>187</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>12</v>
@@ -9556,13 +9576,13 @@
         <v>196</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
@@ -9588,13 +9608,13 @@
         <v>196</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>12</v>
@@ -9620,13 +9640,13 @@
         <v>204</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
@@ -9652,13 +9672,13 @@
         <v>209</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
@@ -9669,7 +9689,7 @@
         <v>210</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>211</v>
@@ -9684,13 +9704,13 @@
         <v>213</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>12</v>
@@ -9704,7 +9724,7 @@
         <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>215</v>
@@ -9712,17 +9732,17 @@
       <c r="E62" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>216</v>
+      <c r="F62" s="5" t="s">
+        <v>1118</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>12</v>
@@ -9730,31 +9750,31 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="G63" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>12</v>
@@ -9762,31 +9782,31 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="E64" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>12</v>
@@ -9794,191 +9814,191 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="F65" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="G66" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="G67" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="G68" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="G70" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>12</v>
@@ -9986,31 +10006,31 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="H71" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>12</v>
@@ -10018,31 +10038,31 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="G72" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
@@ -10050,63 +10070,63 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="G73" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>510</v>
-      </c>
       <c r="J73" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="G74" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>12</v>
@@ -10114,95 +10134,95 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="G75" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="G76" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>12</v>
@@ -10210,31 +10230,31 @@
     </row>
     <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>12</v>
@@ -10242,63 +10262,63 @@
     </row>
     <row r="79" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="F79" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>486</v>
-      </c>
       <c r="J79" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="E80" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="H80" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>12</v>
@@ -10306,95 +10326,95 @@
     </row>
     <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="E81" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>795</v>
-      </c>
       <c r="J81" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>798</v>
-      </c>
       <c r="I82" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="F83" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>12</v>
@@ -10402,31 +10422,31 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="E84" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>802</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>12</v>
@@ -10434,31 +10454,31 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="G85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>803</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>804</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>12</v>
@@ -10466,31 +10486,31 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="E86" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>12</v>
@@ -10498,31 +10518,31 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="G87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>12</v>
@@ -10530,31 +10550,31 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>12</v>
@@ -10562,31 +10582,31 @@
     </row>
     <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="E89" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>809</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>12</v>
@@ -10594,31 +10614,31 @@
     </row>
     <row r="90" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>810</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>811</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>12</v>
@@ -10626,31 +10646,31 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="F91" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>813</v>
-      </c>
       <c r="H91" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>12</v>
@@ -10658,31 +10678,31 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="G92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>12</v>
@@ -10690,63 +10710,63 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>817</v>
-      </c>
       <c r="J93" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G94" s="4" t="s">
+      <c r="H94" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -10754,31 +10774,31 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="E95" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>823</v>
-      </c>
       <c r="I95" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>12</v>
@@ -10786,31 +10806,31 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>12</v>
@@ -10818,31 +10838,31 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="G97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>12</v>
@@ -10850,31 +10870,31 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="G98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>12</v>
@@ -10882,31 +10902,31 @@
     </row>
     <row r="99" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="E99" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I99" s="4" t="s">
         <v>825</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>826</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>12</v>
@@ -10914,31 +10934,31 @@
     </row>
     <row r="100" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="C100" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>828</v>
-      </c>
       <c r="H100" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -10946,45 +10966,45 @@
     </row>
     <row r="101" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="H101" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>830</v>
-      </c>
       <c r="J101" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>120</v>
@@ -10996,13 +11016,13 @@
         <v>48</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>12</v>
@@ -11010,31 +11030,31 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="E103" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="G103" s="4" t="s">
+      <c r="H103" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>834</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>835</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>12</v>
@@ -11042,31 +11062,31 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>837</v>
-      </c>
       <c r="H104" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>12</v>
@@ -11074,31 +11094,31 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>12</v>
@@ -11106,31 +11126,31 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>12</v>
@@ -11138,31 +11158,31 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="E107" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="G107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>12</v>
@@ -11170,31 +11190,31 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>12</v>
@@ -11202,333 +11222,333 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G109" s="4" t="s">
+      <c r="H109" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>845</v>
-      </c>
       <c r="J109" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="E110" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I110" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>848</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>459</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>155</v>
       </c>
       <c r="G112" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>820</v>
-      </c>
       <c r="I112" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="E114" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G114" s="4" t="s">
+      <c r="H114" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="I114" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="E115" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>160</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="G116" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="E118" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G118" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G118" s="4" t="s">
+      <c r="H118" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>865</v>
       </c>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="E119" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="G119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>12</v>
@@ -11536,95 +11556,95 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C121" s="4" t="s">
+      <c r="F121" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G121" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="H121" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="E122" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="G122" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>552</v>
-      </c>
       <c r="H122" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I122" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>12</v>
@@ -11632,250 +11652,250 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="E123" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="H123" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I123" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>556</v>
-      </c>
       <c r="J123" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G124" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I124" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="H124" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>875</v>
-      </c>
       <c r="J124" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="E125" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I125" s="4" t="s">
         <v>876</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>877</v>
       </c>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>593</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G126" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I126" s="4" t="s">
         <v>878</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>879</v>
       </c>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G127" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="H127" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="H127" s="4" t="s">
-        <v>820</v>
-      </c>
       <c r="I127" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="E128" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G128" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>882</v>
-      </c>
       <c r="H128" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="E130" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -11883,28 +11903,28 @@
         <v>1000130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I131" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>886</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>12</v>
@@ -11915,28 +11935,28 @@
         <v>1000131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>12</v>
@@ -11947,31 +11967,31 @@
         <v>1000132</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="E133" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>888</v>
-      </c>
       <c r="H133" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -11979,31 +11999,31 @@
         <v>1000133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="E134" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="G134" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="I134" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="I134" s="4" t="s">
+      <c r="J134" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
@@ -12011,28 +12031,28 @@
         <v>1000134</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="E135" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="I135" s="4" t="s">
         <v>890</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>891</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -12041,31 +12061,31 @@
         <v>1000135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="G136" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>616</v>
-      </c>
       <c r="H136" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -12073,31 +12093,31 @@
         <v>1000136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="F137" s="3" t="s">
+      <c r="G137" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>619</v>
-      </c>
       <c r="H137" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
@@ -12105,31 +12125,31 @@
         <v>1000137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="H138" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="F138" s="3" t="s">
+      <c r="I138" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>623</v>
-      </c>
       <c r="J138" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
@@ -12137,28 +12157,28 @@
         <v>1000138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="E139" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="G139" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>633</v>
-      </c>
       <c r="H139" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -12167,28 +12187,28 @@
         <v>1000139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E140" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="G140" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -12197,31 +12217,31 @@
         <v>1000140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="E141" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="G141" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F141" s="3" t="s">
+      <c r="H141" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="J141" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -12229,28 +12249,28 @@
         <v>1000141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="F142" s="3" t="s">
+      <c r="H142" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I142" s="4" t="s">
         <v>641</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>642</v>
       </c>
       <c r="J142" s="3"/>
     </row>
@@ -12259,31 +12279,31 @@
         <v>1000142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C143" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="G143" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="F143" s="3" t="s">
+      <c r="H143" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J143" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -12291,31 +12311,31 @@
         <v>1000143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C144" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>1022</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>1023</v>
-      </c>
       <c r="E144" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="J144" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
@@ -12323,28 +12343,28 @@
         <v>1000144</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>653</v>
-      </c>
       <c r="G145" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J145" s="3"/>
     </row>
@@ -12353,28 +12373,28 @@
         <v>1000145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>655</v>
-      </c>
       <c r="E146" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J146" s="3"/>
     </row>
@@ -12383,28 +12403,28 @@
         <v>1000146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J147" s="3"/>
     </row>
@@ -12413,28 +12433,28 @@
         <v>1000147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="D148" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="G148" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>661</v>
-      </c>
       <c r="H148" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J148" s="3"/>
     </row>
@@ -12443,28 +12463,28 @@
         <v>1000148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J149" s="3"/>
     </row>
@@ -12473,28 +12493,28 @@
         <v>1000149</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="D150" s="3" t="s">
+      <c r="E150" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>666</v>
-      </c>
       <c r="G150" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="H150" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>820</v>
-      </c>
       <c r="I150" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J150" s="3"/>
     </row>
@@ -12503,28 +12523,28 @@
         <v>1000150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="E151" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="G151" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>12</v>
@@ -12535,31 +12555,31 @@
         <v>1000151</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="D152" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E152" s="3" t="s">
+      <c r="F152" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>679</v>
-      </c>
       <c r="G152" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I152" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="H152" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>912</v>
-      </c>
       <c r="J152" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -12567,28 +12587,28 @@
         <v>1000152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J153" s="3"/>
     </row>
@@ -12597,28 +12617,28 @@
         <v>1000153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J154" s="3"/>
     </row>
@@ -12627,28 +12647,28 @@
         <v>1000154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>12</v>
@@ -12659,28 +12679,28 @@
         <v>1000155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C156" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="G156" s="4" t="s">
+      <c r="H156" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I156" s="4" t="s">
         <v>916</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>917</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>12</v>
@@ -12691,31 +12711,31 @@
         <v>1000156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="G157" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="F157" s="3" t="s">
+      <c r="H157" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="I157" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G157" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>699</v>
-      </c>
       <c r="J157" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -12723,31 +12743,31 @@
         <v>1000157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="G158" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="H158" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="I158" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="H158" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="I158" s="4" t="s">
+      <c r="J158" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -12758,25 +12778,25 @@
         <v>180</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D159" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>709</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>12</v>
@@ -12790,25 +12810,25 @@
         <v>10</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F160" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>711</v>
-      </c>
       <c r="G160" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>12</v>
@@ -12822,25 +12842,25 @@
         <v>10</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>715</v>
-      </c>
       <c r="G161" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H161" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I161" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>12</v>
@@ -12851,28 +12871,28 @@
         <v>1000161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D162" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="F162" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="F162" s="3" t="s">
+      <c r="G162" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="G162" s="4" t="s">
-        <v>718</v>
-      </c>
       <c r="H162" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J162" s="3"/>
     </row>
@@ -12884,25 +12904,25 @@
         <v>45</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>12</v>
@@ -12916,25 +12936,25 @@
         <v>45</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>12</v>
@@ -12945,28 +12965,28 @@
         <v>1000164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C165" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G165" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>928</v>
-      </c>
       <c r="H165" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>12</v>
@@ -12977,28 +12997,28 @@
         <v>1000165</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G166" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="F166" s="3" t="s">
+      <c r="H166" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>726</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>727</v>
       </c>
       <c r="J166" s="3"/>
     </row>
@@ -13007,31 +13027,31 @@
         <v>1000166</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="F167" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="F167" s="3" t="s">
+      <c r="G167" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I167" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="G167" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I167" s="4" t="s">
+      <c r="J167" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="J167" s="3" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
@@ -13039,28 +13059,28 @@
         <v>1000167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C168" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>931</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>932</v>
       </c>
       <c r="J168" s="3"/>
     </row>
@@ -13069,28 +13089,28 @@
         <v>1000168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C169" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G169" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="E169" s="3" t="s">
+      <c r="H169" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>743</v>
       </c>
       <c r="J169" s="3"/>
     </row>
@@ -13099,28 +13119,28 @@
         <v>1000169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="E170" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I170" s="4" t="s">
         <v>935</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>936</v>
       </c>
       <c r="J170" s="3"/>
     </row>
@@ -13129,28 +13149,28 @@
         <v>1000170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C171" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I171" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>938</v>
       </c>
       <c r="J171" s="3"/>
     </row>
@@ -13159,28 +13179,28 @@
         <v>1000171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="D172" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="F172" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="G172" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="J172" s="3"/>
     </row>
@@ -13189,28 +13209,28 @@
         <v>1000172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>12</v>
@@ -13221,28 +13241,28 @@
         <v>1000173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C174" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>761</v>
-      </c>
       <c r="F174" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>12</v>
@@ -13253,28 +13273,28 @@
         <v>1000174</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="D175" s="3" t="s">
+      <c r="E175" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>764</v>
-      </c>
       <c r="F175" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H175" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I175" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>12</v>
@@ -13285,28 +13305,28 @@
         <v>1000175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>12</v>
@@ -13317,28 +13337,28 @@
         <v>1000176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C177" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>767</v>
-      </c>
       <c r="E177" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>12</v>
@@ -13349,28 +13369,28 @@
         <v>1000177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>12</v>
@@ -13381,28 +13401,28 @@
         <v>1000178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C179" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="G179" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="G179" s="4" t="s">
+      <c r="H179" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I179" s="4" t="s">
         <v>945</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>946</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>12</v>
@@ -13413,28 +13433,28 @@
         <v>1000179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C180" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="G180" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>948</v>
-      </c>
       <c r="H180" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J180" s="3" t="s">
         <v>12</v>
@@ -13445,28 +13465,28 @@
         <v>1000180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C181" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G181" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>950</v>
-      </c>
       <c r="H181" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J181" s="3"/>
     </row>
@@ -13475,28 +13495,28 @@
         <v>1000181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>12</v>
@@ -13507,28 +13527,28 @@
         <v>1000182</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D183" s="3" t="s">
+      <c r="E183" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>782</v>
-      </c>
       <c r="F183" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J183" s="3" t="s">
         <v>12</v>
@@ -13539,28 +13559,28 @@
         <v>1000183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D184" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="F184" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>785</v>
-      </c>
       <c r="G184" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J184" s="3" t="s">
         <v>12</v>
@@ -13571,28 +13591,28 @@
         <v>1000184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G185" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>955</v>
-      </c>
       <c r="H185" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>12</v>
@@ -13603,28 +13623,28 @@
         <v>1000185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D186" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E186" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="F186" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="F186" s="3" t="s">
-        <v>790</v>
-      </c>
       <c r="G186" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J186" s="3"/>
     </row>
@@ -13633,28 +13653,28 @@
         <v>1000186</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="D187" s="3" t="s">
+      <c r="E187" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>959</v>
-      </c>
       <c r="G187" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J187" s="3" t="s">
         <v>12</v>
@@ -13665,28 +13685,28 @@
         <v>1000187</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="D188" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="F188" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="G188" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="G188" s="4" t="s">
-        <v>964</v>
-      </c>
       <c r="H188" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>12</v>
@@ -13697,28 +13717,28 @@
         <v>1000188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="D189" s="3" t="s">
+      <c r="E189" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="F189" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="G189" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H189" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="G189" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H189" s="4" t="s">
+      <c r="I189" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>971</v>
       </c>
       <c r="J189" s="3"/>
     </row>
@@ -13727,28 +13747,28 @@
         <v>1000189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J190" s="3" t="s">
         <v>12</v>
@@ -13759,28 +13779,28 @@
         <v>1000190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J191" s="3"/>
     </row>
@@ -13789,28 +13809,28 @@
         <v>1000191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J192" s="3"/>
     </row>
@@ -13819,28 +13839,28 @@
         <v>1000192</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="D193" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E193" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="D193" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E193" s="5" t="s">
+      <c r="F193" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="H193" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="H193" s="5" t="s">
-        <v>1006</v>
-      </c>
       <c r="I193" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J193" s="3"/>
     </row>
@@ -13849,28 +13869,28 @@
         <v>1000193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J194" s="3" t="s">
         <v>12</v>
@@ -13884,25 +13904,25 @@
         <v>162</v>
       </c>
       <c r="C195" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="E195" s="5" t="s">
         <v>979</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>980</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J195" s="3" t="s">
         <v>12</v>
@@ -13913,28 +13933,28 @@
         <v>1000195</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="D196" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="E196" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="D196" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="E196" s="5" t="s">
+      <c r="F196" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="H196" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I196" s="5" t="s">
         <v>986</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I196" s="5" t="s">
-        <v>987</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>12</v>
@@ -13945,28 +13965,28 @@
         <v>1000196</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="D197" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="F197" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="D197" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="F197" s="5" t="s">
+      <c r="G197" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="H197" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="I197" s="5" t="s">
         <v>994</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I197" s="5" t="s">
-        <v>995</v>
       </c>
       <c r="J197" s="3"/>
     </row>
@@ -13975,28 +13995,28 @@
         <v>1000197</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="E198" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="E198" s="5" t="s">
+      <c r="F198" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="G198" s="5" t="s">
-        <v>1000</v>
-      </c>
       <c r="H198" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J198" s="3"/>
     </row>
@@ -14005,28 +14025,28 @@
         <v>1000198</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="D199" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="E199" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F199" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="E199" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="I199" s="4" t="s">
         <v>1017</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>1018</v>
       </c>
       <c r="J199" s="3"/>
     </row>
@@ -14035,28 +14055,28 @@
         <v>1000199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="E200" s="5" t="s">
-        <v>1021</v>
-      </c>
       <c r="F200" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J200" s="3" t="s">
         <v>12</v>
@@ -14067,28 +14087,28 @@
         <v>1000200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C201" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>1024</v>
       </c>
-      <c r="D201" s="5" t="s">
-        <v>1025</v>
-      </c>
       <c r="E201" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J201" s="3"/>
     </row>
@@ -14097,28 +14117,28 @@
         <v>1000201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C202" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="D202" s="5" t="s">
-        <v>1027</v>
-      </c>
       <c r="E202" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J202" s="3"/>
     </row>
@@ -14127,28 +14147,28 @@
         <v>1000202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C203" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E203" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="D203" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E203" s="5" t="s">
+      <c r="F203" s="5" t="s">
         <v>1030</v>
       </c>
-      <c r="F203" s="5" t="s">
-        <v>1031</v>
-      </c>
       <c r="G203" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J203" s="3"/>
     </row>
@@ -14160,25 +14180,25 @@
         <v>45</v>
       </c>
       <c r="C204" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="D204" s="5" t="s">
-        <v>1033</v>
-      </c>
       <c r="E204" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J204" s="3" t="s">
         <v>12</v>
@@ -14189,28 +14209,28 @@
         <v>1000204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C205" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="E205" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F205" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="E205" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F205" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="G205" s="5" t="s">
-        <v>1039</v>
-      </c>
       <c r="H205" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J205" s="3" t="s">
         <v>12</v>
@@ -14224,25 +14244,25 @@
         <v>45</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J206" s="3" t="s">
         <v>12</v>
@@ -14256,25 +14276,25 @@
         <v>45</v>
       </c>
       <c r="C207" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="D207" s="5" t="s">
-        <v>1042</v>
-      </c>
       <c r="E207" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J207" s="3" t="s">
         <v>12</v>
@@ -14285,28 +14305,28 @@
         <v>1000207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C208" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E208" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="D208" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E208" s="5" t="s">
+      <c r="F208" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="I208" s="5" t="s">
         <v>1045</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G208" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="I208" s="5" t="s">
-        <v>1046</v>
       </c>
       <c r="J208" s="3"/>
     </row>
@@ -14315,28 +14335,28 @@
         <v>1000208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E209" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="F209" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E209" s="5" t="s">
+      <c r="G209" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="F209" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G209" s="4" t="s">
+      <c r="H209" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="H209" s="4" t="s">
+      <c r="I209" s="5" t="s">
         <v>1056</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>1057</v>
       </c>
       <c r="J209" s="3"/>
     </row>
@@ -14345,28 +14365,28 @@
         <v>1000209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E210" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E210" s="5" t="s">
+      <c r="F210" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G210" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="F210" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G210" s="4" t="s">
+      <c r="H210" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="H210" s="4" t="s">
+      <c r="I210" s="5" t="s">
         <v>1056</v>
-      </c>
-      <c r="I210" s="5" t="s">
-        <v>1057</v>
       </c>
       <c r="J210" s="3"/>
     </row>
@@ -14375,28 +14395,28 @@
         <v>1000210</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E211" s="5" t="s">
+      <c r="G211" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="H211" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="I211" s="5" t="s">
         <v>1062</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="I211" s="5" t="s">
-        <v>1064</v>
       </c>
       <c r="J211" s="3" t="s">
         <v>12</v>
@@ -14410,25 +14430,25 @@
         <v>45</v>
       </c>
       <c r="C212" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F212" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="D212" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>1067</v>
-      </c>
       <c r="G212" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J212" s="3" t="s">
         <v>12</v>
@@ -14439,28 +14459,28 @@
         <v>1000212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J213" s="3" t="s">
         <v>12</v>
@@ -14471,28 +14491,28 @@
         <v>1000213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C214" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I214" s="5" t="s">
         <v>1070</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I214" s="5" t="s">
-        <v>1072</v>
       </c>
       <c r="J214" s="3"/>
     </row>
@@ -14501,28 +14521,28 @@
         <v>1000214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="J215" s="3"/>
     </row>
@@ -14531,28 +14551,28 @@
         <v>1000215</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="H216" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="I216" s="4" t="s">
-        <v>857</v>
+      <c r="I216" s="5" t="s">
+        <v>1119</v>
       </c>
       <c r="J216" s="3"/>
     </row>
@@ -14564,25 +14584,25 @@
         <v>171</v>
       </c>
       <c r="C217" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E217" s="5" t="s">
         <v>1078</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>1080</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>12</v>
@@ -14596,25 +14616,25 @@
         <v>45</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J218" s="3" t="s">
         <v>12</v>
@@ -14628,25 +14648,25 @@
         <v>45</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>12</v>
@@ -14657,28 +14677,28 @@
         <v>1000219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C220" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E220" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="F220" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="I220" s="4" t="s">
         <v>1086</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>1088</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>12</v>
@@ -14689,28 +14709,28 @@
         <v>1000220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>12</v>
@@ -14724,25 +14744,25 @@
         <v>171</v>
       </c>
       <c r="C222" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G222" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="D222" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G222" s="5" t="s">
+      <c r="H222" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I222" s="5" t="s">
         <v>1093</v>
-      </c>
-      <c r="H222" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I222" s="5" t="s">
-        <v>1095</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>12</v>
@@ -14756,25 +14776,25 @@
         <v>45</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>12</v>
@@ -14788,25 +14808,25 @@
         <v>45</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>12</v>
@@ -14817,28 +14837,28 @@
         <v>1000224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C225" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H225" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="D225" s="5" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E225" s="5" t="s">
+      <c r="I225" s="4" t="s">
         <v>1103</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>1105</v>
       </c>
       <c r="J225" s="3"/>
     </row>
@@ -14847,28 +14867,28 @@
         <v>1000225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C226" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F226" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="D226" s="5" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E226" s="5" t="s">
+      <c r="G226" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="H226" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I226" s="5" t="s">
         <v>1108</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I226" s="5" t="s">
-        <v>1110</v>
       </c>
       <c r="J226" s="3"/>
     </row>
@@ -14877,28 +14897,60 @@
         <v>1000226</v>
       </c>
       <c r="B227" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H227" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D227" s="8" t="s">
+      <c r="I227" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="E227" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H227" s="8" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I227" s="5" t="s">
-        <v>1115</v>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A228" s="2">
+        <v>1000227</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -14921,10 +14973,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>700</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1125">
   <si>
     <t>Part type</t>
   </si>
@@ -7265,6 +7265,64 @@
   </si>
   <si>
     <t>hole-plate-3_5-9</t>
+  </si>
+  <si>
+    <r>
+      <t>hole-plate-3_5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>206</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> F0000T5E</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1206</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7744,9 +7802,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E219" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
@@ -14950,6 +15008,70 @@
         <v>491</v>
       </c>
       <c r="J228" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A229" s="2">
+        <v>1000227</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A230" s="2">
+        <v>1000228</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J230" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\candence-lib\MyDataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\candence-lib\MyDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1131">
   <si>
     <t>Part type</t>
   </si>
@@ -840,9 +840,6 @@
   </si>
   <si>
     <t>1000077</t>
-  </si>
-  <si>
-    <t>CY7C1041GN30-10ZSXI</t>
   </si>
   <si>
     <t>512Kb/10ns</t>
@@ -2206,43 +2203,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CY7C1041GN30-10ZSXI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YPRESS</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>SMT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylib\CY7C1041DV33-10ZSX</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -7321,6 +7282,126 @@
         <charset val="134"/>
       </rPr>
       <t>1206</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CY7C1041DV33-10ZSX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>YPRESS</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\CY7C1041DV33-10ZSX</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS62WV51216BLL-55TLI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>512Kb/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/2.5-3.6V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SSI</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS62WV51216BLL-55TLI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSOP-44</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ylib\IS62WV51216BLL</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7802,10 +7883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F230" sqref="F230"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I231" sqref="I231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7824,7 +7905,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7874,10 +7955,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>15</v>
@@ -7906,10 +7987,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>15</v>
@@ -7938,10 +8019,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>15</v>
@@ -7970,10 +8051,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -8002,10 +8083,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>15</v>
@@ -8034,10 +8115,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>15</v>
@@ -8066,10 +8147,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>15</v>
@@ -8098,10 +8179,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>15</v>
@@ -8130,10 +8211,10 @@
         <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -8162,10 +8243,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>15</v>
@@ -8194,13 +8275,13 @@
         <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>12</v>
@@ -8226,13 +8307,13 @@
         <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>12</v>
@@ -8258,13 +8339,13 @@
         <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>12</v>
@@ -8290,13 +8371,13 @@
         <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
@@ -8322,13 +8403,13 @@
         <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>12</v>
@@ -8354,13 +8435,13 @@
         <v>48</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
@@ -8386,13 +8467,13 @@
         <v>48</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
@@ -8418,13 +8499,13 @@
         <v>48</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>12</v>
@@ -8450,13 +8531,13 @@
         <v>48</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
@@ -8482,13 +8563,13 @@
         <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>12</v>
@@ -8514,13 +8595,13 @@
         <v>48</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>12</v>
@@ -8546,13 +8627,13 @@
         <v>48</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>12</v>
@@ -8578,13 +8659,13 @@
         <v>48</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>12</v>
@@ -8610,13 +8691,13 @@
         <v>48</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>12</v>
@@ -8642,13 +8723,13 @@
         <v>48</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>12</v>
@@ -8674,13 +8755,13 @@
         <v>48</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>12</v>
@@ -8706,13 +8787,13 @@
         <v>48</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>12</v>
@@ -8738,13 +8819,13 @@
         <v>48</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>12</v>
@@ -8770,13 +8851,13 @@
         <v>48</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>12</v>
@@ -8802,13 +8883,13 @@
         <v>48</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>12</v>
@@ -8834,13 +8915,13 @@
         <v>48</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
@@ -8866,13 +8947,13 @@
         <v>48</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>12</v>
@@ -8898,13 +8979,13 @@
         <v>48</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>12</v>
@@ -8930,13 +9011,13 @@
         <v>117</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>12</v>
@@ -8953,7 +9034,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>120</v>
@@ -8962,13 +9043,13 @@
         <v>117</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>12</v>
@@ -8994,13 +9075,13 @@
         <v>125</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>12</v>
@@ -9026,13 +9107,13 @@
         <v>125</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>12</v>
@@ -9058,13 +9139,13 @@
         <v>125</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>12</v>
@@ -9090,13 +9171,13 @@
         <v>135</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>12</v>
@@ -9122,13 +9203,13 @@
         <v>135</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
@@ -9154,13 +9235,13 @@
         <v>135</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>12</v>
@@ -9186,13 +9267,13 @@
         <v>135</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
@@ -9218,13 +9299,13 @@
         <v>135</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>12</v>
@@ -9250,13 +9331,13 @@
         <v>135</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
@@ -9282,13 +9363,13 @@
         <v>155</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
@@ -9314,13 +9395,13 @@
         <v>160</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>12</v>
@@ -9340,22 +9421,22 @@
         <v>163</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -9372,22 +9453,22 @@
         <v>166</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -9410,13 +9491,13 @@
         <v>164</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>12</v>
@@ -9430,10 +9511,10 @@
         <v>171</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>172</v>
@@ -9442,13 +9523,13 @@
         <v>173</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>12</v>
@@ -9462,7 +9543,7 @@
         <v>175</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>176</v>
@@ -9474,13 +9555,13 @@
         <v>178</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>12</v>
@@ -9494,7 +9575,7 @@
         <v>180</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>181</v>
@@ -9506,16 +9587,16 @@
         <v>183</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -9538,13 +9619,13 @@
         <v>187</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
@@ -9570,13 +9651,13 @@
         <v>187</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>12</v>
@@ -9602,13 +9683,13 @@
         <v>187</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>12</v>
@@ -9634,13 +9715,13 @@
         <v>196</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
@@ -9666,13 +9747,13 @@
         <v>196</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>12</v>
@@ -9698,13 +9779,13 @@
         <v>204</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
@@ -9730,13 +9811,13 @@
         <v>209</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
@@ -9747,7 +9828,7 @@
         <v>210</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>211</v>
@@ -9762,13 +9843,13 @@
         <v>213</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>12</v>
@@ -9782,7 +9863,7 @@
         <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>215</v>
@@ -9791,16 +9872,16 @@
         <v>215</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>12</v>
@@ -9826,13 +9907,13 @@
         <v>219</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>12</v>
@@ -9855,16 +9936,16 @@
         <v>223</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>12</v>
@@ -9881,7 +9962,7 @@
         <v>226</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>227</v>
@@ -9890,16 +9971,16 @@
         <v>226</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -9922,16 +10003,16 @@
         <v>231</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -9954,16 +10035,16 @@
         <v>235</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -9986,16 +10067,16 @@
         <v>239</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -10015,19 +10096,19 @@
         <v>242</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -10035,28 +10116,28 @@
         <v>243</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>244</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>12</v>
@@ -10070,10 +10151,10 @@
         <v>171</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>246</v>
@@ -10082,13 +10163,13 @@
         <v>247</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>12</v>
@@ -10114,13 +10195,13 @@
         <v>251</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
@@ -10146,16 +10227,16 @@
         <v>255</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -10172,19 +10253,19 @@
         <v>257</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>258</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>12</v>
@@ -10210,16 +10291,16 @@
         <v>262</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -10242,16 +10323,16 @@
         <v>266</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -10262,7 +10343,7 @@
         <v>171</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>268</v>
@@ -10274,13 +10355,13 @@
         <v>270</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>12</v>
@@ -10294,89 +10375,89 @@
         <v>171</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D78" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="G78" s="4" t="s">
-        <v>480</v>
+        <v>1122</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>481</v>
+        <v>1012</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J78" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="G79" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H79" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>485</v>
-      </c>
       <c r="J79" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="E80" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H80" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>12</v>
@@ -10384,95 +10465,95 @@
     </row>
     <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="E81" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="G82" s="4" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>12</v>
@@ -10480,31 +10561,31 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="H84" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>801</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>12</v>
@@ -10512,31 +10593,31 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="G85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>12</v>
@@ -10544,31 +10625,31 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="G86" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>12</v>
@@ -10576,31 +10657,31 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="G87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>12</v>
@@ -10608,31 +10689,31 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>12</v>
@@ -10640,31 +10721,31 @@
     </row>
     <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="G89" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>12</v>
@@ -10672,31 +10753,31 @@
     </row>
     <row r="90" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>12</v>
@@ -10704,31 +10785,31 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>12</v>
@@ -10736,31 +10817,31 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="G92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>12</v>
@@ -10768,63 +10849,63 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="G93" s="4" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="G94" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -10832,31 +10913,31 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="G95" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>12</v>
@@ -10864,31 +10945,31 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>12</v>
@@ -10896,31 +10977,31 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="G97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>12</v>
@@ -10928,31 +11009,31 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="G98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>12</v>
@@ -10960,31 +11041,31 @@
     </row>
     <row r="99" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="G99" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>12</v>
@@ -10992,31 +11073,31 @@
     </row>
     <row r="100" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="C100" s="4" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -11024,45 +11105,45 @@
     </row>
     <row r="101" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>538</v>
-      </c>
       <c r="H101" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>120</v>
@@ -11074,13 +11155,13 @@
         <v>48</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>12</v>
@@ -11088,31 +11169,31 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>12</v>
@@ -11120,31 +11201,31 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>12</v>
@@ -11152,31 +11233,31 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>12</v>
@@ -11184,31 +11265,31 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>12</v>
@@ -11216,31 +11297,31 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="E107" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="G107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>12</v>
@@ -11248,31 +11329,31 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>12</v>
@@ -11280,333 +11361,333 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="G109" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="E110" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>155</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="D114" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="G114" s="4" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="E115" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>160</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="G116" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>231</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>12</v>
@@ -11614,95 +11695,95 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="G121" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="I121" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="J121" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>12</v>
@@ -11710,250 +11791,250 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -11961,28 +12042,28 @@
         <v>1000130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>12</v>
@@ -11993,28 +12074,28 @@
         <v>1000131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>12</v>
@@ -12025,31 +12106,31 @@
         <v>1000132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -12057,31 +12138,31 @@
         <v>1000133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="J134" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
@@ -12089,28 +12170,28 @@
         <v>1000134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D135" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>612</v>
-      </c>
       <c r="G135" s="4" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -12119,31 +12200,31 @@
         <v>1000135</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>613</v>
-      </c>
       <c r="E136" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -12151,31 +12232,31 @@
         <v>1000136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
@@ -12183,31 +12264,31 @@
         <v>1000137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
@@ -12215,28 +12296,28 @@
         <v>1000138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>632</v>
-      </c>
       <c r="H139" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -12245,28 +12326,28 @@
         <v>1000139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -12275,31 +12356,31 @@
         <v>1000140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="J141" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -12307,28 +12388,28 @@
         <v>1000141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J142" s="3"/>
     </row>
@@ -12337,31 +12418,31 @@
         <v>1000142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -12369,31 +12450,31 @@
         <v>1000143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
@@ -12401,28 +12482,28 @@
         <v>1000144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C145" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>652</v>
-      </c>
       <c r="G145" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J145" s="3"/>
     </row>
@@ -12431,28 +12512,28 @@
         <v>1000145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>654</v>
-      </c>
       <c r="E146" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J146" s="3"/>
     </row>
@@ -12461,28 +12542,28 @@
         <v>1000146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J147" s="3"/>
     </row>
@@ -12491,28 +12572,28 @@
         <v>1000147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="H148" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="J148" s="3"/>
     </row>
@@ -12521,28 +12602,28 @@
         <v>1000148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J149" s="3"/>
     </row>
@@ -12551,28 +12632,28 @@
         <v>1000149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J150" s="3"/>
     </row>
@@ -12581,28 +12662,28 @@
         <v>1000150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>12</v>
@@ -12613,31 +12694,31 @@
         <v>1000151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -12645,28 +12726,28 @@
         <v>1000152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J153" s="3"/>
     </row>
@@ -12675,28 +12756,28 @@
         <v>1000153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J154" s="3"/>
     </row>
@@ -12705,28 +12786,28 @@
         <v>1000154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>12</v>
@@ -12737,28 +12818,28 @@
         <v>1000155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>12</v>
@@ -12769,31 +12850,31 @@
         <v>1000156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -12801,31 +12882,31 @@
         <v>1000157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="I158" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="J158" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -12836,25 +12917,25 @@
         <v>180</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>12</v>
@@ -12868,25 +12949,25 @@
         <v>10</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>12</v>
@@ -12900,25 +12981,25 @@
         <v>10</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>12</v>
@@ -12929,28 +13010,28 @@
         <v>1000161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="J162" s="3"/>
     </row>
@@ -12962,25 +13043,25 @@
         <v>45</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>12</v>
@@ -12994,25 +13075,25 @@
         <v>45</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>12</v>
@@ -13023,28 +13104,28 @@
         <v>1000164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>12</v>
@@ -13055,28 +13136,28 @@
         <v>1000165</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>727</v>
-      </c>
       <c r="E166" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="J166" s="3"/>
     </row>
@@ -13085,31 +13166,31 @@
         <v>1000166</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I167" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="E167" s="3" t="s">
+      <c r="J167" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="J167" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
@@ -13117,28 +13198,28 @@
         <v>1000167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F168" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="G168" s="4" t="s">
-        <v>739</v>
-      </c>
       <c r="H168" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="J168" s="3"/>
     </row>
@@ -13147,28 +13228,28 @@
         <v>1000168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="J169" s="3"/>
     </row>
@@ -13177,28 +13258,28 @@
         <v>1000169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="J170" s="3"/>
     </row>
@@ -13207,28 +13288,28 @@
         <v>1000170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="J171" s="3"/>
     </row>
@@ -13237,28 +13318,28 @@
         <v>1000171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>751</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>755</v>
       </c>
       <c r="J172" s="3"/>
     </row>
@@ -13267,28 +13348,28 @@
         <v>1000172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>12</v>
@@ -13299,28 +13380,28 @@
         <v>1000173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>12</v>
@@ -13331,28 +13412,28 @@
         <v>1000174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>12</v>
@@ -13363,28 +13444,28 @@
         <v>1000175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>12</v>
@@ -13395,28 +13476,28 @@
         <v>1000176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>12</v>
@@ -13427,28 +13508,28 @@
         <v>1000177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>12</v>
@@ -13459,28 +13540,28 @@
         <v>1000178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>12</v>
@@ -13491,28 +13572,28 @@
         <v>1000179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J180" s="3" t="s">
         <v>12</v>
@@ -13523,28 +13604,28 @@
         <v>1000180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J181" s="3"/>
     </row>
@@ -13553,28 +13634,28 @@
         <v>1000181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>12</v>
@@ -13585,28 +13666,28 @@
         <v>1000182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J183" s="3" t="s">
         <v>12</v>
@@ -13617,28 +13698,28 @@
         <v>1000183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J184" s="3" t="s">
         <v>12</v>
@@ -13649,28 +13730,28 @@
         <v>1000184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>12</v>
@@ -13681,28 +13762,28 @@
         <v>1000185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J186" s="3"/>
     </row>
@@ -13711,28 +13792,28 @@
         <v>1000186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J187" s="3" t="s">
         <v>12</v>
@@ -13743,28 +13824,28 @@
         <v>1000187</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="G188" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>963</v>
-      </c>
       <c r="H188" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>12</v>
@@ -13775,28 +13856,28 @@
         <v>1000188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H189" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="D189" s="3" t="s">
+      <c r="I189" s="5" t="s">
         <v>966</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>970</v>
       </c>
       <c r="J189" s="3"/>
     </row>
@@ -13805,28 +13886,28 @@
         <v>1000189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J190" s="3" t="s">
         <v>12</v>
@@ -13837,28 +13918,28 @@
         <v>1000190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J191" s="3"/>
     </row>
@@ -13867,28 +13948,28 @@
         <v>1000191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J192" s="3"/>
     </row>
@@ -13897,28 +13978,28 @@
         <v>1000192</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="G193" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="H193" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="D193" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H193" s="5" t="s">
+      <c r="I193" s="5" t="s">
         <v>1005</v>
-      </c>
-      <c r="I193" s="5" t="s">
-        <v>1009</v>
       </c>
       <c r="J193" s="3"/>
     </row>
@@ -13927,28 +14008,28 @@
         <v>1000193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J194" s="3" t="s">
         <v>12</v>
@@ -13962,25 +14043,25 @@
         <v>162</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="J195" s="3" t="s">
         <v>12</v>
@@ -13991,28 +14072,28 @@
         <v>1000195</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="H196" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I196" s="5" t="s">
         <v>982</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I196" s="5" t="s">
-        <v>986</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>12</v>
@@ -14023,28 +14104,28 @@
         <v>1000196</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I197" s="5" t="s">
         <v>990</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I197" s="5" t="s">
-        <v>994</v>
       </c>
       <c r="J197" s="3"/>
     </row>
@@ -14053,28 +14134,28 @@
         <v>1000197</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="G198" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>999</v>
-      </c>
       <c r="H198" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J198" s="3"/>
     </row>
@@ -14083,28 +14164,28 @@
         <v>1000198</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G199" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="I199" s="4" t="s">
         <v>1013</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>1017</v>
       </c>
       <c r="J199" s="3"/>
     </row>
@@ -14113,28 +14194,28 @@
         <v>1000199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J200" s="3" t="s">
         <v>12</v>
@@ -14145,28 +14226,28 @@
         <v>1000200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="J201" s="3"/>
     </row>
@@ -14175,28 +14256,28 @@
         <v>1000201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J202" s="3"/>
     </row>
@@ -14205,28 +14286,28 @@
         <v>1000202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F203" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I203" s="5" t="s">
         <v>1030</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I203" s="5" t="s">
-        <v>1034</v>
       </c>
       <c r="J203" s="3"/>
     </row>
@@ -14238,25 +14319,25 @@
         <v>45</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J204" s="3" t="s">
         <v>12</v>
@@ -14267,28 +14348,28 @@
         <v>1000204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J205" s="3" t="s">
         <v>12</v>
@@ -14302,25 +14383,25 @@
         <v>45</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J206" s="3" t="s">
         <v>12</v>
@@ -14334,25 +14415,25 @@
         <v>45</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J207" s="3" t="s">
         <v>12</v>
@@ -14363,28 +14444,28 @@
         <v>1000207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="J208" s="3"/>
     </row>
@@ -14393,28 +14474,28 @@
         <v>1000208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I209" s="5" t="s">
         <v>1052</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>1056</v>
       </c>
       <c r="J209" s="3"/>
     </row>
@@ -14423,28 +14504,28 @@
         <v>1000209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I210" s="5" t="s">
         <v>1052</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I210" s="5" t="s">
-        <v>1056</v>
       </c>
       <c r="J210" s="3"/>
     </row>
@@ -14453,28 +14534,28 @@
         <v>1000210</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="I211" s="5" t="s">
         <v>1058</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="I211" s="5" t="s">
-        <v>1062</v>
       </c>
       <c r="J211" s="3" t="s">
         <v>12</v>
@@ -14488,25 +14569,25 @@
         <v>45</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J212" s="3" t="s">
         <v>12</v>
@@ -14517,28 +14598,28 @@
         <v>1000212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="J213" s="3" t="s">
         <v>12</v>
@@ -14549,28 +14630,28 @@
         <v>1000213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="J214" s="3"/>
     </row>
@@ -14579,28 +14660,28 @@
         <v>1000214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="J215" s="3"/>
     </row>
@@ -14609,28 +14690,28 @@
         <v>1000215</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="H216" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>466</v>
-      </c>
       <c r="I216" s="5" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="J216" s="3"/>
     </row>
@@ -14642,25 +14723,25 @@
         <v>171</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>12</v>
@@ -14674,25 +14755,25 @@
         <v>45</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J218" s="3" t="s">
         <v>12</v>
@@ -14706,25 +14787,25 @@
         <v>45</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>12</v>
@@ -14735,28 +14816,28 @@
         <v>1000219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>12</v>
@@ -14767,28 +14848,28 @@
         <v>1000220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>12</v>
@@ -14802,25 +14883,25 @@
         <v>171</v>
       </c>
       <c r="C222" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I222" s="5" t="s">
         <v>1089</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H222" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I222" s="5" t="s">
-        <v>1093</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>12</v>
@@ -14834,25 +14915,25 @@
         <v>45</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>12</v>
@@ -14866,25 +14947,25 @@
         <v>45</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>12</v>
@@ -14895,28 +14976,28 @@
         <v>1000224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F225" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H225" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="I225" s="4" t="s">
         <v>1099</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>1103</v>
       </c>
       <c r="J225" s="3"/>
     </row>
@@ -14925,28 +15006,28 @@
         <v>1000225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C226" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I226" s="5" t="s">
         <v>1104</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I226" s="5" t="s">
-        <v>1108</v>
       </c>
       <c r="J226" s="3"/>
     </row>
@@ -14955,28 +15036,28 @@
         <v>1000226</v>
       </c>
       <c r="B227" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C227" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>1114</v>
-      </c>
       <c r="D227" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E227" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="E227" s="8" t="s">
-        <v>1115</v>
-      </c>
       <c r="F227" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="H227" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
@@ -14984,28 +15065,28 @@
         <v>1000227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J228" s="3" t="s">
         <v>12</v>
@@ -15016,28 +15097,28 @@
         <v>1000227</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J229" s="3" t="s">
         <v>12</v>
@@ -15051,7 +15132,7 @@
         <v>45</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>47</v>
@@ -15060,18 +15141,50 @@
         <v>47</v>
       </c>
       <c r="F230" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>1000229</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="G230" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="H230" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I230" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J230" s="3" t="s">
+      <c r="E231" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J231" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15095,10 +15208,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\candence-lib\MyDataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\candence-lib\MyDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1134">
   <si>
     <t>Part type</t>
   </si>
@@ -7402,6 +7402,64 @@
         <charset val="134"/>
       </rPr>
       <t>ylib\IS62WV51216BLL</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DO214-A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S16</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1A/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0V</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7883,10 +7941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I231" sqref="I231"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I232" sqref="I232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12925,8 +12983,8 @@
       <c r="E159" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>187</v>
+      <c r="F159" s="5" t="s">
+        <v>1131</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>387</v>
@@ -15185,6 +15243,38 @@
         <v>1130</v>
       </c>
       <c r="J231" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A232" s="2">
+        <v>1000230</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J232" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1139">
   <si>
     <t>Part type</t>
   </si>
@@ -767,9 +767,6 @@
     <t>1.65-5.5V Not Gate</t>
   </si>
   <si>
-    <t>SC70-5</t>
-  </si>
-  <si>
     <t>1000071</t>
   </si>
   <si>
@@ -1547,26 +1544,6 @@
   </si>
   <si>
     <t>LightMode/SFP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NC7SZU04P5X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AIRCHILD</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -7460,6 +7437,94 @@
         <charset val="134"/>
       </rPr>
       <t>0V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN74LVC1G04DBVR</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OT23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KF2EDGRM-3.5-20P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5mm/20P/弯脚</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_5MM-20P-KF2EDGRM</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CON20</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7941,10 +8006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I232" sqref="I232"/>
+    <sheetView tabSelected="1" topLeftCell="C214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7963,7 +8028,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8013,10 +8078,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>15</v>
@@ -8045,10 +8110,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>15</v>
@@ -8077,10 +8142,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>15</v>
@@ -8109,10 +8174,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -8141,10 +8206,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>15</v>
@@ -8173,10 +8238,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>15</v>
@@ -8205,10 +8270,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>15</v>
@@ -8237,10 +8302,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>15</v>
@@ -8269,10 +8334,10 @@
         <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -8301,10 +8366,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>15</v>
@@ -8333,13 +8398,13 @@
         <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>12</v>
@@ -8365,13 +8430,13 @@
         <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>12</v>
@@ -8397,13 +8462,13 @@
         <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>12</v>
@@ -8429,13 +8494,13 @@
         <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
@@ -8461,13 +8526,13 @@
         <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>12</v>
@@ -8493,13 +8558,13 @@
         <v>48</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
@@ -8525,13 +8590,13 @@
         <v>48</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
@@ -8557,13 +8622,13 @@
         <v>48</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>12</v>
@@ -8589,13 +8654,13 @@
         <v>48</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
@@ -8621,13 +8686,13 @@
         <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>12</v>
@@ -8653,13 +8718,13 @@
         <v>48</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>12</v>
@@ -8685,13 +8750,13 @@
         <v>48</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>12</v>
@@ -8717,13 +8782,13 @@
         <v>48</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>12</v>
@@ -8749,13 +8814,13 @@
         <v>48</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>12</v>
@@ -8781,13 +8846,13 @@
         <v>48</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>12</v>
@@ -8813,13 +8878,13 @@
         <v>48</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>12</v>
@@ -8845,13 +8910,13 @@
         <v>48</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>12</v>
@@ -8877,13 +8942,13 @@
         <v>48</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>12</v>
@@ -8909,13 +8974,13 @@
         <v>48</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>12</v>
@@ -8941,13 +9006,13 @@
         <v>48</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>12</v>
@@ -8973,13 +9038,13 @@
         <v>48</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
@@ -9005,13 +9070,13 @@
         <v>48</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>12</v>
@@ -9037,13 +9102,13 @@
         <v>48</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>12</v>
@@ -9069,13 +9134,13 @@
         <v>117</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>12</v>
@@ -9092,7 +9157,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>120</v>
@@ -9101,13 +9166,13 @@
         <v>117</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>12</v>
@@ -9133,13 +9198,13 @@
         <v>125</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>12</v>
@@ -9165,13 +9230,13 @@
         <v>125</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>12</v>
@@ -9197,13 +9262,13 @@
         <v>125</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>12</v>
@@ -9229,13 +9294,13 @@
         <v>135</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>12</v>
@@ -9261,13 +9326,13 @@
         <v>135</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
@@ -9293,13 +9358,13 @@
         <v>135</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>12</v>
@@ -9325,13 +9390,13 @@
         <v>135</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
@@ -9357,13 +9422,13 @@
         <v>135</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>12</v>
@@ -9389,13 +9454,13 @@
         <v>135</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
@@ -9421,13 +9486,13 @@
         <v>155</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
@@ -9453,13 +9518,13 @@
         <v>160</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>12</v>
@@ -9479,22 +9544,22 @@
         <v>163</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -9511,22 +9576,22 @@
         <v>166</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -9549,13 +9614,13 @@
         <v>164</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>12</v>
@@ -9569,10 +9634,10 @@
         <v>171</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>172</v>
@@ -9581,13 +9646,13 @@
         <v>173</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>12</v>
@@ -9601,7 +9666,7 @@
         <v>175</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>176</v>
@@ -9613,13 +9678,13 @@
         <v>178</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>12</v>
@@ -9633,7 +9698,7 @@
         <v>180</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>181</v>
@@ -9645,16 +9710,16 @@
         <v>183</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -9677,13 +9742,13 @@
         <v>187</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
@@ -9709,13 +9774,13 @@
         <v>187</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>12</v>
@@ -9741,13 +9806,13 @@
         <v>187</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>12</v>
@@ -9773,13 +9838,13 @@
         <v>196</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
@@ -9805,13 +9870,13 @@
         <v>196</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>12</v>
@@ -9837,13 +9902,13 @@
         <v>204</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
@@ -9869,13 +9934,13 @@
         <v>209</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
@@ -9886,7 +9951,7 @@
         <v>210</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>211</v>
@@ -9901,13 +9966,13 @@
         <v>213</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>12</v>
@@ -9921,7 +9986,7 @@
         <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>215</v>
@@ -9930,16 +9995,16 @@
         <v>215</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>12</v>
@@ -9965,13 +10030,13 @@
         <v>219</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>12</v>
@@ -9994,16 +10059,16 @@
         <v>223</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>12</v>
@@ -10020,7 +10085,7 @@
         <v>226</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>227</v>
@@ -10029,16 +10094,16 @@
         <v>226</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -10061,16 +10126,16 @@
         <v>231</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -10093,16 +10158,16 @@
         <v>235</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -10125,16 +10190,16 @@
         <v>239</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -10154,19 +10219,19 @@
         <v>242</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -10174,28 +10239,28 @@
         <v>243</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>244</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>12</v>
@@ -10208,26 +10273,26 @@
       <c r="B71" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>406</v>
+      <c r="C71" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1131</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>407</v>
+      <c r="F71" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>12</v>
@@ -10235,31 +10300,31 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="G72" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
@@ -10267,63 +10332,63 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="G73" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="G74" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>12</v>
@@ -10331,95 +10396,95 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="G75" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="G76" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>12</v>
@@ -10427,31 +10492,31 @@
     </row>
     <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="G78" s="4" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>12</v>
@@ -10459,63 +10524,63 @@
     </row>
     <row r="79" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="G79" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H79" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="J79" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="G80" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>12</v>
@@ -10523,95 +10588,95 @@
     </row>
     <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="E81" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="G82" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>12</v>
@@ -10619,31 +10684,31 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>12</v>
@@ -10651,31 +10716,31 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="G85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>12</v>
@@ -10683,31 +10748,31 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="G86" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>12</v>
@@ -10715,31 +10780,31 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="G87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>12</v>
@@ -10747,31 +10812,31 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>12</v>
@@ -10779,31 +10844,31 @@
     </row>
     <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="G89" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>12</v>
@@ -10811,31 +10876,31 @@
     </row>
     <row r="90" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>12</v>
@@ -10843,31 +10908,31 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>12</v>
@@ -10875,31 +10940,31 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="G92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>12</v>
@@ -10907,63 +10972,63 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="G93" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>816</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -10971,31 +11036,31 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="G95" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>12</v>
@@ -11003,31 +11068,31 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>12</v>
@@ -11035,31 +11100,31 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="G97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>12</v>
@@ -11067,31 +11132,31 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="G98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>12</v>
@@ -11099,31 +11164,31 @@
     </row>
     <row r="99" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="G99" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>12</v>
@@ -11131,31 +11196,31 @@
     </row>
     <row r="100" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="C100" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -11163,45 +11228,45 @@
     </row>
     <row r="101" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>534</v>
-      </c>
       <c r="H101" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>120</v>
@@ -11213,13 +11278,13 @@
         <v>48</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>12</v>
@@ -11227,31 +11292,31 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>12</v>
@@ -11259,31 +11324,31 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>12</v>
@@ -11291,31 +11356,31 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>12</v>
@@ -11323,31 +11388,31 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>12</v>
@@ -11355,31 +11420,31 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="E107" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="G107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>12</v>
@@ -11387,31 +11452,31 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>12</v>
@@ -11419,333 +11484,333 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="G109" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>155</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="G114" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="I114" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>852</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>160</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E117" s="3" t="s">
+      <c r="G117" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>231</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>12</v>
@@ -11753,95 +11818,95 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="I121" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>523</v>
-      </c>
       <c r="J121" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G122" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>547</v>
-      </c>
       <c r="H122" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>12</v>
@@ -11849,250 +11914,250 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I123" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>551</v>
-      </c>
       <c r="J123" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I129" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>551</v>
-      </c>
       <c r="J129" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -12100,28 +12165,28 @@
         <v>1000130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>12</v>
@@ -12132,28 +12197,28 @@
         <v>1000131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>12</v>
@@ -12164,31 +12229,31 @@
         <v>1000132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -12196,31 +12261,31 @@
         <v>1000133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="I134" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="J134" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
@@ -12228,28 +12293,28 @@
         <v>1000134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -12258,31 +12323,31 @@
         <v>1000135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -12290,31 +12355,31 @@
         <v>1000136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
@@ -12322,31 +12387,31 @@
         <v>1000137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D138" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>618</v>
-      </c>
       <c r="J138" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
@@ -12354,28 +12419,28 @@
         <v>1000138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="G139" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>628</v>
-      </c>
       <c r="H139" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -12384,28 +12449,28 @@
         <v>1000139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -12414,31 +12479,31 @@
         <v>1000140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="D141" s="3" t="s">
+      <c r="G141" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="J141" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -12446,28 +12511,28 @@
         <v>1000141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="I142" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="J142" s="3"/>
     </row>
@@ -12476,31 +12541,31 @@
         <v>1000142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J143" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -12508,31 +12573,31 @@
         <v>1000143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
@@ -12540,28 +12605,28 @@
         <v>1000144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C145" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="G145" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J145" s="3"/>
     </row>
@@ -12570,28 +12635,28 @@
         <v>1000145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>649</v>
-      </c>
       <c r="D146" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J146" s="3"/>
     </row>
@@ -12600,28 +12665,28 @@
         <v>1000146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J147" s="3"/>
     </row>
@@ -12630,28 +12695,28 @@
         <v>1000147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="G148" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>656</v>
-      </c>
       <c r="H148" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J148" s="3"/>
     </row>
@@ -12660,28 +12725,28 @@
         <v>1000148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J149" s="3"/>
     </row>
@@ -12690,28 +12755,28 @@
         <v>1000149</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>661</v>
-      </c>
       <c r="G150" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J150" s="3"/>
     </row>
@@ -12720,28 +12785,28 @@
         <v>1000150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>668</v>
-      </c>
       <c r="G151" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>12</v>
@@ -12752,31 +12817,31 @@
         <v>1000151</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>674</v>
-      </c>
       <c r="G152" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -12784,28 +12849,28 @@
         <v>1000152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J153" s="3"/>
     </row>
@@ -12814,28 +12879,28 @@
         <v>1000153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J154" s="3"/>
     </row>
@@ -12844,28 +12909,28 @@
         <v>1000154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>12</v>
@@ -12876,28 +12941,28 @@
         <v>1000155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>12</v>
@@ -12908,31 +12973,31 @@
         <v>1000156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -12940,31 +13005,31 @@
         <v>1000157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G158" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="H158" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="I158" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="J158" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -12975,25 +13040,25 @@
         <v>180</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>12</v>
@@ -13007,25 +13072,25 @@
         <v>10</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>12</v>
@@ -13039,25 +13104,25 @@
         <v>10</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>12</v>
@@ -13068,28 +13133,28 @@
         <v>1000161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="J162" s="3"/>
     </row>
@@ -13101,25 +13166,25 @@
         <v>45</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>12</v>
@@ -13133,25 +13198,25 @@
         <v>45</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>12</v>
@@ -13162,28 +13227,28 @@
         <v>1000164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>12</v>
@@ -13194,28 +13259,28 @@
         <v>1000165</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>722</v>
       </c>
       <c r="J166" s="3"/>
     </row>
@@ -13224,31 +13289,31 @@
         <v>1000166</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="G167" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="J167" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="J167" s="3" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
@@ -13256,28 +13321,28 @@
         <v>1000167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J168" s="3"/>
     </row>
@@ -13286,28 +13351,28 @@
         <v>1000168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J169" s="3"/>
     </row>
@@ -13316,28 +13381,28 @@
         <v>1000169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>742</v>
-      </c>
       <c r="G170" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J170" s="3"/>
     </row>
@@ -13346,28 +13411,28 @@
         <v>1000170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J171" s="3"/>
     </row>
@@ -13376,28 +13441,28 @@
         <v>1000171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="D172" s="3" t="s">
+      <c r="G172" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>751</v>
       </c>
       <c r="J172" s="3"/>
     </row>
@@ -13406,28 +13471,28 @@
         <v>1000172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>12</v>
@@ -13438,28 +13503,28 @@
         <v>1000173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>12</v>
@@ -13470,28 +13535,28 @@
         <v>1000174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>12</v>
@@ -13502,28 +13567,28 @@
         <v>1000175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>12</v>
@@ -13534,28 +13599,28 @@
         <v>1000176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>12</v>
@@ -13566,28 +13631,28 @@
         <v>1000177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>12</v>
@@ -13598,28 +13663,28 @@
         <v>1000178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>12</v>
@@ -13630,28 +13695,28 @@
         <v>1000179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J180" s="3" t="s">
         <v>12</v>
@@ -13662,28 +13727,28 @@
         <v>1000180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J181" s="3"/>
     </row>
@@ -13692,28 +13757,28 @@
         <v>1000181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>12</v>
@@ -13724,28 +13789,28 @@
         <v>1000182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J183" s="3" t="s">
         <v>12</v>
@@ -13756,28 +13821,28 @@
         <v>1000183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J184" s="3" t="s">
         <v>12</v>
@@ -13788,28 +13853,28 @@
         <v>1000184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>12</v>
@@ -13820,28 +13885,28 @@
         <v>1000185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J186" s="3"/>
     </row>
@@ -13850,28 +13915,28 @@
         <v>1000186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J187" s="3" t="s">
         <v>12</v>
@@ -13882,28 +13947,28 @@
         <v>1000187</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="G188" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>959</v>
-      </c>
       <c r="H188" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>12</v>
@@ -13914,28 +13979,28 @@
         <v>1000188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="F189" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="D189" s="3" t="s">
+      <c r="G189" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H189" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="I189" s="5" t="s">
         <v>963</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>966</v>
       </c>
       <c r="J189" s="3"/>
     </row>
@@ -13944,28 +14009,28 @@
         <v>1000189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J190" s="3" t="s">
         <v>12</v>
@@ -13976,28 +14041,28 @@
         <v>1000190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J191" s="3"/>
     </row>
@@ -14006,28 +14071,28 @@
         <v>1000191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J192" s="3"/>
     </row>
@@ -14036,28 +14101,28 @@
         <v>1000192</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="F193" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="D193" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="E193" s="5" t="s">
+      <c r="H193" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="F193" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>1001</v>
-      </c>
       <c r="I193" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J193" s="3"/>
     </row>
@@ -14066,28 +14131,28 @@
         <v>1000193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J194" s="3" t="s">
         <v>12</v>
@@ -14101,25 +14166,25 @@
         <v>162</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="J195" s="3" t="s">
         <v>12</v>
@@ -14130,28 +14195,28 @@
         <v>1000195</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F196" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="D196" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="E196" s="5" t="s">
+      <c r="H196" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I196" s="5" t="s">
         <v>979</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I196" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>12</v>
@@ -14162,28 +14227,28 @@
         <v>1000196</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="G197" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="H197" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I197" s="5" t="s">
         <v>987</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I197" s="5" t="s">
-        <v>990</v>
       </c>
       <c r="J197" s="3"/>
     </row>
@@ -14192,28 +14257,28 @@
         <v>1000197</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="F198" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>995</v>
-      </c>
       <c r="H198" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J198" s="3"/>
     </row>
@@ -14222,28 +14287,28 @@
         <v>1000198</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F199" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="E199" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F199" s="5" t="s">
+      <c r="I199" s="4" t="s">
         <v>1010</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>1013</v>
       </c>
       <c r="J199" s="3"/>
     </row>
@@ -14252,28 +14317,28 @@
         <v>1000199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J200" s="3" t="s">
         <v>12</v>
@@ -14284,28 +14349,28 @@
         <v>1000200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="J201" s="3"/>
     </row>
@@ -14314,28 +14379,28 @@
         <v>1000201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J202" s="3"/>
     </row>
@@ -14344,28 +14409,28 @@
         <v>1000202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J203" s="3"/>
     </row>
@@ -14377,25 +14442,25 @@
         <v>45</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J204" s="3" t="s">
         <v>12</v>
@@ -14406,28 +14471,28 @@
         <v>1000204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C205" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G205" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="D205" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>1034</v>
-      </c>
       <c r="H205" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J205" s="3" t="s">
         <v>12</v>
@@ -14441,25 +14506,25 @@
         <v>45</v>
       </c>
       <c r="C206" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D206" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="D206" s="5" t="s">
-        <v>1038</v>
-      </c>
       <c r="E206" s="5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J206" s="3" t="s">
         <v>12</v>
@@ -14473,25 +14538,25 @@
         <v>45</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J207" s="3" t="s">
         <v>12</v>
@@ -14502,28 +14567,28 @@
         <v>1000207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H208" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G208" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>478</v>
-      </c>
       <c r="I208" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="J208" s="3"/>
     </row>
@@ -14532,28 +14597,28 @@
         <v>1000208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H209" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E209" s="5" t="s">
+      <c r="I209" s="5" t="s">
         <v>1049</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>1052</v>
       </c>
       <c r="J209" s="3"/>
     </row>
@@ -14562,28 +14627,28 @@
         <v>1000209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H210" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E210" s="5" t="s">
+      <c r="I210" s="5" t="s">
         <v>1049</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I210" s="5" t="s">
-        <v>1052</v>
       </c>
       <c r="J210" s="3"/>
     </row>
@@ -14592,28 +14657,28 @@
         <v>1000210</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G211" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E211" s="5" t="s">
+      <c r="H211" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="I211" s="5" t="s">
         <v>1055</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="I211" s="5" t="s">
-        <v>1058</v>
       </c>
       <c r="J211" s="3" t="s">
         <v>12</v>
@@ -14627,25 +14692,25 @@
         <v>45</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J212" s="3" t="s">
         <v>12</v>
@@ -14656,28 +14721,28 @@
         <v>1000212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J213" s="3" t="s">
         <v>12</v>
@@ -14688,28 +14753,28 @@
         <v>1000213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="J214" s="3"/>
     </row>
@@ -14718,28 +14783,28 @@
         <v>1000214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E215" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I215" s="5" t="s">
         <v>1065</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="H215" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I215" s="5" t="s">
-        <v>1068</v>
       </c>
       <c r="J215" s="3"/>
     </row>
@@ -14748,28 +14813,28 @@
         <v>1000215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="J216" s="3"/>
     </row>
@@ -14781,25 +14846,25 @@
         <v>171</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>12</v>
@@ -14813,25 +14878,25 @@
         <v>45</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J218" s="3" t="s">
         <v>12</v>
@@ -14845,25 +14910,25 @@
         <v>45</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>12</v>
@@ -14874,28 +14939,28 @@
         <v>1000219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C220" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="I220" s="4" t="s">
         <v>1079</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>1082</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>12</v>
@@ -14906,28 +14971,28 @@
         <v>1000220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>12</v>
@@ -14941,25 +15006,25 @@
         <v>171</v>
       </c>
       <c r="C222" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F222" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="D222" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E222" s="5" t="s">
+      <c r="G222" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I222" s="5" t="s">
         <v>1086</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H222" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I222" s="5" t="s">
-        <v>1089</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>12</v>
@@ -14973,25 +15038,25 @@
         <v>45</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>12</v>
@@ -15005,25 +15070,25 @@
         <v>45</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>12</v>
@@ -15034,28 +15099,28 @@
         <v>1000224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C225" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I225" s="4" t="s">
         <v>1096</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E225" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>1099</v>
       </c>
       <c r="J225" s="3"/>
     </row>
@@ -15064,28 +15129,28 @@
         <v>1000225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C226" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G226" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="D226" s="5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E226" s="5" t="s">
+      <c r="H226" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I226" s="5" t="s">
         <v>1101</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I226" s="5" t="s">
-        <v>1104</v>
       </c>
       <c r="J226" s="3"/>
     </row>
@@ -15094,28 +15159,28 @@
         <v>1000226</v>
       </c>
       <c r="B227" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I227" s="5" t="s">
         <v>1106</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H227" s="8" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I227" s="5" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
@@ -15123,28 +15188,28 @@
         <v>1000227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J228" s="3" t="s">
         <v>12</v>
@@ -15155,28 +15220,28 @@
         <v>1000227</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J229" s="3" t="s">
         <v>12</v>
@@ -15190,7 +15255,7 @@
         <v>45</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>47</v>
@@ -15199,16 +15264,16 @@
         <v>47</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J230" s="3" t="s">
         <v>12</v>
@@ -15222,25 +15287,25 @@
         <v>171</v>
       </c>
       <c r="C231" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I231" s="5" t="s">
         <v>1127</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H231" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I231" s="5" t="s">
-        <v>1130</v>
       </c>
       <c r="J231" s="3" t="s">
         <v>12</v>
@@ -15254,27 +15319,59 @@
         <v>180</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E232" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>1000230</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C233" t="s">
         <v>1133</v>
       </c>
-      <c r="F232" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I232" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J232" s="3" t="s">
+      <c r="D233" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J233" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15298,10 +15395,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -16,15 +16,16 @@
     <sheet name="TMPPRTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIS_DB!$A$1:$J$232</definedName>
     <definedName name="TMPPRTS">TMPPRTS!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1149">
   <si>
     <t>Part type</t>
   </si>
@@ -7539,6 +7540,64 @@
       </rPr>
       <t>HR913129AE</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS1128-S80BP</t>
+  </si>
+  <si>
+    <t>DS1128-S80BP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNFLY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-40~85/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8P8C</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\RJ45-DS1128</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603 F750JT5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75R/1%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF/100V/5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG102J101NT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF/100V/5%</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7691,7 +7750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7713,6 +7772,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8019,10 +8081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:XFD236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13945,8 +14007,8 @@
       <c r="G187" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="H187" s="4" t="s">
-        <v>373</v>
+      <c r="H187" s="5" t="s">
+        <v>997</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>437</v>
@@ -15230,95 +15292,95 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
-        <v>1000227</v>
+        <v>1000228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>1114</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>335</v>
+        <v>47</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>335</v>
+        <v>47</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>12</v>
+        <v>1115</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="J229" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
-        <v>1000228</v>
+        <v>1000229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>47</v>
+        <v>1119</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>47</v>
+        <v>1120</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>376</v>
+        <v>1121</v>
       </c>
       <c r="H230" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>1000230</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H231" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="I230" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J230" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A231" s="2">
-        <v>1000229</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H231" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I231" s="5" t="s">
-        <v>1125</v>
+      <c r="I231" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="J231" s="3" t="s">
         <v>12</v>
@@ -15326,31 +15388,31 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
-        <v>1000230</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>1127</v>
+        <v>1000231</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1131</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="I232" s="4" t="s">
-        <v>413</v>
+        <v>1133</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>1136</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>12</v>
@@ -15358,38 +15420,132 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
-        <v>1000230</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>1133</v>
-      </c>
+        <v>1000232</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>1135</v>
+        <v>1141</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="J233" s="3" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>1000233</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>1000234</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A236" s="2">
+        <v>1000235</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J226"/>
+  <autoFilter ref="A1:J232"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\candence-lib\MyDataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\candence-lib\MyDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,12 +20,11 @@
     <definedName name="TMPPRTS">TMPPRTS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="1183">
   <si>
     <t>Part type</t>
   </si>
@@ -7598,6 +7597,266 @@
   </si>
   <si>
     <t>1nF/100V/5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源芯片\POE\TPS23753APWR.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片芯片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS23753APWR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POE_PD/IEEE802.3at</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP-14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\TPS23753APWR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接器\网络连接器\DS1128.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片排阻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4D03WGJ0750T5E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/5%</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP8-0603</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206B102K202NT</t>
+  </si>
+  <si>
+    <t>1nF/2kV/10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B103K101NT</t>
+  </si>
+  <si>
+    <r>
+      <t>10nF/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0%/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10nF/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0%/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/X7R</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11FB-05NL</t>
+  </si>
+  <si>
+    <t>TRF-HY601742</t>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DS</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mylib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HY601742</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB6S</t>
+  </si>
+  <si>
+    <t>MB6S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylib\MB6S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11FB-05NL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POE/-40~85</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB6S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A/600V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMAJ58A</t>
+  </si>
+  <si>
+    <t>58V/400W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45-DS1128</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7605,7 +7864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7653,6 +7912,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7750,7 +8016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7777,6 +8043,7 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8081,10 +8348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236:XFD236"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15434,7 +15701,9 @@
       <c r="E233" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="F233" s="5"/>
+      <c r="F233" s="5" t="s">
+        <v>1182</v>
+      </c>
       <c r="G233" s="5" t="s">
         <v>1141</v>
       </c>
@@ -15444,8 +15713,8 @@
       <c r="I233" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="J233" s="3" t="s">
-        <v>12</v>
+      <c r="J233" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
@@ -15543,6 +15812,226 @@
       <c r="J236" s="3" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>1000236</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I237" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A238" s="2">
+        <v>1000237</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>1000238</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>1000239</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>1000240</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>1000241</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J242" s="3"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A243" s="2">
+        <v>1000242</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J243" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J232"/>

--- a/MyDataBase/CIS_DB.xlsx
+++ b/MyDataBase/CIS_DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\candence-lib\MyDataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\candence-lib\MyDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1246">
   <si>
     <t>Part type</t>
   </si>
@@ -3082,39 +3082,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80pF/5/COG</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>C0603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80pF/5/COG</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -8337,6 +8305,22 @@
   </si>
   <si>
     <t>trf-hy051142</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80pF/5%/COG</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8821,8 +8805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D244" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8841,7 +8825,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -10479,7 +10463,7 @@
         <v>175</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>176</v>
@@ -10808,7 +10792,7 @@
         <v>215</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>381</v>
@@ -10872,7 +10856,7 @@
         <v>223</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>12</v>
@@ -11041,7 +11025,7 @@
         <v>372</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>497</v>
@@ -11087,16 +11071,16 @@
         <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D71" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>246</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>391</v>
@@ -11311,10 +11295,10 @@
         <v>171</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>271</v>
@@ -11323,13 +11307,13 @@
         <v>272</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>12</v>
@@ -11346,7 +11330,7 @@
         <v>475</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>275</v>
@@ -11407,7 +11391,7 @@
         <v>282</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>283</v>
@@ -11419,13 +11403,13 @@
         <v>283</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>373</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>532</v>
@@ -11439,7 +11423,7 @@
         <v>282</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>285</v>
@@ -11451,10 +11435,10 @@
         <v>283</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>438</v>
@@ -11471,19 +11455,19 @@
         <v>363</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>287</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>373</v>
@@ -11503,7 +11487,7 @@
         <v>289</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>290</v>
@@ -11515,13 +11499,13 @@
         <v>292</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>12</v>
@@ -11550,10 +11534,10 @@
         <v>12</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>12</v>
@@ -11567,7 +11551,7 @@
         <v>298</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>299</v>
@@ -11576,7 +11560,7 @@
         <v>300</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>409</v>
@@ -11585,7 +11569,7 @@
         <v>373</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>12</v>
@@ -11614,7 +11598,7 @@
         <v>12</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>439</v>
@@ -11649,7 +11633,7 @@
         <v>373</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>12</v>
@@ -11663,7 +11647,7 @@
         <v>307</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>308</v>
@@ -11675,10 +11659,10 @@
         <v>309</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>479</v>
@@ -11707,13 +11691,13 @@
         <v>371</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>373</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>12</v>
@@ -11727,7 +11711,7 @@
         <v>314</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>369</v>
@@ -11739,10 +11723,10 @@
         <v>316</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>480</v>
@@ -11759,7 +11743,7 @@
         <v>318</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>319</v>
@@ -11774,10 +11758,10 @@
         <v>12</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>12</v>
@@ -11791,7 +11775,7 @@
         <v>322</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>324</v>
@@ -11803,13 +11787,13 @@
         <v>323</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>373</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>523</v>
@@ -11823,7 +11807,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>326</v>
@@ -11835,13 +11819,13 @@
         <v>327</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -11855,7 +11839,7 @@
         <v>329</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>330</v>
@@ -11870,7 +11854,7 @@
         <v>482</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>437</v>
@@ -11887,7 +11871,7 @@
         <v>10</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>333</v>
@@ -11899,7 +11883,7 @@
         <v>14</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>372</v>
@@ -11934,7 +11918,7 @@
         <v>12</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>483</v>
@@ -11966,7 +11950,7 @@
         <v>12</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>440</v>
@@ -11983,7 +11967,7 @@
         <v>341</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>342</v>
@@ -12001,7 +11985,7 @@
         <v>372</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>12</v>
@@ -12015,7 +11999,7 @@
         <v>341</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>346</v>
@@ -12027,13 +12011,13 @@
         <v>345</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -12047,7 +12031,7 @@
         <v>529</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>526</v>
@@ -12062,10 +12046,10 @@
         <v>530</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>558</v>
@@ -12079,7 +12063,7 @@
         <v>45</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>120</v>
@@ -12091,10 +12075,10 @@
         <v>48</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>412</v>
@@ -12111,25 +12095,25 @@
         <v>548</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>549</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>12</v>
@@ -12143,22 +12127,22 @@
         <v>445</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="D104" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>581</v>
-      </c>
       <c r="G104" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>481</v>
@@ -12175,7 +12159,7 @@
         <v>45</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>579</v>
@@ -12193,7 +12177,7 @@
         <v>372</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>12</v>
@@ -12207,7 +12191,7 @@
         <v>45</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>353</v>
@@ -12225,7 +12209,7 @@
         <v>372</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>12</v>
@@ -12271,7 +12255,7 @@
         <v>365</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>359</v>
@@ -12286,10 +12270,10 @@
         <v>386</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>12</v>
@@ -12303,7 +12287,7 @@
         <v>366</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>360</v>
@@ -12315,13 +12299,13 @@
         <v>361</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>557</v>
@@ -12332,10 +12316,10 @@
         <v>443</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>444</v>
@@ -12347,13 +12331,13 @@
         <v>14</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J110" s="3"/>
     </row>
@@ -12365,7 +12349,7 @@
         <v>365</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>449</v>
@@ -12380,10 +12364,10 @@
         <v>385</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J111" s="3"/>
     </row>
@@ -12395,7 +12379,7 @@
         <v>452</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>453</v>
@@ -12407,10 +12391,10 @@
         <v>155</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>547</v>
@@ -12425,7 +12409,7 @@
         <v>445</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>454</v>
@@ -12437,13 +12421,13 @@
         <v>14</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J113" s="3"/>
     </row>
@@ -12455,7 +12439,7 @@
         <v>460</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>457</v>
@@ -12467,13 +12451,13 @@
         <v>459</v>
       </c>
       <c r="G114" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="I114" s="4" t="s">
         <v>844</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>846</v>
       </c>
       <c r="J114" s="3"/>
     </row>
@@ -12485,7 +12469,7 @@
         <v>462</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>463</v>
@@ -12497,10 +12481,10 @@
         <v>160</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>479</v>
@@ -12515,7 +12499,7 @@
         <v>45</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>465</v>
@@ -12530,7 +12514,7 @@
         <v>573</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>412</v>
@@ -12545,7 +12529,7 @@
         <v>471</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>468</v>
@@ -12557,7 +12541,7 @@
         <v>473</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>372</v>
@@ -12575,7 +12559,7 @@
         <v>505</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>506</v>
@@ -12587,13 +12571,13 @@
         <v>231</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J118" s="3"/>
     </row>
@@ -12620,7 +12604,7 @@
         <v>12</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>518</v>
@@ -12637,7 +12621,7 @@
         <v>365</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>511</v>
@@ -12652,10 +12636,10 @@
         <v>396</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>514</v>
@@ -12669,10 +12653,10 @@
         <v>515</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>517</v>
@@ -12681,10 +12665,10 @@
         <v>520</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>519</v>
@@ -12701,7 +12685,7 @@
         <v>540</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>541</v>
@@ -12716,10 +12700,10 @@
         <v>543</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>12</v>
@@ -12733,7 +12717,7 @@
         <v>544</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>545</v>
@@ -12745,7 +12729,7 @@
         <v>546</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>372</v>
@@ -12754,7 +12738,7 @@
         <v>547</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
@@ -12765,7 +12749,7 @@
         <v>365</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>551</v>
@@ -12777,13 +12761,13 @@
         <v>178</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>553</v>
@@ -12797,7 +12781,7 @@
         <v>566</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>567</v>
@@ -12809,13 +12793,13 @@
         <v>577</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J125" s="3"/>
     </row>
@@ -12824,28 +12808,28 @@
         <v>561</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>569</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J126" s="3"/>
     </row>
@@ -12857,7 +12841,7 @@
         <v>578</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>559</v>
@@ -12869,10 +12853,10 @@
         <v>554</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>481</v>
@@ -12887,7 +12871,7 @@
         <v>571</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>572</v>
@@ -12899,7 +12883,7 @@
         <v>555</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>372</v>
@@ -12917,7 +12901,7 @@
         <v>544</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>574</v>
@@ -12938,7 +12922,7 @@
         <v>547</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
@@ -12961,16 +12945,16 @@
         <v>556</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -12981,25 +12965,25 @@
         <v>311</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>371</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>373</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>12</v>
@@ -13013,25 +12997,25 @@
         <v>311</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>371</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>12</v>
@@ -13042,31 +13026,31 @@
         <v>1000132</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>591</v>
-      </c>
       <c r="G133" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -13074,31 +13058,31 @@
         <v>1000133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>447</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
@@ -13106,28 +13090,28 @@
         <v>1000134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -13136,22 +13120,22 @@
         <v>1000135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G136" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>461</v>
@@ -13160,7 +13144,7 @@
         <v>481</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -13171,19 +13155,19 @@
         <v>452</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G137" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>610</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>372</v>
@@ -13192,7 +13176,7 @@
         <v>547</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
@@ -13203,28 +13187,28 @@
         <v>460</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D138" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="G138" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>614</v>
-      </c>
       <c r="J138" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
@@ -13232,28 +13216,28 @@
         <v>1000138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="G139" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>461</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -13262,28 +13246,28 @@
         <v>1000139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="G140" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J140" s="3"/>
     </row>
@@ -13292,31 +13276,31 @@
         <v>1000140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="D141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="G141" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -13327,25 +13311,25 @@
         <v>471</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="G142" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="I142" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="J142" s="3"/>
     </row>
@@ -13357,19 +13341,19 @@
         <v>365</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="G143" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>372</v>
@@ -13378,7 +13362,7 @@
         <v>414</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -13389,28 +13373,28 @@
         <v>515</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>520</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
@@ -13418,25 +13402,25 @@
         <v>1000144</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>573</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>412</v>
@@ -13448,16 +13432,16 @@
         <v>1000145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>555</v>
@@ -13466,10 +13450,10 @@
         <v>573</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J146" s="3"/>
     </row>
@@ -13478,28 +13462,28 @@
         <v>1000146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>555</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J147" s="3"/>
     </row>
@@ -13508,28 +13492,28 @@
         <v>1000147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="F148" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="G148" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J148" s="3"/>
     </row>
@@ -13541,25 +13525,25 @@
         <v>571</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>555</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J149" s="3"/>
     </row>
@@ -13568,25 +13552,25 @@
         <v>1000149</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="D150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>657</v>
-      </c>
       <c r="G150" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>481</v>
@@ -13598,22 +13582,22 @@
         <v>1000150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>664</v>
-      </c>
       <c r="G151" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>373</v>
@@ -13630,31 +13614,31 @@
         <v>1000151</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="F152" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>670</v>
-      </c>
       <c r="G152" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -13665,25 +13649,25 @@
         <v>571</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>555</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J153" s="3"/>
     </row>
@@ -13695,19 +13679,19 @@
         <v>571</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>555</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>372</v>
@@ -13722,7 +13706,7 @@
         <v>1000154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>12</v>
@@ -13734,7 +13718,7 @@
         <v>356</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>12</v>
@@ -13757,25 +13741,25 @@
         <v>363</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>373</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>12</v>
@@ -13789,28 +13773,28 @@
         <v>529</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D157" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="I157" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>690</v>
-      </c>
       <c r="J157" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -13821,28 +13805,28 @@
         <v>471</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F158" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="G158" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="H158" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="I158" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="J158" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -13853,25 +13837,25 @@
         <v>180</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>385</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>12</v>
@@ -13885,22 +13869,22 @@
         <v>10</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>703</v>
-      </c>
       <c r="F160" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>481</v>
@@ -13917,25 +13901,25 @@
         <v>10</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F161" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>706</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>447</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>12</v>
@@ -13949,25 +13933,25 @@
         <v>452</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D162" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G162" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J162" s="3"/>
     </row>
@@ -13979,22 +13963,22 @@
         <v>45</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>412</v>
@@ -14011,13 +13995,13 @@
         <v>45</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>48</v>
@@ -14026,7 +14010,7 @@
         <v>573</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>412</v>
@@ -14043,19 +14027,19 @@
         <v>377</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>372</v>
@@ -14072,28 +14056,28 @@
         <v>1000165</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="G166" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>718</v>
       </c>
       <c r="J166" s="3"/>
     </row>
@@ -14102,31 +14086,31 @@
         <v>1000166</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>723</v>
-      </c>
       <c r="E167" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>724</v>
-      </c>
       <c r="G167" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
@@ -14134,28 +14118,28 @@
         <v>1000167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D168" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>731</v>
-      </c>
       <c r="H168" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J168" s="3"/>
     </row>
@@ -14164,28 +14148,28 @@
         <v>1000168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D169" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="J169" s="3"/>
     </row>
@@ -14194,28 +14178,28 @@
         <v>1000169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E170" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="F170" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>738</v>
-      </c>
       <c r="G170" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J170" s="3"/>
     </row>
@@ -14224,28 +14208,28 @@
         <v>1000170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J171" s="3"/>
     </row>
@@ -14254,28 +14238,28 @@
         <v>1000171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="D172" s="3" t="s">
+      <c r="F172" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>746</v>
-      </c>
       <c r="G172" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J172" s="3"/>
     </row>
@@ -14287,13 +14271,13 @@
         <v>571</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>48</v>
@@ -14305,7 +14289,7 @@
         <v>372</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>12</v>
@@ -14319,16 +14303,16 @@
         <v>445</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D174" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>752</v>
-      </c>
       <c r="F174" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>447</v>
@@ -14337,7 +14321,7 @@
         <v>372</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>12</v>
@@ -14348,28 +14332,28 @@
         <v>1000174</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>755</v>
-      </c>
       <c r="F175" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>447</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>12</v>
@@ -14383,25 +14367,25 @@
         <v>571</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>12</v>
@@ -14415,13 +14399,13 @@
         <v>571</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>48</v>
@@ -14430,10 +14414,10 @@
         <v>573</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>12</v>
@@ -14447,25 +14431,25 @@
         <v>571</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>12</v>
@@ -14479,25 +14463,25 @@
         <v>278</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>12</v>
@@ -14511,22 +14495,22 @@
         <v>278</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>437</v>
@@ -14543,22 +14527,22 @@
         <v>452</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I181" s="4" t="s">
         <v>547</v>
@@ -14573,25 +14557,25 @@
         <v>571</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>12</v>
@@ -14602,25 +14586,25 @@
         <v>1000182</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>772</v>
-      </c>
       <c r="F183" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>437</v>
@@ -14637,19 +14621,19 @@
         <v>377</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D184" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>775</v>
-      </c>
       <c r="G184" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>372</v>
@@ -14669,25 +14653,25 @@
         <v>311</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>371</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>373</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>12</v>
@@ -14701,16 +14685,16 @@
         <v>365</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D186" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>780</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>385</v>
@@ -14728,25 +14712,25 @@
         <v>1000186</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>947</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>408</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>437</v>
@@ -14760,22 +14744,22 @@
         <v>1000187</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="F188" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="G188" s="4" t="s">
         <v>950</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>952</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>372</v>
@@ -14792,28 +14776,28 @@
         <v>1000188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="D189" s="3" t="s">
+      <c r="F189" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>391</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J189" s="3"/>
     </row>
@@ -14825,16 +14809,16 @@
         <v>571</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>573</v>
@@ -14857,16 +14841,16 @@
         <v>365</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="E191" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="D191" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>963</v>
-      </c>
       <c r="F191" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>385</v>
@@ -14887,16 +14871,16 @@
         <v>365</v>
       </c>
       <c r="C192" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="E192" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>964</v>
-      </c>
       <c r="F192" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>385</v>
@@ -14914,28 +14898,28 @@
         <v>1000192</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="E193" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="F193" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="D193" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="E193" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="H193" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="G193" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>994</v>
-      </c>
       <c r="I193" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J193" s="3"/>
     </row>
@@ -14947,16 +14931,16 @@
         <v>571</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>573</v>
@@ -14979,13 +14963,13 @@
         <v>162</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>164</v>
@@ -14997,7 +14981,7 @@
         <v>372</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J195" s="3" t="s">
         <v>12</v>
@@ -15008,28 +14992,28 @@
         <v>1000195</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="E196" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="F196" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="D196" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="E196" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>972</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>974</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>12</v>
@@ -15040,28 +15024,28 @@
         <v>1000196</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F197" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="G197" s="5" t="s">
         <v>980</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="H197" s="5" t="s">
         <v>372</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J197" s="3"/>
     </row>
@@ -15070,22 +15054,22 @@
         <v>1000197</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="E198" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="F198" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="E198" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>986</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>988</v>
       </c>
       <c r="H198" s="5" t="s">
         <v>372</v>
@@ -15100,28 +15084,28 @@
         <v>1000198</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="E199" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F199" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="E199" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F199" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="I199" s="4" t="s">
         <v>1004</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>1006</v>
       </c>
       <c r="J199" s="3"/>
     </row>
@@ -15133,13 +15117,13 @@
         <v>445</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E200" s="5" t="s">
         <v>1007</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>1009</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>542</v>
@@ -15165,25 +15149,25 @@
         <v>515</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>520</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J201" s="3"/>
     </row>
@@ -15195,13 +15179,13 @@
         <v>571</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>555</v>
@@ -15225,25 +15209,25 @@
         <v>362</v>
       </c>
       <c r="C203" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F203" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="D203" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>1019</v>
-      </c>
       <c r="G203" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J203" s="3"/>
     </row>
@@ -15255,13 +15239,13 @@
         <v>45</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>48</v>
@@ -15284,22 +15268,22 @@
         <v>1000204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C205" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F205" s="5" t="s">
         <v>1024</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>1027</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>474</v>
@@ -15319,13 +15303,13 @@
         <v>45</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>48</v>
@@ -15351,13 +15335,13 @@
         <v>45</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>48</v>
@@ -15383,16 +15367,16 @@
         <v>471</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E208" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F208" s="3" t="s">
         <v>1033</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>1035</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>391</v>
@@ -15401,7 +15385,7 @@
         <v>474</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J208" s="3"/>
     </row>
@@ -15410,28 +15394,28 @@
         <v>1000208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G209" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E209" s="5" t="s">
+      <c r="H209" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="F209" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G209" s="4" t="s">
+      <c r="I209" s="5" t="s">
         <v>1043</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>1045</v>
       </c>
       <c r="J209" s="3"/>
     </row>
@@ -15440,28 +15424,28 @@
         <v>1000209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G210" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E210" s="5" t="s">
+      <c r="H210" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="F210" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G210" s="4" t="s">
+      <c r="I210" s="5" t="s">
         <v>1043</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I210" s="5" t="s">
-        <v>1045</v>
       </c>
       <c r="J210" s="3"/>
     </row>
@@ -15470,28 +15454,28 @@
         <v>1000210</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E211" s="5" t="s">
+      <c r="G211" s="4" t="s">
         <v>1048</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>1050</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>474</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J211" s="3" t="s">
         <v>12</v>
@@ -15505,16 +15489,16 @@
         <v>45</v>
       </c>
       <c r="C212" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F212" s="5" t="s">
         <v>1052</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>1054</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>376</v>
@@ -15537,13 +15521,13 @@
         <v>365</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>183</v>
@@ -15555,7 +15539,7 @@
         <v>474</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J213" s="3" t="s">
         <v>12</v>
@@ -15569,25 +15553,25 @@
         <v>471</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>473</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="J214" s="3"/>
     </row>
@@ -15599,25 +15583,25 @@
         <v>471</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>473</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="J215" s="3"/>
     </row>
@@ -15629,25 +15613,25 @@
         <v>460</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F216" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="D216" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>1064</v>
-      </c>
       <c r="G216" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>461</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="J216" s="3"/>
     </row>
@@ -15659,13 +15643,13 @@
         <v>171</v>
       </c>
       <c r="C217" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E217" s="5" t="s">
         <v>1065</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>1067</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>178</v>
@@ -15677,7 +15661,7 @@
         <v>372</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>12</v>
@@ -15691,13 +15675,13 @@
         <v>45</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>48</v>
@@ -15723,13 +15707,13 @@
         <v>45</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>48</v>
@@ -15755,13 +15739,13 @@
         <v>445</v>
       </c>
       <c r="C220" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E220" s="5" t="s">
         <v>1072</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>1074</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>542</v>
@@ -15773,7 +15757,7 @@
         <v>474</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>12</v>
@@ -15787,19 +15771,19 @@
         <v>377</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>372</v>
@@ -15819,25 +15803,25 @@
         <v>171</v>
       </c>
       <c r="C222" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G222" s="5" t="s">
         <v>1078</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>1080</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>12</v>
@@ -15851,13 +15835,13 @@
         <v>45</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>48</v>
@@ -15883,13 +15867,13 @@
         <v>45</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>48</v>
@@ -15915,25 +15899,25 @@
         <v>471</v>
       </c>
       <c r="C225" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H225" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="D225" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E225" s="5" t="s">
+      <c r="I225" s="4" t="s">
         <v>1090</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>1092</v>
       </c>
       <c r="J225" s="3"/>
     </row>
@@ -15945,25 +15929,25 @@
         <v>471</v>
       </c>
       <c r="C226" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F226" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="D226" s="5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E226" s="5" t="s">
+      <c r="G226" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="H226" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I226" s="5" t="s">
         <v>1095</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I226" s="5" t="s">
-        <v>1097</v>
       </c>
       <c r="J226" s="3"/>
     </row>
@@ -15972,28 +15956,28 @@
         <v>1000226</v>
       </c>
       <c r="B227" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H227" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D227" s="8" t="s">
+      <c r="I227" s="5" t="s">
         <v>1100</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H227" s="8" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I227" s="5" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
@@ -16013,7 +15997,7 @@
         <v>335</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>12</v>
@@ -16036,7 +16020,7 @@
         <v>45</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>47</v>
@@ -16045,7 +16029,7 @@
         <v>47</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>376</v>
@@ -16068,25 +16052,25 @@
         <v>171</v>
       </c>
       <c r="C230" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H230" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="D230" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F230" s="5" t="s">
+      <c r="I230" s="5" t="s">
         <v>1121</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H230" s="4" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I230" s="5" t="s">
-        <v>1123</v>
       </c>
       <c r="J230" s="3" t="s">
         <v>12</v>
@@ -16100,16 +16084,16 @@
         <v>180</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G231" s="4" t="s">
         <v>385</v>
@@ -16129,28 +16113,28 @@
         <v>1000231</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C232" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F232" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="D232" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E232" s="5" t="s">
+      <c r="G232" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="H232" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="G232" s="5" t="s">
+      <c r="I232" s="5" t="s">
         <v>1132</v>
-      </c>
-      <c r="H232" s="5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I232" s="5" t="s">
-        <v>1134</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>12</v>
@@ -16164,28 +16148,28 @@
         <v>298</v>
       </c>
       <c r="C233" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G233" s="5" t="s">
         <v>1137</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E233" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G233" s="5" t="s">
-        <v>1139</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>373</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="J233" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
@@ -16205,7 +16189,7 @@
         <v>335</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G234" s="4" t="s">
         <v>12</v>
@@ -16228,13 +16212,13 @@
         <v>45</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>48</v>
@@ -16260,13 +16244,13 @@
         <v>445</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D236" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E236" s="5" t="s">
         <v>1144</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>1146</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>542</v>
@@ -16289,31 +16273,31 @@
         <v>1000236</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D237" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="E237" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G237" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>1166</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
@@ -16321,25 +16305,25 @@
         <v>1000237</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F238" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>1154</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>573</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I238" s="4" t="s">
         <v>418</v>
@@ -16353,28 +16337,28 @@
         <v>1000238</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E239" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="F239" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="D239" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E239" s="5" t="s">
+      <c r="G239" s="3" t="s">
         <v>1171</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>1173</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>12</v>
@@ -16388,13 +16372,13 @@
         <v>445</v>
       </c>
       <c r="C240" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E240" s="5" t="s">
         <v>1175</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>1177</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>542</v>
@@ -16403,7 +16387,7 @@
         <v>447</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I240" s="4" t="s">
         <v>481</v>
@@ -16417,28 +16401,28 @@
         <v>1000240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D241" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F241" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="E241" s="5" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>1181</v>
-      </c>
       <c r="G241" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>12</v>
@@ -16449,28 +16433,28 @@
         <v>1000241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C242" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F242" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="D242" s="5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E242" s="5" t="s">
+      <c r="G242" s="3" t="s">
         <v>1184</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>1186</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J242" s="3"/>
     </row>
@@ -16479,25 +16463,25 @@
         <v>1000242</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F243" s="3" t="s">
         <v>1187</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E243" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>1189</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>385</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I243" s="4" t="s">
         <v>414</v>
@@ -16509,28 +16493,28 @@
         <v>1000243</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D244" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="E244" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="D244" s="5" t="s">
+      <c r="F244" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="E244" s="5" t="s">
+      <c r="G244" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="H244" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="I244" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="H244" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I244" s="4" t="s">
-        <v>1197</v>
       </c>
       <c r="J244" s="3"/>
     </row>
@@ -16542,13 +16526,13 @@
         <v>45</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>48</v>
@@ -16574,13 +16558,13 @@
         <v>45</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>48</v>
@@ -16606,13 +16590,13 @@
         <v>45</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>48</v>
@@ -16638,13 +16622,13 @@
         <v>45</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>48</v>
@@ -16670,16 +16654,16 @@
         <v>10</v>
       </c>
       <c r="C249" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E249" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="D249" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>1210</v>
-      </c>
       <c r="F249" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>374</v>
@@ -16688,7 +16672,7 @@
         <v>486</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J249" s="3" t="s">
         <v>12</v>
@@ -16702,22 +16686,22 @@
         <v>278</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I250" s="4" t="s">
         <v>437</v>
@@ -16734,16 +16718,16 @@
         <v>445</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>447</v>
@@ -16752,7 +16736,7 @@
         <v>372</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="J251" s="3" t="s">
         <v>12</v>
@@ -16763,19 +16747,19 @@
         <v>1000251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>385</v>
@@ -16798,13 +16782,13 @@
         <v>540</v>
       </c>
       <c r="C253" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E253" s="5" t="s">
         <v>1223</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E253" s="5" t="s">
-        <v>1225</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>542</v>
@@ -16813,10 +16797,10 @@
         <v>447</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="J253" s="3" t="s">
         <v>12</v>
@@ -16827,19 +16811,19 @@
         <v>1000253</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D254" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="E254" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="D254" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E254" s="5" t="s">
-        <v>1231</v>
-      </c>
       <c r="F254" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>447</v>
@@ -16848,7 +16832,7 @@
         <v>372</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="J254" s="3" t="s">
         <v>12</v>
@@ -16862,16 +16846,16 @@
         <v>45</v>
       </c>
       <c r="C255" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F255" s="5" t="s">
         <v>1233</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>1235</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>376</v>
@@ -16894,25 +16878,25 @@
         <v>162</v>
       </c>
       <c r="C256" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F256" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="D256" s="5" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E256" s="5" t="s">
+      <c r="G256" s="3" t="s">
         <v>1237</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>1239</v>
       </c>
       <c r="H256" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="J256" s="3"/>
     </row>
@@ -16921,28 +16905,28 @@
         <v>1000256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C257" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G257" s="5" t="s">
         <v>1242</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G257" s="5" t="s">
-        <v>1244</v>
       </c>
       <c r="H257" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="J257" s="3"/>
     </row>
@@ -16966,10 +16950,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
